--- a/dataloader/data/GlycoEnzOntoDB.xlsx
+++ b/dataloader/data/GlycoEnzOntoDB.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26405"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78FB29B3-9BB1-49E9-A5CE-5C508FE10DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{860F27FB-2282-44BB-94B7-4195BB48C7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4002" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3983" uniqueCount="659">
   <si>
     <t>id</t>
   </si>
@@ -1653,7 +1653,7 @@
     <t>GlcCer-related</t>
   </si>
   <si>
-    <t>Ganglioside_1</t>
+    <t>Ganglioside</t>
   </si>
   <si>
     <t>Globo</t>
@@ -1665,12 +1665,15 @@
     <t>Neolacto-series</t>
   </si>
   <si>
-    <t>GAG_1</t>
+    <t>GAG</t>
   </si>
   <si>
     <t>O-Xyl</t>
   </si>
   <si>
+    <t>Elongation</t>
+  </si>
+  <si>
     <t>Chondroitin/Dermatan sulfate elongation</t>
   </si>
   <si>
@@ -1680,10 +1683,10 @@
     <t>Keratan sulfate elongation</t>
   </si>
   <si>
-    <t>Hyaluronan_1</t>
-  </si>
-  <si>
-    <t>N-linked_1</t>
+    <t>Hyaluronan</t>
+  </si>
+  <si>
+    <t>N-linked</t>
   </si>
   <si>
     <t>Dolichol</t>
@@ -1695,13 +1698,10 @@
     <t>Branching</t>
   </si>
   <si>
-    <t>O-linked_1</t>
-  </si>
-  <si>
-    <t>Collagen_1</t>
-  </si>
-  <si>
-    <t>O-Fucose_1</t>
+    <t>O-linked</t>
+  </si>
+  <si>
+    <t>O-Fucose</t>
   </si>
   <si>
     <t>POFUT1-type</t>
@@ -1728,7 +1728,7 @@
     <t>TMTC-type</t>
   </si>
   <si>
-    <t>O-GalNAc_1</t>
+    <t>O-GalNAc</t>
   </si>
   <si>
     <t>O-GalNAc init</t>
@@ -1752,9 +1752,6 @@
     <t>O-GlcNAc</t>
   </si>
   <si>
-    <t>Elongation</t>
-  </si>
-  <si>
     <t>I-branching</t>
   </si>
   <si>
@@ -1764,21 +1761,15 @@
     <t>Type-1 LacNAc</t>
   </si>
   <si>
-    <t>N-glycan elongate_1</t>
-  </si>
-  <si>
-    <t>O-glycan elongate_1</t>
+    <t>N-glycan elongate</t>
+  </si>
+  <si>
+    <t>O-glycan elongate</t>
   </si>
   <si>
     <t>Type-2 LacNAc</t>
   </si>
   <si>
-    <t>N-glycan elongate_2</t>
-  </si>
-  <si>
-    <t>O-glycan elongate_2</t>
-  </si>
-  <si>
     <t>Type-3 LacNAc</t>
   </si>
   <si>
@@ -1806,18 +1797,6 @@
     <t>Terminal sialic acid</t>
   </si>
   <si>
-    <t>Ganglioside_2</t>
-  </si>
-  <si>
-    <t>N-linked_2</t>
-  </si>
-  <si>
-    <t>O-GalNAc_2</t>
-  </si>
-  <si>
-    <t>O-Fucose_2</t>
-  </si>
-  <si>
     <t>Terminal sulfation</t>
   </si>
   <si>
@@ -1860,13 +1839,10 @@
     <t>Degradation</t>
   </si>
   <si>
-    <t>GAG_2</t>
-  </si>
-  <si>
     <t>Chondroitin sulfate</t>
   </si>
   <si>
-    <t>Lysosomal_1</t>
+    <t>Lysosomal</t>
   </si>
   <si>
     <t>HEXA</t>
@@ -1884,16 +1860,10 @@
     <t>Dermatan sulfate</t>
   </si>
   <si>
-    <t>Lysosomal_2</t>
-  </si>
-  <si>
     <t>Heparan sulfate</t>
   </si>
   <si>
-    <t>Extracellular_3</t>
-  </si>
-  <si>
-    <t>Lysosomal_3</t>
+    <t>Extracellular</t>
   </si>
   <si>
     <t>SGSH</t>
@@ -1902,34 +1872,16 @@
     <t>ARSG</t>
   </si>
   <si>
-    <t>Hyaluronan_2</t>
-  </si>
-  <si>
-    <t>Extracellular_4</t>
-  </si>
-  <si>
-    <t>Lysosomal_4</t>
-  </si>
-  <si>
     <t>Keratan sulfate</t>
   </si>
   <si>
-    <t>Cytoplasmic_5</t>
-  </si>
-  <si>
-    <t>Lysosomal_5</t>
+    <t>Cytoplasmic</t>
   </si>
   <si>
     <t>GLB1</t>
   </si>
   <si>
-    <t>GSL_2</t>
-  </si>
-  <si>
-    <t>Cytoplasmic_6</t>
-  </si>
-  <si>
-    <t>Lysosomal_6</t>
+    <t>GSL</t>
   </si>
   <si>
     <t>GLA</t>
@@ -1938,30 +1890,9 @@
     <t>GALC</t>
   </si>
   <si>
-    <t>N-linked_3</t>
-  </si>
-  <si>
-    <t>Cytoplasmic_7</t>
-  </si>
-  <si>
-    <t>Lysosomal_7</t>
-  </si>
-  <si>
-    <t>O-linked_2</t>
-  </si>
-  <si>
-    <t>Cytoplasmic_8</t>
-  </si>
-  <si>
-    <t>Lysosomal_8</t>
-  </si>
-  <si>
     <t>Other degradation</t>
   </si>
   <si>
-    <t>Collagen_2</t>
-  </si>
-  <si>
     <t>Donor synthesis</t>
   </si>
   <si>
@@ -1974,31 +1905,31 @@
     <t>Nucleotide-sugar synthesis</t>
   </si>
   <si>
-    <t>CMP-Sia_1</t>
-  </si>
-  <si>
-    <t>GDP-Fuc_1</t>
-  </si>
-  <si>
-    <t>GDP-Man_1</t>
-  </si>
-  <si>
-    <t>UDP-Gal_1</t>
-  </si>
-  <si>
-    <t>UDP-Glc_1</t>
-  </si>
-  <si>
-    <t>UDP-GlcA_1</t>
-  </si>
-  <si>
-    <t>UDP-GlcNAc_1</t>
-  </si>
-  <si>
-    <t>UDP-GalNAc_1</t>
-  </si>
-  <si>
-    <t>UDP-Xyl_1</t>
+    <t>CMP-Sia</t>
+  </si>
+  <si>
+    <t>GDP-Fuc</t>
+  </si>
+  <si>
+    <t>GDP-Man</t>
+  </si>
+  <si>
+    <t>UDP-Gal</t>
+  </si>
+  <si>
+    <t>UDP-Glc</t>
+  </si>
+  <si>
+    <t>UDP-GlcA</t>
+  </si>
+  <si>
+    <t>UDP-GlcNAc</t>
+  </si>
+  <si>
+    <t>UDP-GalNAc</t>
+  </si>
+  <si>
+    <t>UDP-Xyl</t>
   </si>
   <si>
     <t>Transport</t>
@@ -2014,33 +1945,6 @@
   </si>
   <si>
     <t>Nucleotide-sugar transport</t>
-  </si>
-  <si>
-    <t>CMP-Sia_2</t>
-  </si>
-  <si>
-    <t>GDP-Fuc_2</t>
-  </si>
-  <si>
-    <t>GDP-Man_2</t>
-  </si>
-  <si>
-    <t>UDP-Gal_2</t>
-  </si>
-  <si>
-    <t>UDP-GlcNAc_2</t>
-  </si>
-  <si>
-    <t>UDP-Xyl_2</t>
-  </si>
-  <si>
-    <t>UDP-Glc_2</t>
-  </si>
-  <si>
-    <t>UDP-GlcA_2</t>
-  </si>
-  <si>
-    <t>UDP-GalNAc_2</t>
   </si>
   <si>
     <t>Monosaccharide transport</t>
@@ -2470,8 +2374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L933"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A895" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A933"/>
+    <sheetView tabSelected="1" topLeftCell="D459" workbookViewId="0">
+      <selection activeCell="H486" sqref="H486:H504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10530,13 +10434,10 @@
         <v>521</v>
       </c>
       <c r="G486" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H486" t="s">
-        <v>545</v>
-      </c>
-      <c r="I486" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L486" t="s">
         <v>68</v>
@@ -10550,13 +10451,10 @@
         <v>521</v>
       </c>
       <c r="G487" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H487" t="s">
-        <v>545</v>
-      </c>
-      <c r="I487" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L487" t="s">
         <v>69</v>
@@ -10570,13 +10468,10 @@
         <v>521</v>
       </c>
       <c r="G488" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H488" t="s">
-        <v>545</v>
-      </c>
-      <c r="I488" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L488" t="s">
         <v>70</v>
@@ -10590,13 +10485,10 @@
         <v>521</v>
       </c>
       <c r="G489" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H489" t="s">
-        <v>545</v>
-      </c>
-      <c r="I489" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L489" t="s">
         <v>209</v>
@@ -10610,13 +10502,10 @@
         <v>521</v>
       </c>
       <c r="G490" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H490" t="s">
-        <v>545</v>
-      </c>
-      <c r="I490" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L490" t="s">
         <v>71</v>
@@ -10630,13 +10519,10 @@
         <v>521</v>
       </c>
       <c r="G491" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H491" t="s">
-        <v>545</v>
-      </c>
-      <c r="I491" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L491" t="s">
         <v>210</v>
@@ -10650,13 +10536,10 @@
         <v>521</v>
       </c>
       <c r="G492" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H492" t="s">
-        <v>545</v>
-      </c>
-      <c r="I492" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L492" t="s">
         <v>374</v>
@@ -10670,13 +10553,10 @@
         <v>521</v>
       </c>
       <c r="G493" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H493" t="s">
-        <v>545</v>
-      </c>
-      <c r="I493" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L493" t="s">
         <v>375</v>
@@ -10690,13 +10570,10 @@
         <v>521</v>
       </c>
       <c r="G494" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H494" t="s">
-        <v>545</v>
-      </c>
-      <c r="I494" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L494" t="s">
         <v>370</v>
@@ -10710,13 +10587,10 @@
         <v>521</v>
       </c>
       <c r="G495" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H495" t="s">
-        <v>545</v>
-      </c>
-      <c r="I495" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L495" t="s">
         <v>65</v>
@@ -10730,13 +10604,10 @@
         <v>521</v>
       </c>
       <c r="G496" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H496" t="s">
-        <v>545</v>
-      </c>
-      <c r="I496" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L496" t="s">
         <v>66</v>
@@ -10750,13 +10621,10 @@
         <v>521</v>
       </c>
       <c r="G497" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H497" t="s">
-        <v>545</v>
-      </c>
-      <c r="I497" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L497" t="s">
         <v>263</v>
@@ -10770,13 +10638,10 @@
         <v>521</v>
       </c>
       <c r="G498" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H498" t="s">
-        <v>545</v>
-      </c>
-      <c r="I498" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L498" t="s">
         <v>264</v>
@@ -10790,13 +10655,10 @@
         <v>521</v>
       </c>
       <c r="G499" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H499" t="s">
-        <v>545</v>
-      </c>
-      <c r="I499" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L499" t="s">
         <v>265</v>
@@ -10810,13 +10672,10 @@
         <v>521</v>
       </c>
       <c r="G500" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H500" t="s">
-        <v>545</v>
-      </c>
-      <c r="I500" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L500" t="s">
         <v>124</v>
@@ -10830,13 +10689,10 @@
         <v>521</v>
       </c>
       <c r="G501" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H501" t="s">
-        <v>545</v>
-      </c>
-      <c r="I501" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L501" t="s">
         <v>125</v>
@@ -10850,13 +10706,10 @@
         <v>521</v>
       </c>
       <c r="G502" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H502" t="s">
-        <v>545</v>
-      </c>
-      <c r="I502" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L502" t="s">
         <v>126</v>
@@ -10870,13 +10723,10 @@
         <v>521</v>
       </c>
       <c r="G503" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H503" t="s">
-        <v>545</v>
-      </c>
-      <c r="I503" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L503" t="s">
         <v>241</v>
@@ -10890,13 +10740,10 @@
         <v>521</v>
       </c>
       <c r="G504" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H504" t="s">
-        <v>545</v>
-      </c>
-      <c r="I504" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L504" t="s">
         <v>242</v>
@@ -10916,7 +10763,7 @@
         <v>545</v>
       </c>
       <c r="I505" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L505" t="s">
         <v>58</v>
@@ -10936,7 +10783,7 @@
         <v>545</v>
       </c>
       <c r="I506" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L506" t="s">
         <v>59</v>
@@ -10956,7 +10803,7 @@
         <v>545</v>
       </c>
       <c r="I507" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L507" t="s">
         <v>60</v>
@@ -10973,10 +10820,10 @@
         <v>522</v>
       </c>
       <c r="H508" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I508" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L508" t="s">
         <v>508</v>
@@ -10993,10 +10840,10 @@
         <v>522</v>
       </c>
       <c r="H509" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I509" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L509" t="s">
         <v>162</v>
@@ -11013,10 +10860,10 @@
         <v>522</v>
       </c>
       <c r="H510" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I510" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L510" t="s">
         <v>509</v>
@@ -11033,10 +10880,10 @@
         <v>522</v>
       </c>
       <c r="H511" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I511" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L511" t="s">
         <v>101</v>
@@ -11053,10 +10900,10 @@
         <v>522</v>
       </c>
       <c r="H512" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I512" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L512" t="s">
         <v>510</v>
@@ -11073,10 +10920,10 @@
         <v>522</v>
       </c>
       <c r="H513" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I513" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L513" t="s">
         <v>511</v>
@@ -11093,10 +10940,10 @@
         <v>522</v>
       </c>
       <c r="H514" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I514" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L514" t="s">
         <v>512</v>
@@ -11113,10 +10960,10 @@
         <v>522</v>
       </c>
       <c r="H515" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I515" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L515" t="s">
         <v>513</v>
@@ -11133,10 +10980,10 @@
         <v>522</v>
       </c>
       <c r="H516" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I516" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L516" t="s">
         <v>294</v>
@@ -11153,10 +11000,10 @@
         <v>522</v>
       </c>
       <c r="H517" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I517" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L517" t="s">
         <v>295</v>
@@ -11173,10 +11020,10 @@
         <v>522</v>
       </c>
       <c r="H518" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I518" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L518" t="s">
         <v>152</v>
@@ -11193,10 +11040,10 @@
         <v>522</v>
       </c>
       <c r="H519" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I519" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L519" t="s">
         <v>149</v>
@@ -11213,10 +11060,10 @@
         <v>522</v>
       </c>
       <c r="H520" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I520" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L520" t="s">
         <v>160</v>
@@ -11233,10 +11080,10 @@
         <v>522</v>
       </c>
       <c r="H521" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I521" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L521" t="s">
         <v>102</v>
@@ -11253,10 +11100,10 @@
         <v>522</v>
       </c>
       <c r="H522" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I522" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L522" t="s">
         <v>103</v>
@@ -11273,10 +11120,10 @@
         <v>522</v>
       </c>
       <c r="H523" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I523" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L523" t="s">
         <v>104</v>
@@ -11293,10 +11140,10 @@
         <v>522</v>
       </c>
       <c r="H524" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I524" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L524" t="s">
         <v>105</v>
@@ -11313,10 +11160,10 @@
         <v>522</v>
       </c>
       <c r="H525" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I525" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L525" t="s">
         <v>268</v>
@@ -11333,10 +11180,10 @@
         <v>522</v>
       </c>
       <c r="H526" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I526" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L526" t="s">
         <v>259</v>
@@ -11353,10 +11200,10 @@
         <v>522</v>
       </c>
       <c r="H527" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I527" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L527" t="s">
         <v>260</v>
@@ -11373,10 +11220,10 @@
         <v>522</v>
       </c>
       <c r="H528" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I528" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L528" t="s">
         <v>156</v>
@@ -11393,10 +11240,10 @@
         <v>522</v>
       </c>
       <c r="H529" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I529" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L529" t="s">
         <v>153</v>
@@ -11413,10 +11260,10 @@
         <v>522</v>
       </c>
       <c r="H530" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I530" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L530" t="s">
         <v>150</v>
@@ -11433,10 +11280,10 @@
         <v>522</v>
       </c>
       <c r="H531" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I531" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L531" t="s">
         <v>516</v>
@@ -11453,10 +11300,10 @@
         <v>522</v>
       </c>
       <c r="H532" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I532" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L532" t="s">
         <v>517</v>
@@ -11473,10 +11320,10 @@
         <v>522</v>
       </c>
       <c r="H533" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I533" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L533" t="s">
         <v>431</v>
@@ -11493,10 +11340,10 @@
         <v>522</v>
       </c>
       <c r="H534" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I534" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L534" t="s">
         <v>459</v>
@@ -11513,10 +11360,10 @@
         <v>522</v>
       </c>
       <c r="H535" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I535" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L535" t="s">
         <v>460</v>
@@ -11533,10 +11380,10 @@
         <v>522</v>
       </c>
       <c r="H536" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I536" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L536" t="s">
         <v>461</v>
@@ -11553,10 +11400,10 @@
         <v>522</v>
       </c>
       <c r="H537" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I537" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L537" t="s">
         <v>462</v>
@@ -11573,10 +11420,10 @@
         <v>522</v>
       </c>
       <c r="H538" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I538" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L538" t="s">
         <v>463</v>
@@ -11593,10 +11440,10 @@
         <v>522</v>
       </c>
       <c r="H539" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I539" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L539" t="s">
         <v>464</v>
@@ -11613,10 +11460,10 @@
         <v>522</v>
       </c>
       <c r="H540" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I540" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L540" t="s">
         <v>465</v>
@@ -11633,10 +11480,10 @@
         <v>522</v>
       </c>
       <c r="H541" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I541" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L541" t="s">
         <v>466</v>
@@ -11653,10 +11500,10 @@
         <v>522</v>
       </c>
       <c r="H542" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I542" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L542" t="s">
         <v>467</v>
@@ -11673,10 +11520,10 @@
         <v>522</v>
       </c>
       <c r="H543" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I543" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L543" t="s">
         <v>506</v>
@@ -11693,10 +11540,10 @@
         <v>522</v>
       </c>
       <c r="H544" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I544" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L544" t="s">
         <v>432</v>
@@ -11713,10 +11560,10 @@
         <v>522</v>
       </c>
       <c r="H545" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I545" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L545" t="s">
         <v>107</v>
@@ -11733,10 +11580,10 @@
         <v>522</v>
       </c>
       <c r="H546" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I546" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L546" t="s">
         <v>108</v>
@@ -11753,10 +11600,10 @@
         <v>522</v>
       </c>
       <c r="H547" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I547" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L547" t="s">
         <v>468</v>
@@ -11773,10 +11620,10 @@
         <v>522</v>
       </c>
       <c r="H548" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I548" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L548" t="s">
         <v>230</v>
@@ -11793,10 +11640,10 @@
         <v>522</v>
       </c>
       <c r="H549" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I549" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L549" t="s">
         <v>26</v>
@@ -11813,10 +11660,10 @@
         <v>522</v>
       </c>
       <c r="H550" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I550" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L550" t="s">
         <v>252</v>
@@ -11833,10 +11680,10 @@
         <v>522</v>
       </c>
       <c r="H551" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I551" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L551" t="s">
         <v>253</v>
@@ -11853,10 +11700,10 @@
         <v>522</v>
       </c>
       <c r="H552" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I552" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L552" t="s">
         <v>255</v>
@@ -11873,10 +11720,10 @@
         <v>522</v>
       </c>
       <c r="H553" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I553" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L553" t="s">
         <v>256</v>
@@ -11893,10 +11740,10 @@
         <v>522</v>
       </c>
       <c r="H554" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I554" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L554" t="s">
         <v>257</v>
@@ -11913,10 +11760,10 @@
         <v>522</v>
       </c>
       <c r="H555" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I555" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L555" t="s">
         <v>258</v>
@@ -11933,10 +11780,10 @@
         <v>522</v>
       </c>
       <c r="H556" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I556" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L556" t="s">
         <v>235</v>
@@ -11953,10 +11800,10 @@
         <v>522</v>
       </c>
       <c r="H557" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I557" t="s">
-        <v>556</v>
+        <v>117</v>
       </c>
       <c r="L557" t="s">
         <v>367</v>
@@ -11973,10 +11820,10 @@
         <v>522</v>
       </c>
       <c r="H558" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I558" t="s">
-        <v>556</v>
+        <v>117</v>
       </c>
       <c r="L558" t="s">
         <v>368</v>
@@ -11993,10 +11840,10 @@
         <v>522</v>
       </c>
       <c r="H559" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I559" t="s">
-        <v>556</v>
+        <v>117</v>
       </c>
       <c r="L559" t="s">
         <v>118</v>
@@ -12013,10 +11860,10 @@
         <v>522</v>
       </c>
       <c r="H560" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I560" t="s">
-        <v>556</v>
+        <v>117</v>
       </c>
       <c r="L560" t="s">
         <v>119</v>
@@ -12033,10 +11880,10 @@
         <v>522</v>
       </c>
       <c r="H561" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I561" t="s">
-        <v>556</v>
+        <v>117</v>
       </c>
       <c r="L561" t="s">
         <v>120</v>
@@ -12053,7 +11900,7 @@
         <v>522</v>
       </c>
       <c r="H562" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I562" t="s">
         <v>557</v>
@@ -12076,7 +11923,7 @@
         <v>522</v>
       </c>
       <c r="H563" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I563" t="s">
         <v>557</v>
@@ -12099,7 +11946,7 @@
         <v>522</v>
       </c>
       <c r="H564" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I564" t="s">
         <v>557</v>
@@ -12122,7 +11969,7 @@
         <v>522</v>
       </c>
       <c r="H565" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I565" t="s">
         <v>557</v>
@@ -12145,7 +11992,7 @@
         <v>522</v>
       </c>
       <c r="H566" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I566" t="s">
         <v>557</v>
@@ -12168,7 +12015,7 @@
         <v>522</v>
       </c>
       <c r="H567" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I567" t="s">
         <v>557</v>
@@ -12191,7 +12038,7 @@
         <v>522</v>
       </c>
       <c r="H568" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I568" t="s">
         <v>557</v>
@@ -12214,7 +12061,7 @@
         <v>522</v>
       </c>
       <c r="H569" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I569" t="s">
         <v>560</v>
@@ -12234,7 +12081,7 @@
         <v>522</v>
       </c>
       <c r="H570" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I570" t="s">
         <v>560</v>
@@ -12254,7 +12101,7 @@
         <v>522</v>
       </c>
       <c r="H571" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I571" t="s">
         <v>560</v>
@@ -12274,7 +12121,7 @@
         <v>522</v>
       </c>
       <c r="H572" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I572" t="s">
         <v>560</v>
@@ -12294,7 +12141,7 @@
         <v>522</v>
       </c>
       <c r="H573" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I573" t="s">
         <v>560</v>
@@ -12314,7 +12161,7 @@
         <v>522</v>
       </c>
       <c r="H574" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I574" t="s">
         <v>560</v>
@@ -12334,7 +12181,7 @@
         <v>522</v>
       </c>
       <c r="H575" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I575" t="s">
         <v>561</v>
@@ -12360,7 +12207,7 @@
         <v>522</v>
       </c>
       <c r="H576" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I576" t="s">
         <v>561</v>
@@ -12386,7 +12233,7 @@
         <v>522</v>
       </c>
       <c r="H577" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I577" t="s">
         <v>561</v>
@@ -12412,7 +12259,7 @@
         <v>522</v>
       </c>
       <c r="H578" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I578" t="s">
         <v>561</v>
@@ -12438,7 +12285,7 @@
         <v>522</v>
       </c>
       <c r="H579" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I579" t="s">
         <v>561</v>
@@ -12464,7 +12311,7 @@
         <v>522</v>
       </c>
       <c r="H580" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I580" t="s">
         <v>561</v>
@@ -12490,7 +12337,7 @@
         <v>522</v>
       </c>
       <c r="H581" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I581" t="s">
         <v>561</v>
@@ -12516,7 +12363,7 @@
         <v>522</v>
       </c>
       <c r="H582" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I582" t="s">
         <v>561</v>
@@ -12542,7 +12389,7 @@
         <v>522</v>
       </c>
       <c r="H583" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I583" t="s">
         <v>561</v>
@@ -12568,7 +12415,7 @@
         <v>522</v>
       </c>
       <c r="H584" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I584" t="s">
         <v>561</v>
@@ -12594,7 +12441,7 @@
         <v>522</v>
       </c>
       <c r="H585" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I585" t="s">
         <v>561</v>
@@ -12620,7 +12467,7 @@
         <v>522</v>
       </c>
       <c r="H586" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I586" t="s">
         <v>561</v>
@@ -12646,7 +12493,7 @@
         <v>522</v>
       </c>
       <c r="H587" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I587" t="s">
         <v>561</v>
@@ -12672,7 +12519,7 @@
         <v>522</v>
       </c>
       <c r="H588" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I588" t="s">
         <v>561</v>
@@ -12698,7 +12545,7 @@
         <v>522</v>
       </c>
       <c r="H589" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I589" t="s">
         <v>561</v>
@@ -12724,7 +12571,7 @@
         <v>522</v>
       </c>
       <c r="H590" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I590" t="s">
         <v>561</v>
@@ -12747,7 +12594,7 @@
         <v>522</v>
       </c>
       <c r="H591" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I591" t="s">
         <v>561</v>
@@ -12770,7 +12617,7 @@
         <v>522</v>
       </c>
       <c r="H592" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I592" t="s">
         <v>561</v>
@@ -12793,7 +12640,7 @@
         <v>522</v>
       </c>
       <c r="H593" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I593" t="s">
         <v>561</v>
@@ -12816,7 +12663,7 @@
         <v>522</v>
       </c>
       <c r="H594" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I594" t="s">
         <v>566</v>
@@ -12839,7 +12686,7 @@
         <v>522</v>
       </c>
       <c r="H595" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I595" t="s">
         <v>566</v>
@@ -12862,7 +12709,7 @@
         <v>522</v>
       </c>
       <c r="H596" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I596" t="s">
         <v>566</v>
@@ -12885,7 +12732,7 @@
         <v>522</v>
       </c>
       <c r="H597" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I597" t="s">
         <v>566</v>
@@ -12908,7 +12755,7 @@
         <v>522</v>
       </c>
       <c r="H598" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I598" t="s">
         <v>566</v>
@@ -12931,7 +12778,7 @@
         <v>522</v>
       </c>
       <c r="H599" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I599" t="s">
         <v>566</v>
@@ -12954,7 +12801,7 @@
         <v>522</v>
       </c>
       <c r="H600" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I600" t="s">
         <v>566</v>
@@ -12977,7 +12824,7 @@
         <v>522</v>
       </c>
       <c r="H601" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I601" t="s">
         <v>566</v>
@@ -13000,7 +12847,7 @@
         <v>522</v>
       </c>
       <c r="H602" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I602" t="s">
         <v>566</v>
@@ -13023,7 +12870,7 @@
         <v>522</v>
       </c>
       <c r="H603" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I603" t="s">
         <v>566</v>
@@ -13046,7 +12893,7 @@
         <v>522</v>
       </c>
       <c r="H604" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I604" t="s">
         <v>566</v>
@@ -13069,7 +12916,7 @@
         <v>522</v>
       </c>
       <c r="H605" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I605" t="s">
         <v>566</v>
@@ -13092,7 +12939,7 @@
         <v>522</v>
       </c>
       <c r="H606" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I606" t="s">
         <v>566</v>
@@ -13115,7 +12962,7 @@
         <v>522</v>
       </c>
       <c r="H607" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I607" t="s">
         <v>566</v>
@@ -13138,7 +12985,7 @@
         <v>522</v>
       </c>
       <c r="H608" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I608" t="s">
         <v>566</v>
@@ -13161,7 +13008,7 @@
         <v>522</v>
       </c>
       <c r="H609" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I609" t="s">
         <v>566</v>
@@ -13184,7 +13031,7 @@
         <v>522</v>
       </c>
       <c r="H610" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I610" t="s">
         <v>566</v>
@@ -13207,7 +13054,7 @@
         <v>522</v>
       </c>
       <c r="H611" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I611" t="s">
         <v>566</v>
@@ -13230,7 +13077,7 @@
         <v>522</v>
       </c>
       <c r="H612" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I612" t="s">
         <v>566</v>
@@ -13253,7 +13100,7 @@
         <v>522</v>
       </c>
       <c r="H613" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I613" t="s">
         <v>566</v>
@@ -13276,7 +13123,7 @@
         <v>522</v>
       </c>
       <c r="H614" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I614" t="s">
         <v>566</v>
@@ -13299,7 +13146,7 @@
         <v>522</v>
       </c>
       <c r="H615" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I615" t="s">
         <v>566</v>
@@ -13322,7 +13169,7 @@
         <v>522</v>
       </c>
       <c r="H616" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I616" t="s">
         <v>566</v>
@@ -13345,7 +13192,7 @@
         <v>522</v>
       </c>
       <c r="H617" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I617" t="s">
         <v>566</v>
@@ -13368,7 +13215,7 @@
         <v>522</v>
       </c>
       <c r="H618" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I618" t="s">
         <v>566</v>
@@ -13391,7 +13238,7 @@
         <v>522</v>
       </c>
       <c r="H619" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I619" t="s">
         <v>566</v>
@@ -13414,7 +13261,7 @@
         <v>522</v>
       </c>
       <c r="H620" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I620" t="s">
         <v>566</v>
@@ -13437,7 +13284,7 @@
         <v>522</v>
       </c>
       <c r="H621" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I621" t="s">
         <v>566</v>
@@ -13460,7 +13307,7 @@
         <v>522</v>
       </c>
       <c r="H622" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I622" t="s">
         <v>566</v>
@@ -13483,7 +13330,7 @@
         <v>522</v>
       </c>
       <c r="H623" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I623" t="s">
         <v>566</v>
@@ -13506,7 +13353,7 @@
         <v>522</v>
       </c>
       <c r="H624" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I624" t="s">
         <v>566</v>
@@ -13529,7 +13376,7 @@
         <v>522</v>
       </c>
       <c r="H625" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I625" t="s">
         <v>566</v>
@@ -13552,7 +13399,7 @@
         <v>522</v>
       </c>
       <c r="H626" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I626" t="s">
         <v>267</v>
@@ -13572,7 +13419,7 @@
         <v>522</v>
       </c>
       <c r="H627" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I627" t="s">
         <v>573</v>
@@ -13592,7 +13439,7 @@
         <v>522</v>
       </c>
       <c r="H628" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I628" t="s">
         <v>573</v>
@@ -13609,10 +13456,10 @@
         <v>521</v>
       </c>
       <c r="G629" t="s">
+        <v>547</v>
+      </c>
+      <c r="H629" t="s">
         <v>574</v>
-      </c>
-      <c r="H629" t="s">
-        <v>575</v>
       </c>
       <c r="L629" t="s">
         <v>232</v>
@@ -13626,10 +13473,10 @@
         <v>521</v>
       </c>
       <c r="G630" t="s">
+        <v>547</v>
+      </c>
+      <c r="H630" t="s">
         <v>574</v>
-      </c>
-      <c r="H630" t="s">
-        <v>575</v>
       </c>
       <c r="L630" t="s">
         <v>236</v>
@@ -13643,16 +13490,16 @@
         <v>521</v>
       </c>
       <c r="G631" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="H631" t="s">
+        <v>575</v>
+      </c>
+      <c r="I631" t="s">
         <v>576</v>
       </c>
-      <c r="I631" t="s">
+      <c r="J631" t="s">
         <v>577</v>
-      </c>
-      <c r="J631" t="s">
-        <v>578</v>
       </c>
       <c r="L631" t="s">
         <v>130</v>
@@ -13666,16 +13513,16 @@
         <v>521</v>
       </c>
       <c r="G632" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="H632" t="s">
+        <v>575</v>
+      </c>
+      <c r="I632" t="s">
         <v>576</v>
       </c>
-      <c r="I632" t="s">
+      <c r="J632" t="s">
         <v>577</v>
-      </c>
-      <c r="J632" t="s">
-        <v>578</v>
       </c>
       <c r="L632" t="s">
         <v>131</v>
@@ -13689,16 +13536,16 @@
         <v>521</v>
       </c>
       <c r="G633" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="H633" t="s">
+        <v>575</v>
+      </c>
+      <c r="I633" t="s">
         <v>576</v>
       </c>
-      <c r="I633" t="s">
-        <v>577</v>
-      </c>
       <c r="J633" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L633" t="s">
         <v>130</v>
@@ -13712,16 +13559,16 @@
         <v>521</v>
       </c>
       <c r="G634" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="H634" t="s">
+        <v>575</v>
+      </c>
+      <c r="I634" t="s">
         <v>576</v>
       </c>
-      <c r="I634" t="s">
-        <v>577</v>
-      </c>
       <c r="J634" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L634" t="s">
         <v>131</v>
@@ -13735,16 +13582,16 @@
         <v>521</v>
       </c>
       <c r="G635" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="H635" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I635" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J635" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L635" t="s">
         <v>124</v>
@@ -13758,16 +13605,16 @@
         <v>521</v>
       </c>
       <c r="G636" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="H636" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I636" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J636" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L636" t="s">
         <v>125</v>
@@ -13781,16 +13628,16 @@
         <v>521</v>
       </c>
       <c r="G637" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="H637" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I637" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J637" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L637" t="s">
         <v>126</v>
@@ -13804,16 +13651,16 @@
         <v>521</v>
       </c>
       <c r="G638" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="H638" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I638" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J638" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L638" t="s">
         <v>127</v>
@@ -13827,16 +13674,16 @@
         <v>521</v>
       </c>
       <c r="G639" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="H639" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I639" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J639" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L639" t="s">
         <v>128</v>
@@ -13850,16 +13697,16 @@
         <v>521</v>
       </c>
       <c r="G640" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="H640" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I640" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J640" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="L640" t="s">
         <v>124</v>
@@ -13873,16 +13720,16 @@
         <v>521</v>
       </c>
       <c r="G641" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="H641" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I641" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J641" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="L641" t="s">
         <v>125</v>
@@ -13896,16 +13743,16 @@
         <v>521</v>
       </c>
       <c r="G642" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="H642" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I642" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J642" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="L642" t="s">
         <v>126</v>
@@ -13919,16 +13766,16 @@
         <v>521</v>
       </c>
       <c r="G643" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="H643" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I643" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J643" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="L643" t="s">
         <v>127</v>
@@ -13942,16 +13789,16 @@
         <v>521</v>
       </c>
       <c r="G644" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="H644" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I644" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J644" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="L644" t="s">
         <v>128</v>
@@ -13965,13 +13812,13 @@
         <v>521</v>
       </c>
       <c r="G645" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="H645" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I645" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L645" t="s">
         <v>133</v>
@@ -13985,13 +13832,13 @@
         <v>521</v>
       </c>
       <c r="G646" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="H646" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I646" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L646" t="s">
         <v>569</v>
@@ -14005,10 +13852,10 @@
         <v>521</v>
       </c>
       <c r="G647" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="H647" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="L647" t="s">
         <v>213</v>
@@ -14022,10 +13869,10 @@
         <v>521</v>
       </c>
       <c r="G648" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="H648" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="L648" t="s">
         <v>220</v>
@@ -14039,10 +13886,10 @@
         <v>521</v>
       </c>
       <c r="G649" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="H649" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="L649" t="s">
         <v>221</v>
@@ -14056,7 +13903,7 @@
         <v>521</v>
       </c>
       <c r="G650" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H650" t="s">
         <v>122</v>
@@ -14073,7 +13920,7 @@
         <v>521</v>
       </c>
       <c r="G651" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H651" t="s">
         <v>122</v>
@@ -14090,7 +13937,7 @@
         <v>521</v>
       </c>
       <c r="G652" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H652" t="s">
         <v>122</v>
@@ -14107,10 +13954,10 @@
         <v>521</v>
       </c>
       <c r="G653" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H653" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="L653" t="s">
         <v>316</v>
@@ -14124,10 +13971,10 @@
         <v>521</v>
       </c>
       <c r="G654" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H654" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="L654" t="s">
         <v>73</v>
@@ -14141,10 +13988,10 @@
         <v>521</v>
       </c>
       <c r="G655" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H655" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="L655" t="s">
         <v>74</v>
@@ -14158,10 +14005,10 @@
         <v>521</v>
       </c>
       <c r="G656" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H656" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="L656" t="s">
         <v>223</v>
@@ -14175,10 +14022,10 @@
         <v>521</v>
       </c>
       <c r="G657" t="s">
+        <v>582</v>
+      </c>
+      <c r="H657" t="s">
         <v>585</v>
-      </c>
-      <c r="H657" t="s">
-        <v>588</v>
       </c>
       <c r="L657" t="s">
         <v>22</v>
@@ -14192,10 +14039,10 @@
         <v>521</v>
       </c>
       <c r="G658" t="s">
+        <v>582</v>
+      </c>
+      <c r="H658" t="s">
         <v>585</v>
-      </c>
-      <c r="H658" t="s">
-        <v>588</v>
       </c>
       <c r="L658" t="s">
         <v>34</v>
@@ -14209,10 +14056,10 @@
         <v>521</v>
       </c>
       <c r="G659" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H659" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L659" t="s">
         <v>311</v>
@@ -14226,10 +14073,10 @@
         <v>521</v>
       </c>
       <c r="G660" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H660" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L660" t="s">
         <v>312</v>
@@ -14243,10 +14090,10 @@
         <v>521</v>
       </c>
       <c r="G661" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H661" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L661" t="s">
         <v>313</v>
@@ -14260,10 +14107,10 @@
         <v>521</v>
       </c>
       <c r="G662" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H662" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L662" t="s">
         <v>18</v>
@@ -14277,10 +14124,10 @@
         <v>521</v>
       </c>
       <c r="G663" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H663" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L663" t="s">
         <v>19</v>
@@ -14294,10 +14141,10 @@
         <v>521</v>
       </c>
       <c r="G664" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H664" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L664" t="s">
         <v>20</v>
@@ -14311,10 +14158,10 @@
         <v>521</v>
       </c>
       <c r="G665" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H665" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L665" t="s">
         <v>21</v>
@@ -14328,10 +14175,10 @@
         <v>521</v>
       </c>
       <c r="G666" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H666" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L666" t="s">
         <v>22</v>
@@ -14345,10 +14192,10 @@
         <v>521</v>
       </c>
       <c r="G667" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H667" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L667" t="s">
         <v>23</v>
@@ -14362,10 +14209,10 @@
         <v>521</v>
       </c>
       <c r="G668" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H668" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L668" t="s">
         <v>518</v>
@@ -14379,10 +14226,10 @@
         <v>521</v>
       </c>
       <c r="G669" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H669" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L669" t="s">
         <v>519</v>
@@ -14396,10 +14243,10 @@
         <v>521</v>
       </c>
       <c r="G670" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H670" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L670" t="s">
         <v>15</v>
@@ -14413,10 +14260,10 @@
         <v>521</v>
       </c>
       <c r="G671" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H671" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L671" t="s">
         <v>16</v>
@@ -14430,13 +14277,13 @@
         <v>521</v>
       </c>
       <c r="G672" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H672" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I672" t="s">
-        <v>592</v>
+        <v>541</v>
       </c>
       <c r="L672" t="s">
         <v>43</v>
@@ -14450,13 +14297,13 @@
         <v>521</v>
       </c>
       <c r="G673" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H673" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I673" t="s">
-        <v>592</v>
+        <v>541</v>
       </c>
       <c r="L673" t="s">
         <v>44</v>
@@ -14470,13 +14317,13 @@
         <v>521</v>
       </c>
       <c r="G674" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H674" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I674" t="s">
-        <v>592</v>
+        <v>541</v>
       </c>
       <c r="L674" t="s">
         <v>51</v>
@@ -14490,13 +14337,13 @@
         <v>521</v>
       </c>
       <c r="G675" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H675" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I675" t="s">
-        <v>592</v>
+        <v>541</v>
       </c>
       <c r="L675" t="s">
         <v>36</v>
@@ -14510,13 +14357,13 @@
         <v>521</v>
       </c>
       <c r="G676" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H676" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I676" t="s">
-        <v>592</v>
+        <v>541</v>
       </c>
       <c r="L676" t="s">
         <v>37</v>
@@ -14530,13 +14377,13 @@
         <v>521</v>
       </c>
       <c r="G677" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H677" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I677" t="s">
-        <v>592</v>
+        <v>541</v>
       </c>
       <c r="L677" t="s">
         <v>45</v>
@@ -14550,13 +14397,13 @@
         <v>521</v>
       </c>
       <c r="G678" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H678" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I678" t="s">
-        <v>592</v>
+        <v>541</v>
       </c>
       <c r="L678" t="s">
         <v>46</v>
@@ -14570,13 +14417,13 @@
         <v>521</v>
       </c>
       <c r="G679" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H679" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I679" t="s">
-        <v>592</v>
+        <v>541</v>
       </c>
       <c r="L679" t="s">
         <v>52</v>
@@ -14590,13 +14437,13 @@
         <v>521</v>
       </c>
       <c r="G680" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H680" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I680" t="s">
-        <v>592</v>
+        <v>541</v>
       </c>
       <c r="L680" t="s">
         <v>53</v>
@@ -14610,13 +14457,13 @@
         <v>521</v>
       </c>
       <c r="G681" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H681" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I681" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="L681" t="s">
         <v>41</v>
@@ -14630,13 +14477,13 @@
         <v>521</v>
       </c>
       <c r="G682" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H682" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I682" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="L682" t="s">
         <v>42</v>
@@ -14650,13 +14497,13 @@
         <v>521</v>
       </c>
       <c r="G683" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H683" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I683" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="L683" t="s">
         <v>33</v>
@@ -14670,13 +14517,13 @@
         <v>521</v>
       </c>
       <c r="G684" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H684" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I684" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="L684" t="s">
         <v>34</v>
@@ -14690,13 +14537,13 @@
         <v>521</v>
       </c>
       <c r="G685" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H685" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I685" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="L685" t="s">
         <v>35</v>
@@ -14710,13 +14557,13 @@
         <v>521</v>
       </c>
       <c r="G686" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H686" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I686" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="L686" t="s">
         <v>49</v>
@@ -14730,13 +14577,13 @@
         <v>521</v>
       </c>
       <c r="G687" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H687" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I687" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="L687" t="s">
         <v>50</v>
@@ -14750,13 +14597,13 @@
         <v>521</v>
       </c>
       <c r="G688" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H688" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I688" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="L688" t="s">
         <v>51</v>
@@ -14770,13 +14617,13 @@
         <v>521</v>
       </c>
       <c r="G689" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H689" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I689" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="L689" t="s">
         <v>32</v>
@@ -14790,13 +14637,13 @@
         <v>521</v>
       </c>
       <c r="G690" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H690" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I690" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="L690" t="s">
         <v>39</v>
@@ -14810,13 +14657,13 @@
         <v>521</v>
       </c>
       <c r="G691" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H691" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I691" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="L691" t="s">
         <v>40</v>
@@ -14830,13 +14677,13 @@
         <v>521</v>
       </c>
       <c r="G692" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H692" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I692" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="L692" t="s">
         <v>48</v>
@@ -14850,13 +14697,13 @@
         <v>521</v>
       </c>
       <c r="G693" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H693" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I693" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="L693" t="s">
         <v>41</v>
@@ -14870,13 +14717,13 @@
         <v>521</v>
       </c>
       <c r="G694" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H694" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I694" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="L694" t="s">
         <v>42</v>
@@ -14890,13 +14737,13 @@
         <v>521</v>
       </c>
       <c r="G695" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H695" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I695" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="L695" t="s">
         <v>33</v>
@@ -14910,13 +14757,13 @@
         <v>521</v>
       </c>
       <c r="G696" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H696" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I696" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="L696" t="s">
         <v>34</v>
@@ -14930,13 +14777,13 @@
         <v>521</v>
       </c>
       <c r="G697" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H697" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I697" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="L697" t="s">
         <v>35</v>
@@ -14950,13 +14797,13 @@
         <v>521</v>
       </c>
       <c r="G698" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H698" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I698" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="L698" t="s">
         <v>49</v>
@@ -14970,13 +14817,13 @@
         <v>521</v>
       </c>
       <c r="G699" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H699" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I699" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="L699" t="s">
         <v>50</v>
@@ -14990,13 +14837,13 @@
         <v>521</v>
       </c>
       <c r="G700" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H700" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I700" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="L700" t="s">
         <v>43</v>
@@ -15010,13 +14857,13 @@
         <v>521</v>
       </c>
       <c r="G701" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H701" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I701" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="L701" t="s">
         <v>44</v>
@@ -15030,13 +14877,13 @@
         <v>521</v>
       </c>
       <c r="G702" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H702" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I702" t="s">
-        <v>595</v>
+        <v>557</v>
       </c>
       <c r="L702" t="s">
         <v>41</v>
@@ -15050,13 +14897,13 @@
         <v>521</v>
       </c>
       <c r="G703" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H703" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I703" t="s">
-        <v>595</v>
+        <v>557</v>
       </c>
       <c r="L703" t="s">
         <v>42</v>
@@ -15070,13 +14917,13 @@
         <v>521</v>
       </c>
       <c r="G704" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H704" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I704" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="L704" t="s">
         <v>311</v>
@@ -15090,13 +14937,13 @@
         <v>521</v>
       </c>
       <c r="G705" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H705" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I705" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="L705" t="s">
         <v>312</v>
@@ -15110,13 +14957,13 @@
         <v>521</v>
       </c>
       <c r="G706" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H706" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I706" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="L706" t="s">
         <v>313</v>
@@ -15130,13 +14977,13 @@
         <v>521</v>
       </c>
       <c r="G707" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H707" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I707" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="L707" t="s">
         <v>306</v>
@@ -15150,13 +14997,13 @@
         <v>521</v>
       </c>
       <c r="G708" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H708" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I708" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="L708" t="s">
         <v>301</v>
@@ -15170,13 +15017,13 @@
         <v>521</v>
       </c>
       <c r="G709" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H709" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I709" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="L709" t="s">
         <v>302</v>
@@ -15190,13 +15037,13 @@
         <v>521</v>
       </c>
       <c r="G710" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H710" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I710" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="L710" t="s">
         <v>303</v>
@@ -15210,13 +15057,13 @@
         <v>521</v>
       </c>
       <c r="G711" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H711" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I711" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="L711" t="s">
         <v>321</v>
@@ -15230,13 +15077,13 @@
         <v>521</v>
       </c>
       <c r="G712" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H712" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I712" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="L712" t="s">
         <v>308</v>
@@ -15250,13 +15097,13 @@
         <v>521</v>
       </c>
       <c r="G713" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H713" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I713" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="L713" t="s">
         <v>309</v>
@@ -15270,16 +15117,16 @@
         <v>521</v>
       </c>
       <c r="G714" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H714" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I714" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="J714" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="L714" t="s">
         <v>321</v>
@@ -15293,16 +15140,16 @@
         <v>521</v>
       </c>
       <c r="G715" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H715" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I715" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="J715" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="L715" t="s">
         <v>322</v>
@@ -15316,16 +15163,16 @@
         <v>521</v>
       </c>
       <c r="G716" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H716" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I716" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="J716" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="L716" t="s">
         <v>324</v>
@@ -15339,16 +15186,16 @@
         <v>521</v>
       </c>
       <c r="G717" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H717" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I717" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="J717" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="L717" t="s">
         <v>325</v>
@@ -15362,16 +15209,16 @@
         <v>521</v>
       </c>
       <c r="G718" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H718" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I718" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="J718" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="L718" t="s">
         <v>326</v>
@@ -15385,16 +15232,16 @@
         <v>521</v>
       </c>
       <c r="G719" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H719" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I719" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="J719" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="L719" t="s">
         <v>318</v>
@@ -15408,16 +15255,16 @@
         <v>521</v>
       </c>
       <c r="G720" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H720" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I720" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="J720" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="L720" t="s">
         <v>319</v>
@@ -15431,16 +15278,16 @@
         <v>521</v>
       </c>
       <c r="G721" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H721" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I721" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="J721" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="L721" t="s">
         <v>329</v>
@@ -15454,19 +15301,19 @@
         <v>521</v>
       </c>
       <c r="G722" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H722" t="s">
+        <v>589</v>
+      </c>
+      <c r="I722" t="s">
+        <v>593</v>
+      </c>
+      <c r="J722" t="s">
+        <v>595</v>
+      </c>
+      <c r="K722" t="s">
         <v>596</v>
-      </c>
-      <c r="I722" t="s">
-        <v>600</v>
-      </c>
-      <c r="J722" t="s">
-        <v>602</v>
-      </c>
-      <c r="K722" t="s">
-        <v>603</v>
       </c>
       <c r="L722" t="s">
         <v>343</v>
@@ -15480,19 +15327,19 @@
         <v>521</v>
       </c>
       <c r="G723" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H723" t="s">
+        <v>589</v>
+      </c>
+      <c r="I723" t="s">
+        <v>593</v>
+      </c>
+      <c r="J723" t="s">
+        <v>595</v>
+      </c>
+      <c r="K723" t="s">
         <v>596</v>
-      </c>
-      <c r="I723" t="s">
-        <v>600</v>
-      </c>
-      <c r="J723" t="s">
-        <v>602</v>
-      </c>
-      <c r="K723" t="s">
-        <v>603</v>
       </c>
       <c r="L723" t="s">
         <v>344</v>
@@ -15506,19 +15353,19 @@
         <v>521</v>
       </c>
       <c r="G724" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H724" t="s">
+        <v>589</v>
+      </c>
+      <c r="I724" t="s">
+        <v>593</v>
+      </c>
+      <c r="J724" t="s">
+        <v>595</v>
+      </c>
+      <c r="K724" t="s">
         <v>596</v>
-      </c>
-      <c r="I724" t="s">
-        <v>600</v>
-      </c>
-      <c r="J724" t="s">
-        <v>602</v>
-      </c>
-      <c r="K724" t="s">
-        <v>603</v>
       </c>
       <c r="L724" t="s">
         <v>345</v>
@@ -15532,19 +15379,19 @@
         <v>521</v>
       </c>
       <c r="G725" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H725" t="s">
+        <v>589</v>
+      </c>
+      <c r="I725" t="s">
+        <v>593</v>
+      </c>
+      <c r="J725" t="s">
+        <v>595</v>
+      </c>
+      <c r="K725" t="s">
         <v>596</v>
-      </c>
-      <c r="I725" t="s">
-        <v>600</v>
-      </c>
-      <c r="J725" t="s">
-        <v>602</v>
-      </c>
-      <c r="K725" t="s">
-        <v>603</v>
       </c>
       <c r="L725" t="s">
         <v>346</v>
@@ -15558,16 +15405,16 @@
         <v>521</v>
       </c>
       <c r="G726" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H726" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I726" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="J726" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="L726" t="s">
         <v>312</v>
@@ -15581,16 +15428,16 @@
         <v>521</v>
       </c>
       <c r="G727" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H727" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I727" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="J727" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="L727" t="s">
         <v>313</v>
@@ -15604,16 +15451,16 @@
         <v>521</v>
       </c>
       <c r="G728" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H728" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I728" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="J728" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="L728" t="s">
         <v>314</v>
@@ -15627,16 +15474,16 @@
         <v>521</v>
       </c>
       <c r="G729" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H729" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I729" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="J729" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="L729" t="s">
         <v>306</v>
@@ -15650,16 +15497,16 @@
         <v>521</v>
       </c>
       <c r="G730" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H730" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I730" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="J730" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="L730" t="s">
         <v>321</v>
@@ -15673,13 +15520,13 @@
         <v>521</v>
       </c>
       <c r="G731" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H731" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I731" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="L731" t="s">
         <v>301</v>
@@ -15693,13 +15540,13 @@
         <v>521</v>
       </c>
       <c r="G732" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H732" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I732" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="L732" t="s">
         <v>302</v>
@@ -15713,13 +15560,13 @@
         <v>521</v>
       </c>
       <c r="G733" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H733" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I733" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="L733" t="s">
         <v>303</v>
@@ -15733,13 +15580,13 @@
         <v>521</v>
       </c>
       <c r="G734" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H734" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I734" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="L734" t="s">
         <v>304</v>
@@ -15753,13 +15600,13 @@
         <v>521</v>
       </c>
       <c r="G735" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H735" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I735" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="L735" t="s">
         <v>304</v>
@@ -15773,13 +15620,13 @@
         <v>521</v>
       </c>
       <c r="G736" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H736" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I736" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="L736" t="s">
         <v>301</v>
@@ -15793,13 +15640,13 @@
         <v>521</v>
       </c>
       <c r="G737" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H737" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I737" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="L737" t="s">
         <v>302</v>
@@ -15813,13 +15660,13 @@
         <v>521</v>
       </c>
       <c r="G738" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H738" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I738" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="L738" t="s">
         <v>303</v>
@@ -15833,13 +15680,13 @@
         <v>521</v>
       </c>
       <c r="G739" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H739" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I739" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="L739" t="s">
         <v>304</v>
@@ -15853,13 +15700,13 @@
         <v>521</v>
       </c>
       <c r="G740" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H740" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I740" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="L740" t="s">
         <v>298</v>
@@ -15873,13 +15720,13 @@
         <v>521</v>
       </c>
       <c r="G741" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H741" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I741" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="L741" t="s">
         <v>299</v>
@@ -15890,19 +15737,19 @@
         <v>741</v>
       </c>
       <c r="F742" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G742" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H742" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="I742" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="L742" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="743" spans="1:12">
@@ -15910,19 +15757,19 @@
         <v>742</v>
       </c>
       <c r="F743" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G743" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H743" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="I743" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="L743" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="744" spans="1:12">
@@ -15930,19 +15777,19 @@
         <v>743</v>
       </c>
       <c r="F744" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G744" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H744" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="I744" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="L744" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="745" spans="1:12">
@@ -15950,16 +15797,16 @@
         <v>744</v>
       </c>
       <c r="F745" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G745" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H745" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="I745" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="L745" t="s">
         <v>441</v>
@@ -15970,16 +15817,16 @@
         <v>745</v>
       </c>
       <c r="F746" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G746" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H746" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="I746" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="L746" t="s">
         <v>408</v>
@@ -15990,19 +15837,19 @@
         <v>746</v>
       </c>
       <c r="F747" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G747" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H747" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="I747" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="L747" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
     <row r="748" spans="1:12">
@@ -16010,19 +15857,19 @@
         <v>747</v>
       </c>
       <c r="F748" t="s">
+        <v>602</v>
+      </c>
+      <c r="G748" t="s">
+        <v>545</v>
+      </c>
+      <c r="H748" t="s">
         <v>609</v>
       </c>
-      <c r="G748" t="s">
-        <v>610</v>
-      </c>
-      <c r="H748" t="s">
-        <v>617</v>
-      </c>
       <c r="I748" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="L748" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="749" spans="1:12">
@@ -16030,19 +15877,19 @@
         <v>748</v>
       </c>
       <c r="F749" t="s">
+        <v>602</v>
+      </c>
+      <c r="G749" t="s">
+        <v>545</v>
+      </c>
+      <c r="H749" t="s">
         <v>609</v>
       </c>
-      <c r="G749" t="s">
-        <v>610</v>
-      </c>
-      <c r="H749" t="s">
-        <v>617</v>
-      </c>
       <c r="I749" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="L749" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="750" spans="1:12">
@@ -16050,19 +15897,19 @@
         <v>749</v>
       </c>
       <c r="F750" t="s">
+        <v>602</v>
+      </c>
+      <c r="G750" t="s">
+        <v>545</v>
+      </c>
+      <c r="H750" t="s">
         <v>609</v>
       </c>
-      <c r="G750" t="s">
-        <v>610</v>
-      </c>
-      <c r="H750" t="s">
-        <v>617</v>
-      </c>
       <c r="I750" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="L750" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="751" spans="1:12">
@@ -16070,16 +15917,16 @@
         <v>750</v>
       </c>
       <c r="F751" t="s">
+        <v>602</v>
+      </c>
+      <c r="G751" t="s">
+        <v>545</v>
+      </c>
+      <c r="H751" t="s">
         <v>609</v>
       </c>
-      <c r="G751" t="s">
-        <v>610</v>
-      </c>
-      <c r="H751" t="s">
-        <v>617</v>
-      </c>
       <c r="I751" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="L751" t="s">
         <v>441</v>
@@ -16090,16 +15937,16 @@
         <v>751</v>
       </c>
       <c r="F752" t="s">
+        <v>602</v>
+      </c>
+      <c r="G752" t="s">
+        <v>545</v>
+      </c>
+      <c r="H752" t="s">
         <v>609</v>
       </c>
-      <c r="G752" t="s">
-        <v>610</v>
-      </c>
-      <c r="H752" t="s">
-        <v>617</v>
-      </c>
       <c r="I752" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="L752" t="s">
         <v>416</v>
@@ -16110,16 +15957,16 @@
         <v>752</v>
       </c>
       <c r="F753" t="s">
+        <v>602</v>
+      </c>
+      <c r="G753" t="s">
+        <v>545</v>
+      </c>
+      <c r="H753" t="s">
         <v>609</v>
       </c>
-      <c r="G753" t="s">
-        <v>610</v>
-      </c>
-      <c r="H753" t="s">
-        <v>617</v>
-      </c>
       <c r="I753" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="L753" t="s">
         <v>444</v>
@@ -16130,16 +15977,16 @@
         <v>753</v>
       </c>
       <c r="F754" t="s">
+        <v>602</v>
+      </c>
+      <c r="G754" t="s">
+        <v>545</v>
+      </c>
+      <c r="H754" t="s">
         <v>609</v>
       </c>
-      <c r="G754" t="s">
-        <v>610</v>
-      </c>
-      <c r="H754" t="s">
-        <v>617</v>
-      </c>
       <c r="I754" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="L754" t="s">
         <v>408</v>
@@ -16150,19 +15997,19 @@
         <v>754</v>
       </c>
       <c r="F755" t="s">
+        <v>602</v>
+      </c>
+      <c r="G755" t="s">
+        <v>545</v>
+      </c>
+      <c r="H755" t="s">
         <v>609</v>
       </c>
-      <c r="G755" t="s">
-        <v>610</v>
-      </c>
-      <c r="H755" t="s">
-        <v>617</v>
-      </c>
       <c r="I755" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="L755" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
     <row r="756" spans="1:12">
@@ -16170,16 +16017,16 @@
         <v>755</v>
       </c>
       <c r="F756" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G756" t="s">
+        <v>545</v>
+      </c>
+      <c r="H756" t="s">
         <v>610</v>
       </c>
-      <c r="H756" t="s">
-        <v>619</v>
-      </c>
       <c r="I756" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="L756" t="s">
         <v>440</v>
@@ -16190,16 +16037,16 @@
         <v>756</v>
       </c>
       <c r="F757" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G757" t="s">
+        <v>545</v>
+      </c>
+      <c r="H757" t="s">
         <v>610</v>
       </c>
-      <c r="H757" t="s">
-        <v>619</v>
-      </c>
       <c r="I757" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="L757" t="s">
         <v>413</v>
@@ -16210,16 +16057,16 @@
         <v>757</v>
       </c>
       <c r="F758" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G758" t="s">
+        <v>545</v>
+      </c>
+      <c r="H758" t="s">
         <v>610</v>
       </c>
-      <c r="H758" t="s">
-        <v>619</v>
-      </c>
       <c r="I758" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="L758" t="s">
         <v>440</v>
@@ -16230,19 +16077,19 @@
         <v>758</v>
       </c>
       <c r="F759" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G759" t="s">
+        <v>545</v>
+      </c>
+      <c r="H759" t="s">
         <v>610</v>
       </c>
-      <c r="H759" t="s">
-        <v>619</v>
-      </c>
       <c r="I759" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="L759" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="760" spans="1:12">
@@ -16250,16 +16097,16 @@
         <v>759</v>
       </c>
       <c r="F760" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G760" t="s">
+        <v>545</v>
+      </c>
+      <c r="H760" t="s">
         <v>610</v>
       </c>
-      <c r="H760" t="s">
-        <v>619</v>
-      </c>
       <c r="I760" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="L760" t="s">
         <v>441</v>
@@ -16270,16 +16117,16 @@
         <v>760</v>
       </c>
       <c r="F761" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G761" t="s">
+        <v>545</v>
+      </c>
+      <c r="H761" t="s">
         <v>610</v>
       </c>
-      <c r="H761" t="s">
-        <v>619</v>
-      </c>
       <c r="I761" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="L761" t="s">
         <v>416</v>
@@ -16290,16 +16137,16 @@
         <v>761</v>
       </c>
       <c r="F762" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G762" t="s">
+        <v>545</v>
+      </c>
+      <c r="H762" t="s">
         <v>610</v>
       </c>
-      <c r="H762" t="s">
-        <v>619</v>
-      </c>
       <c r="I762" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="L762" t="s">
         <v>444</v>
@@ -16310,19 +16157,19 @@
         <v>762</v>
       </c>
       <c r="F763" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G763" t="s">
+        <v>545</v>
+      </c>
+      <c r="H763" t="s">
         <v>610</v>
       </c>
-      <c r="H763" t="s">
-        <v>619</v>
-      </c>
       <c r="I763" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="L763" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
     <row r="764" spans="1:12">
@@ -16330,16 +16177,16 @@
         <v>763</v>
       </c>
       <c r="F764" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G764" t="s">
+        <v>545</v>
+      </c>
+      <c r="H764" t="s">
         <v>610</v>
       </c>
-      <c r="H764" t="s">
-        <v>619</v>
-      </c>
       <c r="I764" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="L764" t="s">
         <v>279</v>
@@ -16350,16 +16197,16 @@
         <v>764</v>
       </c>
       <c r="F765" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G765" t="s">
+        <v>545</v>
+      </c>
+      <c r="H765" t="s">
         <v>610</v>
       </c>
-      <c r="H765" t="s">
-        <v>619</v>
-      </c>
       <c r="I765" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="L765" t="s">
         <v>446</v>
@@ -16370,19 +16217,19 @@
         <v>765</v>
       </c>
       <c r="F766" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G766" t="s">
+        <v>545</v>
+      </c>
+      <c r="H766" t="s">
         <v>610</v>
       </c>
-      <c r="H766" t="s">
-        <v>619</v>
-      </c>
       <c r="I766" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="L766" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="767" spans="1:12">
@@ -16390,16 +16237,16 @@
         <v>766</v>
       </c>
       <c r="F767" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G767" t="s">
+        <v>545</v>
+      </c>
+      <c r="H767" t="s">
         <v>610</v>
       </c>
-      <c r="H767" t="s">
-        <v>619</v>
-      </c>
       <c r="I767" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="L767" t="s">
         <v>442</v>
@@ -16410,16 +16257,16 @@
         <v>767</v>
       </c>
       <c r="F768" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G768" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H768" t="s">
-        <v>624</v>
+        <v>551</v>
       </c>
       <c r="I768" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="L768" t="s">
         <v>455</v>
@@ -16430,16 +16277,16 @@
         <v>768</v>
       </c>
       <c r="F769" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G769" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H769" t="s">
-        <v>624</v>
+        <v>551</v>
       </c>
       <c r="I769" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="L769" t="s">
         <v>456</v>
@@ -16450,16 +16297,16 @@
         <v>769</v>
       </c>
       <c r="F770" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G770" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H770" t="s">
-        <v>624</v>
+        <v>551</v>
       </c>
       <c r="I770" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="L770" t="s">
         <v>457</v>
@@ -16470,16 +16317,16 @@
         <v>770</v>
       </c>
       <c r="F771" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G771" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H771" t="s">
-        <v>624</v>
+        <v>551</v>
       </c>
       <c r="I771" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="L771" t="s">
         <v>504</v>
@@ -16490,16 +16337,16 @@
         <v>771</v>
       </c>
       <c r="F772" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G772" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H772" t="s">
-        <v>624</v>
+        <v>551</v>
       </c>
       <c r="I772" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="L772" t="s">
         <v>447</v>
@@ -16510,16 +16357,16 @@
         <v>772</v>
       </c>
       <c r="F773" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G773" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H773" t="s">
-        <v>624</v>
+        <v>551</v>
       </c>
       <c r="I773" t="s">
-        <v>626</v>
+        <v>604</v>
       </c>
       <c r="L773" t="s">
         <v>454</v>
@@ -16530,16 +16377,16 @@
         <v>773</v>
       </c>
       <c r="F774" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G774" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H774" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="I774" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="L774" t="s">
         <v>477</v>
@@ -16550,19 +16397,19 @@
         <v>774</v>
       </c>
       <c r="F775" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G775" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H775" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="I775" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="L775" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="776" spans="1:12">
@@ -16570,19 +16417,19 @@
         <v>775</v>
       </c>
       <c r="F776" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G776" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H776" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="I776" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="L776" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="777" spans="1:12">
@@ -16590,19 +16437,19 @@
         <v>776</v>
       </c>
       <c r="F777" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G777" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H777" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="I777" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="L777" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
     </row>
     <row r="778" spans="1:12">
@@ -16610,16 +16457,16 @@
         <v>777</v>
       </c>
       <c r="F778" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G778" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H778" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="I778" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="L778" t="s">
         <v>474</v>
@@ -16630,16 +16477,16 @@
         <v>778</v>
       </c>
       <c r="F779" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G779" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H779" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="I779" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="L779" t="s">
         <v>475</v>
@@ -16650,16 +16497,16 @@
         <v>779</v>
       </c>
       <c r="F780" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G780" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H780" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="I780" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="L780" t="s">
         <v>476</v>
@@ -16670,16 +16517,16 @@
         <v>780</v>
       </c>
       <c r="F781" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G781" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H781" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="I781" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="L781" t="s">
         <v>413</v>
@@ -16690,16 +16537,16 @@
         <v>781</v>
       </c>
       <c r="F782" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G782" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H782" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="I782" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="L782" t="s">
         <v>408</v>
@@ -16710,13 +16557,13 @@
         <v>782</v>
       </c>
       <c r="F783" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G783" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="H783" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="L783" t="s">
         <v>477</v>
@@ -16727,16 +16574,16 @@
         <v>783</v>
       </c>
       <c r="F784" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G784" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="H784" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="L784" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="785" spans="1:12">
@@ -16744,16 +16591,16 @@
         <v>784</v>
       </c>
       <c r="F785" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G785" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="H785" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="L785" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="786" spans="1:12">
@@ -16761,16 +16608,16 @@
         <v>785</v>
       </c>
       <c r="F786" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G786" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="H786" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="L786" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
     </row>
     <row r="787" spans="1:12">
@@ -16778,13 +16625,13 @@
         <v>786</v>
       </c>
       <c r="F787" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G787" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="H787" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="L787" t="s">
         <v>474</v>
@@ -16795,13 +16642,13 @@
         <v>787</v>
       </c>
       <c r="F788" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G788" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="H788" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="L788" t="s">
         <v>475</v>
@@ -16812,13 +16659,13 @@
         <v>788</v>
       </c>
       <c r="F789" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G789" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="H789" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="L789" t="s">
         <v>476</v>
@@ -16829,13 +16676,13 @@
         <v>789</v>
       </c>
       <c r="F790" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G790" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="H790" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="L790" t="s">
         <v>428</v>
@@ -16846,13 +16693,13 @@
         <v>790</v>
       </c>
       <c r="F791" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G791" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="H791" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="L791" t="s">
         <v>429</v>
@@ -16863,13 +16710,13 @@
         <v>791</v>
       </c>
       <c r="F792" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G792" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="H792" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="L792" t="s">
         <v>448</v>
@@ -16880,16 +16727,16 @@
         <v>792</v>
       </c>
       <c r="F793" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G793" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="H793" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="L793" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
     </row>
     <row r="794" spans="1:12">
@@ -16897,16 +16744,16 @@
         <v>793</v>
       </c>
       <c r="F794" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G794" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="H794" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="L794" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
     </row>
     <row r="795" spans="1:12">
@@ -16914,13 +16761,13 @@
         <v>794</v>
       </c>
       <c r="F795" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G795" t="s">
-        <v>636</v>
+        <v>552</v>
       </c>
       <c r="H795" t="s">
-        <v>637</v>
+        <v>615</v>
       </c>
       <c r="L795" t="s">
         <v>477</v>
@@ -16931,13 +16778,13 @@
         <v>795</v>
       </c>
       <c r="F796" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G796" t="s">
-        <v>636</v>
+        <v>552</v>
       </c>
       <c r="H796" t="s">
-        <v>637</v>
+        <v>615</v>
       </c>
       <c r="L796" t="s">
         <v>426</v>
@@ -16948,13 +16795,13 @@
         <v>796</v>
       </c>
       <c r="F797" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G797" t="s">
-        <v>636</v>
+        <v>552</v>
       </c>
       <c r="H797" t="s">
-        <v>637</v>
+        <v>615</v>
       </c>
       <c r="L797" t="s">
         <v>472</v>
@@ -16965,16 +16812,16 @@
         <v>797</v>
       </c>
       <c r="F798" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G798" t="s">
-        <v>636</v>
+        <v>552</v>
       </c>
       <c r="H798" t="s">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="L798" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="799" spans="1:12">
@@ -16982,16 +16829,16 @@
         <v>798</v>
       </c>
       <c r="F799" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G799" t="s">
-        <v>636</v>
+        <v>552</v>
       </c>
       <c r="H799" t="s">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="L799" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="800" spans="1:12">
@@ -16999,16 +16846,16 @@
         <v>799</v>
       </c>
       <c r="F800" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G800" t="s">
-        <v>636</v>
+        <v>552</v>
       </c>
       <c r="H800" t="s">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="L800" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
     </row>
     <row r="801" spans="1:12">
@@ -17016,13 +16863,13 @@
         <v>800</v>
       </c>
       <c r="F801" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G801" t="s">
-        <v>636</v>
+        <v>552</v>
       </c>
       <c r="H801" t="s">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="L801" t="s">
         <v>474</v>
@@ -17033,13 +16880,13 @@
         <v>801</v>
       </c>
       <c r="F802" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G802" t="s">
-        <v>636</v>
+        <v>552</v>
       </c>
       <c r="H802" t="s">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="L802" t="s">
         <v>475</v>
@@ -17050,13 +16897,13 @@
         <v>802</v>
       </c>
       <c r="F803" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G803" t="s">
-        <v>636</v>
+        <v>552</v>
       </c>
       <c r="H803" t="s">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="L803" t="s">
         <v>476</v>
@@ -17067,13 +16914,13 @@
         <v>803</v>
       </c>
       <c r="F804" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G804" t="s">
-        <v>636</v>
+        <v>552</v>
       </c>
       <c r="H804" t="s">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="L804" t="s">
         <v>428</v>
@@ -17084,13 +16931,13 @@
         <v>804</v>
       </c>
       <c r="F805" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G805" t="s">
-        <v>636</v>
+        <v>552</v>
       </c>
       <c r="H805" t="s">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="L805" t="s">
         <v>429</v>
@@ -17101,13 +16948,13 @@
         <v>805</v>
       </c>
       <c r="F806" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G806" t="s">
-        <v>636</v>
+        <v>552</v>
       </c>
       <c r="H806" t="s">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="L806" t="s">
         <v>452</v>
@@ -17118,13 +16965,13 @@
         <v>806</v>
       </c>
       <c r="F807" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G807" t="s">
-        <v>636</v>
+        <v>552</v>
       </c>
       <c r="H807" t="s">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="L807" t="s">
         <v>453</v>
@@ -17135,13 +16982,13 @@
         <v>807</v>
       </c>
       <c r="F808" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G808" t="s">
-        <v>636</v>
+        <v>552</v>
       </c>
       <c r="H808" t="s">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="L808" t="s">
         <v>469</v>
@@ -17152,13 +16999,13 @@
         <v>808</v>
       </c>
       <c r="F809" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G809" t="s">
-        <v>636</v>
+        <v>552</v>
       </c>
       <c r="H809" t="s">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="L809" t="s">
         <v>470</v>
@@ -17169,13 +17016,13 @@
         <v>809</v>
       </c>
       <c r="F810" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G810" t="s">
-        <v>636</v>
+        <v>552</v>
       </c>
       <c r="H810" t="s">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="L810" t="s">
         <v>471</v>
@@ -17186,13 +17033,13 @@
         <v>810</v>
       </c>
       <c r="F811" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G811" t="s">
-        <v>639</v>
+        <v>556</v>
       </c>
       <c r="H811" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="L811" t="s">
         <v>477</v>
@@ -17203,16 +17050,16 @@
         <v>811</v>
       </c>
       <c r="F812" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G812" t="s">
-        <v>639</v>
+        <v>556</v>
       </c>
       <c r="H812" t="s">
-        <v>641</v>
+        <v>604</v>
       </c>
       <c r="L812" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="813" spans="1:12">
@@ -17220,16 +17067,16 @@
         <v>812</v>
       </c>
       <c r="F813" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G813" t="s">
-        <v>639</v>
+        <v>556</v>
       </c>
       <c r="H813" t="s">
-        <v>641</v>
+        <v>604</v>
       </c>
       <c r="L813" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="814" spans="1:12">
@@ -17237,16 +17084,16 @@
         <v>813</v>
       </c>
       <c r="F814" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G814" t="s">
-        <v>639</v>
+        <v>556</v>
       </c>
       <c r="H814" t="s">
-        <v>641</v>
+        <v>604</v>
       </c>
       <c r="L814" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
     </row>
     <row r="815" spans="1:12">
@@ -17254,13 +17101,13 @@
         <v>814</v>
       </c>
       <c r="F815" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G815" t="s">
-        <v>639</v>
+        <v>556</v>
       </c>
       <c r="H815" t="s">
-        <v>641</v>
+        <v>604</v>
       </c>
       <c r="L815" t="s">
         <v>474</v>
@@ -17271,13 +17118,13 @@
         <v>815</v>
       </c>
       <c r="F816" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G816" t="s">
-        <v>639</v>
+        <v>556</v>
       </c>
       <c r="H816" t="s">
-        <v>641</v>
+        <v>604</v>
       </c>
       <c r="L816" t="s">
         <v>475</v>
@@ -17288,13 +17135,13 @@
         <v>816</v>
       </c>
       <c r="F817" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G817" t="s">
-        <v>639</v>
+        <v>556</v>
       </c>
       <c r="H817" t="s">
-        <v>641</v>
+        <v>604</v>
       </c>
       <c r="L817" t="s">
         <v>476</v>
@@ -17305,13 +17152,13 @@
         <v>817</v>
       </c>
       <c r="F818" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G818" t="s">
-        <v>639</v>
+        <v>556</v>
       </c>
       <c r="H818" t="s">
-        <v>641</v>
+        <v>604</v>
       </c>
       <c r="L818" t="s">
         <v>428</v>
@@ -17322,13 +17169,13 @@
         <v>818</v>
       </c>
       <c r="F819" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G819" t="s">
-        <v>639</v>
+        <v>556</v>
       </c>
       <c r="H819" t="s">
-        <v>641</v>
+        <v>604</v>
       </c>
       <c r="L819" t="s">
         <v>429</v>
@@ -17339,13 +17186,13 @@
         <v>819</v>
       </c>
       <c r="F820" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G820" t="s">
-        <v>639</v>
+        <v>556</v>
       </c>
       <c r="H820" t="s">
-        <v>641</v>
+        <v>604</v>
       </c>
       <c r="L820" t="s">
         <v>448</v>
@@ -17356,13 +17203,13 @@
         <v>820</v>
       </c>
       <c r="F821" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G821" t="s">
-        <v>642</v>
+        <v>620</v>
       </c>
       <c r="H821" t="s">
-        <v>643</v>
+        <v>117</v>
       </c>
       <c r="L821" t="s">
         <v>438</v>
@@ -17373,13 +17220,13 @@
         <v>821</v>
       </c>
       <c r="F822" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G822" t="s">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="H822" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="L822" t="s">
         <v>389</v>
@@ -17390,13 +17237,13 @@
         <v>822</v>
       </c>
       <c r="F823" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G823" t="s">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="H823" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="L823" t="s">
         <v>390</v>
@@ -17407,13 +17254,13 @@
         <v>823</v>
       </c>
       <c r="F824" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G824" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H824" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="L824" t="s">
         <v>286</v>
@@ -17424,13 +17271,13 @@
         <v>824</v>
       </c>
       <c r="F825" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G825" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H825" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="L825" t="s">
         <v>372</v>
@@ -17441,13 +17288,13 @@
         <v>825</v>
       </c>
       <c r="F826" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G826" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H826" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="L826" t="s">
         <v>373</v>
@@ -17458,13 +17305,13 @@
         <v>826</v>
       </c>
       <c r="F827" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G827" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H827" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="L827" t="s">
         <v>420</v>
@@ -17475,13 +17322,13 @@
         <v>827</v>
       </c>
       <c r="F828" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G828" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H828" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="L828" t="s">
         <v>419</v>
@@ -17492,13 +17339,13 @@
         <v>828</v>
       </c>
       <c r="F829" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G829" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H829" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="L829" t="s">
         <v>399</v>
@@ -17509,13 +17356,13 @@
         <v>829</v>
       </c>
       <c r="F830" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G830" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H830" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="L830" t="s">
         <v>292</v>
@@ -17526,13 +17373,13 @@
         <v>830</v>
       </c>
       <c r="F831" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G831" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H831" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="L831" t="s">
         <v>363</v>
@@ -17543,13 +17390,13 @@
         <v>831</v>
       </c>
       <c r="F832" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G832" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H832" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="L832" t="s">
         <v>402</v>
@@ -17560,13 +17407,13 @@
         <v>832</v>
       </c>
       <c r="F833" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G833" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H833" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="L833" t="s">
         <v>393</v>
@@ -17577,13 +17424,13 @@
         <v>833</v>
       </c>
       <c r="F834" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G834" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H834" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="L834" t="s">
         <v>394</v>
@@ -17594,13 +17441,13 @@
         <v>834</v>
       </c>
       <c r="F835" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G835" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H835" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="L835" t="s">
         <v>395</v>
@@ -17611,13 +17458,13 @@
         <v>835</v>
       </c>
       <c r="F836" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G836" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H836" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="L836" t="s">
         <v>396</v>
@@ -17628,13 +17475,13 @@
         <v>836</v>
       </c>
       <c r="F837" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G837" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H837" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="L837" t="s">
         <v>289</v>
@@ -17645,13 +17492,13 @@
         <v>837</v>
       </c>
       <c r="F838" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G838" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H838" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="L838" t="s">
         <v>290</v>
@@ -17662,13 +17509,13 @@
         <v>838</v>
       </c>
       <c r="F839" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G839" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H839" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="L839" t="s">
         <v>385</v>
@@ -17679,13 +17526,13 @@
         <v>839</v>
       </c>
       <c r="F840" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G840" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H840" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="L840" t="s">
         <v>386</v>
@@ -17696,13 +17543,13 @@
         <v>840</v>
       </c>
       <c r="F841" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G841" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H841" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="L841" t="s">
         <v>387</v>
@@ -17713,13 +17560,13 @@
         <v>841</v>
       </c>
       <c r="F842" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G842" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H842" t="s">
-        <v>651</v>
+        <v>628</v>
       </c>
       <c r="L842" t="s">
         <v>371</v>
@@ -17730,13 +17577,13 @@
         <v>842</v>
       </c>
       <c r="F843" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G843" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H843" t="s">
-        <v>651</v>
+        <v>628</v>
       </c>
       <c r="L843" t="s">
         <v>398</v>
@@ -17747,13 +17594,13 @@
         <v>843</v>
       </c>
       <c r="F844" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G844" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H844" t="s">
-        <v>651</v>
+        <v>628</v>
       </c>
       <c r="L844" t="s">
         <v>350</v>
@@ -17764,13 +17611,13 @@
         <v>844</v>
       </c>
       <c r="F845" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G845" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H845" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="L845" t="s">
         <v>402</v>
@@ -17781,13 +17628,13 @@
         <v>845</v>
       </c>
       <c r="F846" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G846" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H846" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="L846" t="s">
         <v>393</v>
@@ -17798,13 +17645,13 @@
         <v>846</v>
       </c>
       <c r="F847" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G847" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H847" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="L847" t="s">
         <v>394</v>
@@ -17815,13 +17662,13 @@
         <v>847</v>
       </c>
       <c r="F848" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G848" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H848" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="L848" t="s">
         <v>395</v>
@@ -17832,13 +17679,13 @@
         <v>848</v>
       </c>
       <c r="F849" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G849" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H849" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="L849" t="s">
         <v>396</v>
@@ -17849,13 +17696,13 @@
         <v>849</v>
       </c>
       <c r="F850" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G850" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H850" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="L850" t="s">
         <v>348</v>
@@ -17866,13 +17713,13 @@
         <v>850</v>
       </c>
       <c r="F851" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G851" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H851" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="L851" t="s">
         <v>382</v>
@@ -17883,13 +17730,13 @@
         <v>851</v>
       </c>
       <c r="F852" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G852" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H852" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="L852" t="s">
         <v>383</v>
@@ -17900,13 +17747,13 @@
         <v>852</v>
       </c>
       <c r="F853" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G853" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H853" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="L853" t="s">
         <v>384</v>
@@ -17917,13 +17764,13 @@
         <v>853</v>
       </c>
       <c r="F854" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G854" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H854" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="L854" t="s">
         <v>371</v>
@@ -17934,13 +17781,13 @@
         <v>854</v>
       </c>
       <c r="F855" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G855" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H855" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="L855" t="s">
         <v>365</v>
@@ -17951,13 +17798,13 @@
         <v>855</v>
       </c>
       <c r="F856" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G856" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H856" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="L856" t="s">
         <v>358</v>
@@ -17968,13 +17815,13 @@
         <v>856</v>
       </c>
       <c r="F857" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G857" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H857" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="L857" t="s">
         <v>277</v>
@@ -17985,13 +17832,13 @@
         <v>857</v>
       </c>
       <c r="F858" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G858" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H858" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="L858" t="s">
         <v>379</v>
@@ -18002,13 +17849,13 @@
         <v>858</v>
       </c>
       <c r="F859" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G859" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H859" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="L859" t="s">
         <v>380</v>
@@ -18019,13 +17866,13 @@
         <v>859</v>
       </c>
       <c r="F860" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G860" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H860" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="L860" t="s">
         <v>381</v>
@@ -18036,13 +17883,13 @@
         <v>860</v>
       </c>
       <c r="F861" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G861" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H861" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="L861" t="s">
         <v>285</v>
@@ -18053,13 +17900,13 @@
         <v>861</v>
       </c>
       <c r="F862" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G862" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H862" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="L862" t="s">
         <v>283</v>
@@ -18070,13 +17917,13 @@
         <v>862</v>
       </c>
       <c r="F863" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G863" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H863" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="L863" t="s">
         <v>392</v>
@@ -18087,13 +17934,13 @@
         <v>863</v>
       </c>
       <c r="F864" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G864" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H864" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="L864" t="s">
         <v>349</v>
@@ -18104,13 +17951,13 @@
         <v>864</v>
       </c>
       <c r="F865" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G865" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H865" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="L865" t="s">
         <v>371</v>
@@ -18121,13 +17968,13 @@
         <v>865</v>
       </c>
       <c r="F866" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G866" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H866" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="L866" t="s">
         <v>349</v>
@@ -18138,13 +17985,13 @@
         <v>866</v>
       </c>
       <c r="F867" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G867" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H867" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="L867" t="s">
         <v>397</v>
@@ -18155,13 +18002,13 @@
         <v>867</v>
       </c>
       <c r="F868" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G868" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H868" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="L868" t="s">
         <v>371</v>
@@ -18172,13 +18019,13 @@
         <v>868</v>
       </c>
       <c r="F869" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="G869" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="H869" t="s">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="L869" t="s">
         <v>361</v>
@@ -18189,16 +18036,16 @@
         <v>869</v>
       </c>
       <c r="F870" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G870" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="H870" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="I870" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="L870" t="s">
         <v>492</v>
@@ -18209,16 +18056,16 @@
         <v>870</v>
       </c>
       <c r="F871" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G871" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="H871" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="I871" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="L871" t="s">
         <v>493</v>
@@ -18229,16 +18076,16 @@
         <v>871</v>
       </c>
       <c r="F872" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G872" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="H872" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="I872" t="s">
-        <v>662</v>
+        <v>625</v>
       </c>
       <c r="L872" t="s">
         <v>501</v>
@@ -18249,16 +18096,16 @@
         <v>872</v>
       </c>
       <c r="F873" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G873" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="H873" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="I873" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="L873" t="s">
         <v>500</v>
@@ -18269,16 +18116,16 @@
         <v>873</v>
       </c>
       <c r="F874" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G874" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="H874" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="I874" t="s">
-        <v>664</v>
+        <v>627</v>
       </c>
       <c r="L874" t="s">
         <v>496</v>
@@ -18289,16 +18136,16 @@
         <v>874</v>
       </c>
       <c r="F875" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G875" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="H875" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="I875" t="s">
-        <v>665</v>
+        <v>628</v>
       </c>
       <c r="L875" t="s">
         <v>499</v>
@@ -18309,16 +18156,16 @@
         <v>875</v>
       </c>
       <c r="F876" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G876" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="H876" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="I876" t="s">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="L876" t="s">
         <v>495</v>
@@ -18329,16 +18176,16 @@
         <v>876</v>
       </c>
       <c r="F877" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G877" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="H877" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="I877" t="s">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="L877" t="s">
         <v>496</v>
@@ -18349,16 +18196,16 @@
         <v>877</v>
       </c>
       <c r="F878" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G878" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="H878" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="I878" t="s">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="L878" t="s">
         <v>497</v>
@@ -18369,16 +18216,16 @@
         <v>878</v>
       </c>
       <c r="F879" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G879" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="H879" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="I879" t="s">
-        <v>667</v>
+        <v>633</v>
       </c>
       <c r="L879" t="s">
         <v>495</v>
@@ -18389,16 +18236,16 @@
         <v>879</v>
       </c>
       <c r="F880" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G880" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="H880" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="I880" t="s">
-        <v>668</v>
+        <v>629</v>
       </c>
       <c r="L880" t="s">
         <v>496</v>
@@ -18409,16 +18256,16 @@
         <v>880</v>
       </c>
       <c r="F881" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G881" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="H881" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="I881" t="s">
-        <v>669</v>
+        <v>630</v>
       </c>
       <c r="L881" t="s">
         <v>498</v>
@@ -18429,16 +18276,16 @@
         <v>881</v>
       </c>
       <c r="F882" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G882" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="H882" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="I882" t="s">
-        <v>670</v>
+        <v>632</v>
       </c>
       <c r="L882" t="s">
         <v>498</v>
@@ -18449,13 +18296,13 @@
         <v>882</v>
       </c>
       <c r="F883" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G883" t="s">
-        <v>671</v>
+        <v>639</v>
       </c>
       <c r="H883" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="L883" t="s">
         <v>483</v>
@@ -18466,13 +18313,13 @@
         <v>883</v>
       </c>
       <c r="F884" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G884" t="s">
-        <v>671</v>
+        <v>639</v>
       </c>
       <c r="H884" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="L884" t="s">
         <v>484</v>
@@ -18483,13 +18330,13 @@
         <v>884</v>
       </c>
       <c r="F885" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G885" t="s">
-        <v>671</v>
+        <v>639</v>
       </c>
       <c r="H885" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="L885" t="s">
         <v>485</v>
@@ -18500,13 +18347,13 @@
         <v>885</v>
       </c>
       <c r="F886" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G886" t="s">
-        <v>671</v>
+        <v>639</v>
       </c>
       <c r="H886" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="L886" t="s">
         <v>486</v>
@@ -18517,13 +18364,13 @@
         <v>886</v>
       </c>
       <c r="F887" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G887" t="s">
-        <v>671</v>
+        <v>639</v>
       </c>
       <c r="H887" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="L887" t="s">
         <v>487</v>
@@ -18534,13 +18381,13 @@
         <v>887</v>
       </c>
       <c r="F888" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G888" t="s">
-        <v>671</v>
+        <v>639</v>
       </c>
       <c r="H888" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="L888" t="s">
         <v>488</v>
@@ -18551,13 +18398,13 @@
         <v>888</v>
       </c>
       <c r="F889" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G889" t="s">
-        <v>671</v>
+        <v>639</v>
       </c>
       <c r="H889" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="L889" t="s">
         <v>489</v>
@@ -18568,13 +18415,13 @@
         <v>889</v>
       </c>
       <c r="F890" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G890" t="s">
-        <v>671</v>
+        <v>639</v>
       </c>
       <c r="H890" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="L890" t="s">
         <v>490</v>
@@ -18585,10 +18432,10 @@
         <v>890</v>
       </c>
       <c r="F891" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G891" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
       <c r="L891" t="s">
         <v>262</v>
@@ -18599,10 +18446,10 @@
         <v>891</v>
       </c>
       <c r="F892" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G892" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
       <c r="L892" t="s">
         <v>507</v>
@@ -18613,10 +18460,10 @@
         <v>892</v>
       </c>
       <c r="F893" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G893" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
       <c r="L893" t="s">
         <v>451</v>
@@ -18627,10 +18474,10 @@
         <v>893</v>
       </c>
       <c r="F894" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G894" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
       <c r="L894" t="s">
         <v>480</v>
@@ -18641,10 +18488,10 @@
         <v>894</v>
       </c>
       <c r="F895" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="G895" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
       <c r="L895" t="s">
         <v>481</v>
@@ -18655,10 +18502,10 @@
         <v>895</v>
       </c>
       <c r="F896" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G896" t="s">
-        <v>675</v>
+        <v>643</v>
       </c>
       <c r="L896" t="s">
         <v>278</v>
@@ -18669,10 +18516,10 @@
         <v>896</v>
       </c>
       <c r="F897" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G897" t="s">
-        <v>675</v>
+        <v>643</v>
       </c>
       <c r="L897" t="s">
         <v>356</v>
@@ -18683,10 +18530,10 @@
         <v>897</v>
       </c>
       <c r="F898" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G898" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L898" t="s">
         <v>78</v>
@@ -18697,10 +18544,10 @@
         <v>898</v>
       </c>
       <c r="F899" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G899" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L899" t="s">
         <v>79</v>
@@ -18711,10 +18558,10 @@
         <v>899</v>
       </c>
       <c r="F900" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G900" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L900" t="s">
         <v>80</v>
@@ -18725,10 +18572,10 @@
         <v>900</v>
       </c>
       <c r="F901" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G901" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L901" t="s">
         <v>81</v>
@@ -18739,10 +18586,10 @@
         <v>901</v>
       </c>
       <c r="F902" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G902" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L902" t="s">
         <v>82</v>
@@ -18753,10 +18600,10 @@
         <v>902</v>
       </c>
       <c r="F903" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G903" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L903" t="s">
         <v>83</v>
@@ -18767,10 +18614,10 @@
         <v>903</v>
       </c>
       <c r="F904" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G904" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L904" t="s">
         <v>84</v>
@@ -18781,10 +18628,10 @@
         <v>904</v>
       </c>
       <c r="F905" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G905" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L905" t="s">
         <v>85</v>
@@ -18795,10 +18642,10 @@
         <v>905</v>
       </c>
       <c r="F906" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G906" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L906" t="s">
         <v>86</v>
@@ -18809,10 +18656,10 @@
         <v>906</v>
       </c>
       <c r="F907" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G907" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L907" t="s">
         <v>87</v>
@@ -18823,10 +18670,10 @@
         <v>907</v>
       </c>
       <c r="F908" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G908" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L908" t="s">
         <v>88</v>
@@ -18837,10 +18684,10 @@
         <v>908</v>
       </c>
       <c r="F909" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G909" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L909" t="s">
         <v>89</v>
@@ -18851,10 +18698,10 @@
         <v>909</v>
       </c>
       <c r="F910" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G910" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L910" t="s">
         <v>90</v>
@@ -18865,10 +18712,10 @@
         <v>910</v>
       </c>
       <c r="F911" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G911" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L911" t="s">
         <v>91</v>
@@ -18879,10 +18726,10 @@
         <v>911</v>
       </c>
       <c r="F912" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G912" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L912" t="s">
         <v>92</v>
@@ -18893,10 +18740,10 @@
         <v>912</v>
       </c>
       <c r="F913" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G913" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L913" t="s">
         <v>93</v>
@@ -18907,10 +18754,10 @@
         <v>913</v>
       </c>
       <c r="F914" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G914" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L914" t="s">
         <v>94</v>
@@ -18921,10 +18768,10 @@
         <v>914</v>
       </c>
       <c r="F915" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G915" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L915" t="s">
         <v>95</v>
@@ -18935,10 +18782,10 @@
         <v>915</v>
       </c>
       <c r="F916" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G916" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L916" t="s">
         <v>96</v>
@@ -18949,10 +18796,10 @@
         <v>916</v>
       </c>
       <c r="F917" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G917" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L917" t="s">
         <v>97</v>
@@ -18963,10 +18810,10 @@
         <v>917</v>
       </c>
       <c r="F918" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G918" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="L918" t="s">
         <v>98</v>
@@ -18977,10 +18824,10 @@
         <v>918</v>
       </c>
       <c r="F919" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G919" t="s">
-        <v>677</v>
+        <v>645</v>
       </c>
       <c r="L919" t="s">
         <v>515</v>
@@ -18991,10 +18838,10 @@
         <v>919</v>
       </c>
       <c r="F920" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G920" t="s">
-        <v>677</v>
+        <v>645</v>
       </c>
       <c r="L920" t="s">
         <v>377</v>
@@ -19005,13 +18852,13 @@
         <v>920</v>
       </c>
       <c r="F921" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G921" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="L921" t="s">
-        <v>679</v>
+        <v>647</v>
       </c>
     </row>
     <row r="922" spans="1:12">
@@ -19019,13 +18866,13 @@
         <v>921</v>
       </c>
       <c r="F922" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G922" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="L922" t="s">
-        <v>680</v>
+        <v>648</v>
       </c>
     </row>
     <row r="923" spans="1:12">
@@ -19033,13 +18880,13 @@
         <v>922</v>
       </c>
       <c r="F923" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G923" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="L923" t="s">
-        <v>681</v>
+        <v>649</v>
       </c>
     </row>
     <row r="924" spans="1:12">
@@ -19047,13 +18894,13 @@
         <v>923</v>
       </c>
       <c r="F924" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G924" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="L924" t="s">
-        <v>682</v>
+        <v>650</v>
       </c>
     </row>
     <row r="925" spans="1:12">
@@ -19061,13 +18908,13 @@
         <v>924</v>
       </c>
       <c r="F925" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G925" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="L925" t="s">
-        <v>683</v>
+        <v>651</v>
       </c>
     </row>
     <row r="926" spans="1:12">
@@ -19075,13 +18922,13 @@
         <v>925</v>
       </c>
       <c r="F926" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G926" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="L926" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
     </row>
     <row r="927" spans="1:12">
@@ -19089,13 +18936,13 @@
         <v>926</v>
       </c>
       <c r="F927" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G927" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="L927" t="s">
-        <v>685</v>
+        <v>653</v>
       </c>
     </row>
     <row r="928" spans="1:12">
@@ -19103,13 +18950,13 @@
         <v>927</v>
       </c>
       <c r="F928" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G928" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="L928" t="s">
-        <v>686</v>
+        <v>654</v>
       </c>
     </row>
     <row r="929" spans="1:12">
@@ -19117,13 +18964,13 @@
         <v>928</v>
       </c>
       <c r="F929" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G929" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="L929" t="s">
-        <v>687</v>
+        <v>655</v>
       </c>
     </row>
     <row r="930" spans="1:12">
@@ -19131,13 +18978,13 @@
         <v>929</v>
       </c>
       <c r="F930" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G930" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="L930" t="s">
-        <v>688</v>
+        <v>656</v>
       </c>
     </row>
     <row r="931" spans="1:12">
@@ -19145,13 +18992,13 @@
         <v>930</v>
       </c>
       <c r="F931" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G931" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="L931" t="s">
-        <v>689</v>
+        <v>657</v>
       </c>
     </row>
     <row r="932" spans="1:12">
@@ -19159,10 +19006,10 @@
         <v>931</v>
       </c>
       <c r="F932" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G932" t="s">
-        <v>690</v>
+        <v>658</v>
       </c>
       <c r="L932" t="s">
         <v>436</v>
@@ -19173,10 +19020,10 @@
         <v>932</v>
       </c>
       <c r="F933" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G933" t="s">
-        <v>690</v>
+        <v>658</v>
       </c>
       <c r="L933" t="s">
         <v>437</v>

--- a/dataloader/data/GlycoEnzOntoDB.xlsx
+++ b/dataloader/data/GlycoEnzOntoDB.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{860F27FB-2282-44BB-94B7-4195BB48C7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73D57409-940B-4128-9253-0E1DFACD8F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3983" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3982" uniqueCount="658">
   <si>
     <t>id</t>
   </si>
@@ -1329,7 +1332,7 @@
     <t>GANAB</t>
   </si>
   <si>
-    <t>GBA</t>
+    <t>GBA1</t>
   </si>
   <si>
     <t>GBA2</t>
@@ -1338,10 +1341,7 @@
     <t>GBA3</t>
   </si>
   <si>
-    <t>GANC</t>
-  </si>
-  <si>
-    <t>GAA</t>
+    <t>ARSA</t>
   </si>
   <si>
     <t>PGGHG</t>
@@ -1542,6 +1542,9 @@
     <t>Cofactor</t>
   </si>
   <si>
+    <t>CEMIP</t>
+  </si>
+  <si>
     <t>CEMIP2</t>
   </si>
   <si>
@@ -2002,9 +2005,6 @@
   </si>
   <si>
     <t>SEL1L</t>
-  </si>
-  <si>
-    <t>Glycogen metabolism</t>
   </si>
 </sst>
 </file>
@@ -2372,10 +2372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L933"/>
+  <dimension ref="A1:L932"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D459" workbookViewId="0">
-      <selection activeCell="H486" sqref="H486:H504"/>
+    <sheetView tabSelected="1" topLeftCell="D366" workbookViewId="0">
+      <selection activeCell="A367" sqref="A367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8412,7 +8412,7 @@
     </row>
     <row r="366" spans="1:12">
       <c r="A366">
-        <v>365</v>
+        <v>3641</v>
       </c>
       <c r="B366" t="s">
         <v>424</v>
@@ -8426,7 +8426,7 @@
     </row>
     <row r="367" spans="1:12">
       <c r="A367">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B367" t="s">
         <v>424</v>
@@ -8440,27 +8440,27 @@
     </row>
     <row r="368" spans="1:12">
       <c r="A368">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B368" t="s">
         <v>424</v>
       </c>
       <c r="C368" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="L368" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="369" spans="1:12">
       <c r="A369">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B369" t="s">
         <v>424</v>
       </c>
       <c r="C369" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L369" t="s">
         <v>440</v>
@@ -8468,13 +8468,13 @@
     </row>
     <row r="370" spans="1:12">
       <c r="A370">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B370" t="s">
         <v>424</v>
       </c>
       <c r="C370" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L370" t="s">
         <v>441</v>
@@ -8482,41 +8482,41 @@
     </row>
     <row r="371" spans="1:12">
       <c r="A371">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B371" t="s">
         <v>424</v>
       </c>
       <c r="C371" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L371" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="372" spans="1:12">
       <c r="A372">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B372" t="s">
         <v>424</v>
       </c>
       <c r="C372" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L372" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="373" spans="1:12">
       <c r="A373">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B373" t="s">
         <v>424</v>
       </c>
       <c r="C373" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L373" t="s">
         <v>446</v>
@@ -8524,13 +8524,13 @@
     </row>
     <row r="374" spans="1:12">
       <c r="A374">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B374" t="s">
         <v>424</v>
       </c>
       <c r="C374" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L374" t="s">
         <v>447</v>
@@ -8538,27 +8538,27 @@
     </row>
     <row r="375" spans="1:12">
       <c r="A375">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B375" t="s">
         <v>424</v>
       </c>
       <c r="C375" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L375" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="376" spans="1:12">
       <c r="A376">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B376" t="s">
         <v>424</v>
       </c>
       <c r="C376" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L376" t="s">
         <v>450</v>
@@ -8566,13 +8566,13 @@
     </row>
     <row r="377" spans="1:12">
       <c r="A377">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B377" t="s">
         <v>424</v>
       </c>
       <c r="C377" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L377" t="s">
         <v>451</v>
@@ -8580,13 +8580,13 @@
     </row>
     <row r="378" spans="1:12">
       <c r="A378">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B378" t="s">
         <v>424</v>
       </c>
       <c r="C378" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L378" t="s">
         <v>452</v>
@@ -8594,41 +8594,41 @@
     </row>
     <row r="379" spans="1:12">
       <c r="A379">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B379" t="s">
         <v>424</v>
       </c>
       <c r="C379" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L379" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
     </row>
     <row r="380" spans="1:12">
       <c r="A380">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B380" t="s">
         <v>424</v>
       </c>
       <c r="C380" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L380" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
     </row>
     <row r="381" spans="1:12">
       <c r="A381">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B381" t="s">
         <v>424</v>
       </c>
       <c r="C381" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L381" t="s">
         <v>454</v>
@@ -8636,13 +8636,13 @@
     </row>
     <row r="382" spans="1:12">
       <c r="A382">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B382" t="s">
         <v>424</v>
       </c>
       <c r="C382" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L382" t="s">
         <v>455</v>
@@ -8650,13 +8650,13 @@
     </row>
     <row r="383" spans="1:12">
       <c r="A383">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B383" t="s">
         <v>424</v>
       </c>
       <c r="C383" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L383" t="s">
         <v>456</v>
@@ -8664,27 +8664,27 @@
     </row>
     <row r="384" spans="1:12">
       <c r="A384">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B384" t="s">
         <v>424</v>
       </c>
       <c r="C384" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="L384" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="385" spans="1:12">
       <c r="A385">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B385" t="s">
         <v>424</v>
       </c>
       <c r="C385" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L385" t="s">
         <v>459</v>
@@ -8692,13 +8692,13 @@
     </row>
     <row r="386" spans="1:12">
       <c r="A386">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B386" t="s">
         <v>424</v>
       </c>
       <c r="C386" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L386" t="s">
         <v>460</v>
@@ -8706,13 +8706,13 @@
     </row>
     <row r="387" spans="1:12">
       <c r="A387">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B387" t="s">
         <v>424</v>
       </c>
       <c r="C387" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L387" t="s">
         <v>461</v>
@@ -8720,13 +8720,13 @@
     </row>
     <row r="388" spans="1:12">
       <c r="A388">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B388" t="s">
         <v>424</v>
       </c>
       <c r="C388" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L388" t="s">
         <v>462</v>
@@ -8734,13 +8734,13 @@
     </row>
     <row r="389" spans="1:12">
       <c r="A389">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B389" t="s">
         <v>424</v>
       </c>
       <c r="C389" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L389" t="s">
         <v>463</v>
@@ -8748,13 +8748,13 @@
     </row>
     <row r="390" spans="1:12">
       <c r="A390">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B390" t="s">
         <v>424</v>
       </c>
       <c r="C390" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L390" t="s">
         <v>464</v>
@@ -8762,13 +8762,13 @@
     </row>
     <row r="391" spans="1:12">
       <c r="A391">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B391" t="s">
         <v>424</v>
       </c>
       <c r="C391" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L391" t="s">
         <v>465</v>
@@ -8776,13 +8776,13 @@
     </row>
     <row r="392" spans="1:12">
       <c r="A392">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B392" t="s">
         <v>424</v>
       </c>
       <c r="C392" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L392" t="s">
         <v>466</v>
@@ -8790,13 +8790,13 @@
     </row>
     <row r="393" spans="1:12">
       <c r="A393">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B393" t="s">
         <v>424</v>
       </c>
       <c r="C393" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L393" t="s">
         <v>467</v>
@@ -8804,13 +8804,13 @@
     </row>
     <row r="394" spans="1:12">
       <c r="A394">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B394" t="s">
         <v>424</v>
       </c>
       <c r="C394" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L394" t="s">
         <v>468</v>
@@ -8818,13 +8818,13 @@
     </row>
     <row r="395" spans="1:12">
       <c r="A395">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B395" t="s">
         <v>424</v>
       </c>
       <c r="C395" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L395" t="s">
         <v>469</v>
@@ -8832,13 +8832,13 @@
     </row>
     <row r="396" spans="1:12">
       <c r="A396">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B396" t="s">
         <v>424</v>
       </c>
       <c r="C396" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L396" t="s">
         <v>470</v>
@@ -8846,13 +8846,13 @@
     </row>
     <row r="397" spans="1:12">
       <c r="A397">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B397" t="s">
         <v>424</v>
       </c>
       <c r="C397" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L397" t="s">
         <v>471</v>
@@ -8860,27 +8860,27 @@
     </row>
     <row r="398" spans="1:12">
       <c r="A398">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B398" t="s">
         <v>424</v>
       </c>
       <c r="C398" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="L398" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="399" spans="1:12">
       <c r="A399">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B399" t="s">
         <v>424</v>
       </c>
       <c r="C399" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L399" t="s">
         <v>474</v>
@@ -8888,13 +8888,13 @@
     </row>
     <row r="400" spans="1:12">
       <c r="A400">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B400" t="s">
         <v>424</v>
       </c>
       <c r="C400" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L400" t="s">
         <v>475</v>
@@ -8902,13 +8902,13 @@
     </row>
     <row r="401" spans="1:12">
       <c r="A401">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B401" t="s">
         <v>424</v>
       </c>
       <c r="C401" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L401" t="s">
         <v>476</v>
@@ -8916,27 +8916,27 @@
     </row>
     <row r="402" spans="1:12">
       <c r="A402">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B402" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="C402" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="L402" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="403" spans="1:12">
       <c r="A403">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B403" t="s">
+        <v>477</v>
+      </c>
+      <c r="C403" t="s">
         <v>478</v>
-      </c>
-      <c r="C403" t="s">
-        <v>479</v>
       </c>
       <c r="L403" t="s">
         <v>480</v>
@@ -8944,27 +8944,27 @@
     </row>
     <row r="404" spans="1:12">
       <c r="A404">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B404" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C404" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L404" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="405" spans="1:12">
       <c r="A405">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B405" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C405" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L405" t="s">
         <v>483</v>
@@ -8972,13 +8972,13 @@
     </row>
     <row r="406" spans="1:12">
       <c r="A406">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B406" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C406" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L406" t="s">
         <v>484</v>
@@ -8986,13 +8986,13 @@
     </row>
     <row r="407" spans="1:12">
       <c r="A407">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B407" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C407" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L407" t="s">
         <v>485</v>
@@ -9000,13 +9000,13 @@
     </row>
     <row r="408" spans="1:12">
       <c r="A408">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B408" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C408" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L408" t="s">
         <v>486</v>
@@ -9014,13 +9014,13 @@
     </row>
     <row r="409" spans="1:12">
       <c r="A409">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B409" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C409" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L409" t="s">
         <v>487</v>
@@ -9028,13 +9028,13 @@
     </row>
     <row r="410" spans="1:12">
       <c r="A410">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B410" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C410" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L410" t="s">
         <v>488</v>
@@ -9042,13 +9042,13 @@
     </row>
     <row r="411" spans="1:12">
       <c r="A411">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B411" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C411" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L411" t="s">
         <v>489</v>
@@ -9056,27 +9056,27 @@
     </row>
     <row r="412" spans="1:12">
       <c r="A412">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B412" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C412" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="L412" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="413" spans="1:12">
       <c r="A413">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B413" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C413" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L413" t="s">
         <v>492</v>
@@ -9084,27 +9084,27 @@
     </row>
     <row r="414" spans="1:12">
       <c r="A414">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B414" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C414" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L414" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="415" spans="1:12">
       <c r="A415">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B415" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C415" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L415" t="s">
         <v>495</v>
@@ -9112,13 +9112,13 @@
     </row>
     <row r="416" spans="1:12">
       <c r="A416">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B416" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C416" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L416" t="s">
         <v>496</v>
@@ -9126,13 +9126,13 @@
     </row>
     <row r="417" spans="1:12">
       <c r="A417">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B417" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C417" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L417" t="s">
         <v>497</v>
@@ -9140,13 +9140,13 @@
     </row>
     <row r="418" spans="1:12">
       <c r="A418">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B418" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C418" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L418" t="s">
         <v>498</v>
@@ -9154,13 +9154,13 @@
     </row>
     <row r="419" spans="1:12">
       <c r="A419">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B419" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C419" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L419" t="s">
         <v>499</v>
@@ -9168,13 +9168,13 @@
     </row>
     <row r="420" spans="1:12">
       <c r="A420">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B420" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C420" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L420" t="s">
         <v>500</v>
@@ -9182,27 +9182,27 @@
     </row>
     <row r="421" spans="1:12">
       <c r="A421">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B421" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="C421" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="L421" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="422" spans="1:12">
       <c r="A422">
-        <v>421</v>
+        <v>4211</v>
       </c>
       <c r="B422" t="s">
+        <v>501</v>
+      </c>
+      <c r="C422" t="s">
         <v>502</v>
-      </c>
-      <c r="C422" t="s">
-        <v>503</v>
       </c>
       <c r="L422" t="s">
         <v>504</v>
@@ -9213,7 +9213,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C423" t="s">
         <v>505</v>
@@ -9227,7 +9227,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C424" t="s">
         <v>505</v>
@@ -9241,7 +9241,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C425" t="s">
         <v>505</v>
@@ -9255,7 +9255,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C426" t="s">
         <v>505</v>
@@ -9269,7 +9269,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C427" t="s">
         <v>505</v>
@@ -9283,7 +9283,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C428" t="s">
         <v>505</v>
@@ -9297,7 +9297,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C429" t="s">
         <v>505</v>
@@ -9311,7 +9311,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C430" t="s">
         <v>505</v>
@@ -11346,7 +11346,7 @@
         <v>554</v>
       </c>
       <c r="L534" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="535" spans="1:12">
@@ -11366,7 +11366,7 @@
         <v>554</v>
       </c>
       <c r="L535" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="536" spans="1:12">
@@ -11386,7 +11386,7 @@
         <v>554</v>
       </c>
       <c r="L536" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="537" spans="1:12">
@@ -11406,7 +11406,7 @@
         <v>554</v>
       </c>
       <c r="L537" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="538" spans="1:12">
@@ -11426,7 +11426,7 @@
         <v>554</v>
       </c>
       <c r="L538" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="539" spans="1:12">
@@ -11446,7 +11446,7 @@
         <v>554</v>
       </c>
       <c r="L539" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="540" spans="1:12">
@@ -11466,7 +11466,7 @@
         <v>554</v>
       </c>
       <c r="L540" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="541" spans="1:12">
@@ -11486,7 +11486,7 @@
         <v>554</v>
       </c>
       <c r="L541" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="542" spans="1:12">
@@ -11506,7 +11506,7 @@
         <v>554</v>
       </c>
       <c r="L542" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="543" spans="1:12">
@@ -11606,7 +11606,7 @@
         <v>554</v>
       </c>
       <c r="L547" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="548" spans="1:12">
@@ -13445,7 +13445,7 @@
         <v>573</v>
       </c>
       <c r="L628" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="629" spans="1:12">
@@ -15809,7 +15809,7 @@
         <v>604</v>
       </c>
       <c r="L745" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="746" spans="1:12">
@@ -15929,7 +15929,7 @@
         <v>604</v>
       </c>
       <c r="L751" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="752" spans="1:12">
@@ -15969,7 +15969,7 @@
         <v>604</v>
       </c>
       <c r="L753" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="754" spans="1:12">
@@ -16029,7 +16029,7 @@
         <v>611</v>
       </c>
       <c r="L756" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="757" spans="1:12">
@@ -16069,7 +16069,7 @@
         <v>604</v>
       </c>
       <c r="L758" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="759" spans="1:12">
@@ -16109,7 +16109,7 @@
         <v>604</v>
       </c>
       <c r="L760" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="761" spans="1:12">
@@ -16149,7 +16149,7 @@
         <v>604</v>
       </c>
       <c r="L762" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="763" spans="1:12">
@@ -16209,7 +16209,7 @@
         <v>604</v>
       </c>
       <c r="L765" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="766" spans="1:12">
@@ -16249,7 +16249,7 @@
         <v>604</v>
       </c>
       <c r="L767" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="768" spans="1:12">
@@ -16269,7 +16269,7 @@
         <v>611</v>
       </c>
       <c r="L768" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="769" spans="1:12">
@@ -16289,7 +16289,7 @@
         <v>611</v>
       </c>
       <c r="L769" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="770" spans="1:12">
@@ -16309,7 +16309,7 @@
         <v>611</v>
       </c>
       <c r="L770" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="771" spans="1:12">
@@ -16329,12 +16329,12 @@
         <v>611</v>
       </c>
       <c r="L771" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="772" spans="1:12">
       <c r="A772">
-        <v>771</v>
+        <v>7701</v>
       </c>
       <c r="F772" t="s">
         <v>602</v>
@@ -16349,12 +16349,12 @@
         <v>611</v>
       </c>
       <c r="L772" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
     </row>
     <row r="773" spans="1:12">
       <c r="A773">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F773" t="s">
         <v>602</v>
@@ -16366,15 +16366,15 @@
         <v>551</v>
       </c>
       <c r="I773" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="L773" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="774" spans="1:12">
       <c r="A774">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F774" t="s">
         <v>602</v>
@@ -16383,18 +16383,18 @@
         <v>545</v>
       </c>
       <c r="H774" t="s">
-        <v>614</v>
+        <v>551</v>
       </c>
       <c r="I774" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="L774" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
     </row>
     <row r="775" spans="1:12">
       <c r="A775">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F775" t="s">
         <v>602</v>
@@ -16406,15 +16406,15 @@
         <v>614</v>
       </c>
       <c r="I775" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="L775" t="s">
-        <v>605</v>
+        <v>476</v>
       </c>
     </row>
     <row r="776" spans="1:12">
       <c r="A776">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F776" t="s">
         <v>602</v>
@@ -16429,12 +16429,12 @@
         <v>604</v>
       </c>
       <c r="L776" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="777" spans="1:12">
       <c r="A777">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F777" t="s">
         <v>602</v>
@@ -16449,12 +16449,12 @@
         <v>604</v>
       </c>
       <c r="L777" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="778" spans="1:12">
       <c r="A778">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F778" t="s">
         <v>602</v>
@@ -16469,12 +16469,12 @@
         <v>604</v>
       </c>
       <c r="L778" t="s">
-        <v>474</v>
+        <v>616</v>
       </c>
     </row>
     <row r="779" spans="1:12">
       <c r="A779">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F779" t="s">
         <v>602</v>
@@ -16489,12 +16489,12 @@
         <v>604</v>
       </c>
       <c r="L779" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="780" spans="1:12">
       <c r="A780">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F780" t="s">
         <v>602</v>
@@ -16509,12 +16509,12 @@
         <v>604</v>
       </c>
       <c r="L780" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="781" spans="1:12">
       <c r="A781">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F781" t="s">
         <v>602</v>
@@ -16529,12 +16529,12 @@
         <v>604</v>
       </c>
       <c r="L781" t="s">
-        <v>413</v>
+        <v>475</v>
       </c>
     </row>
     <row r="782" spans="1:12">
       <c r="A782">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F782" t="s">
         <v>602</v>
@@ -16549,29 +16549,32 @@
         <v>604</v>
       </c>
       <c r="L782" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="783" spans="1:12">
       <c r="A783">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F783" t="s">
         <v>602</v>
       </c>
       <c r="G783" t="s">
-        <v>617</v>
+        <v>545</v>
       </c>
       <c r="H783" t="s">
-        <v>615</v>
+        <v>614</v>
+      </c>
+      <c r="I783" t="s">
+        <v>604</v>
       </c>
       <c r="L783" t="s">
-        <v>477</v>
+        <v>408</v>
       </c>
     </row>
     <row r="784" spans="1:12">
       <c r="A784">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F784" t="s">
         <v>602</v>
@@ -16580,15 +16583,15 @@
         <v>617</v>
       </c>
       <c r="H784" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="L784" t="s">
-        <v>605</v>
+        <v>476</v>
       </c>
     </row>
     <row r="785" spans="1:12">
       <c r="A785">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F785" t="s">
         <v>602</v>
@@ -16600,12 +16603,12 @@
         <v>604</v>
       </c>
       <c r="L785" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="786" spans="1:12">
       <c r="A786">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F786" t="s">
         <v>602</v>
@@ -16617,12 +16620,12 @@
         <v>604</v>
       </c>
       <c r="L786" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="787" spans="1:12">
       <c r="A787">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F787" t="s">
         <v>602</v>
@@ -16634,12 +16637,12 @@
         <v>604</v>
       </c>
       <c r="L787" t="s">
-        <v>474</v>
+        <v>616</v>
       </c>
     </row>
     <row r="788" spans="1:12">
       <c r="A788">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F788" t="s">
         <v>602</v>
@@ -16651,12 +16654,12 @@
         <v>604</v>
       </c>
       <c r="L788" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="789" spans="1:12">
       <c r="A789">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F789" t="s">
         <v>602</v>
@@ -16668,12 +16671,12 @@
         <v>604</v>
       </c>
       <c r="L789" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="790" spans="1:12">
       <c r="A790">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F790" t="s">
         <v>602</v>
@@ -16685,12 +16688,12 @@
         <v>604</v>
       </c>
       <c r="L790" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
     </row>
     <row r="791" spans="1:12">
       <c r="A791">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F791" t="s">
         <v>602</v>
@@ -16702,12 +16705,12 @@
         <v>604</v>
       </c>
       <c r="L791" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="792" spans="1:12">
       <c r="A792">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F792" t="s">
         <v>602</v>
@@ -16719,12 +16722,12 @@
         <v>604</v>
       </c>
       <c r="L792" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
     </row>
     <row r="793" spans="1:12">
       <c r="A793">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F793" t="s">
         <v>602</v>
@@ -16736,12 +16739,12 @@
         <v>604</v>
       </c>
       <c r="L793" t="s">
-        <v>618</v>
+        <v>447</v>
       </c>
     </row>
     <row r="794" spans="1:12">
       <c r="A794">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F794" t="s">
         <v>602</v>
@@ -16753,29 +16756,29 @@
         <v>604</v>
       </c>
       <c r="L794" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="795" spans="1:12">
       <c r="A795">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F795" t="s">
         <v>602</v>
       </c>
       <c r="G795" t="s">
-        <v>552</v>
+        <v>617</v>
       </c>
       <c r="H795" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="L795" t="s">
-        <v>477</v>
+        <v>619</v>
       </c>
     </row>
     <row r="796" spans="1:12">
       <c r="A796">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F796" t="s">
         <v>602</v>
@@ -16787,12 +16790,12 @@
         <v>615</v>
       </c>
       <c r="L796" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
     </row>
     <row r="797" spans="1:12">
       <c r="A797">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F797" t="s">
         <v>602</v>
@@ -16804,12 +16807,12 @@
         <v>615</v>
       </c>
       <c r="L797" t="s">
-        <v>472</v>
+        <v>426</v>
       </c>
     </row>
     <row r="798" spans="1:12">
       <c r="A798">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F798" t="s">
         <v>602</v>
@@ -16818,15 +16821,15 @@
         <v>552</v>
       </c>
       <c r="H798" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="L798" t="s">
-        <v>605</v>
+        <v>471</v>
       </c>
     </row>
     <row r="799" spans="1:12">
       <c r="A799">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F799" t="s">
         <v>602</v>
@@ -16838,12 +16841,12 @@
         <v>604</v>
       </c>
       <c r="L799" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="800" spans="1:12">
       <c r="A800">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F800" t="s">
         <v>602</v>
@@ -16855,12 +16858,12 @@
         <v>604</v>
       </c>
       <c r="L800" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="801" spans="1:12">
       <c r="A801">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F801" t="s">
         <v>602</v>
@@ -16872,12 +16875,12 @@
         <v>604</v>
       </c>
       <c r="L801" t="s">
-        <v>474</v>
+        <v>616</v>
       </c>
     </row>
     <row r="802" spans="1:12">
       <c r="A802">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F802" t="s">
         <v>602</v>
@@ -16889,12 +16892,12 @@
         <v>604</v>
       </c>
       <c r="L802" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="803" spans="1:12">
       <c r="A803">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F803" t="s">
         <v>602</v>
@@ -16906,12 +16909,12 @@
         <v>604</v>
       </c>
       <c r="L803" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="804" spans="1:12">
       <c r="A804">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F804" t="s">
         <v>602</v>
@@ -16923,12 +16926,12 @@
         <v>604</v>
       </c>
       <c r="L804" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
     </row>
     <row r="805" spans="1:12">
       <c r="A805">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F805" t="s">
         <v>602</v>
@@ -16940,12 +16943,12 @@
         <v>604</v>
       </c>
       <c r="L805" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="806" spans="1:12">
       <c r="A806">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F806" t="s">
         <v>602</v>
@@ -16957,12 +16960,12 @@
         <v>604</v>
       </c>
       <c r="L806" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
     </row>
     <row r="807" spans="1:12">
       <c r="A807">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F807" t="s">
         <v>602</v>
@@ -16974,12 +16977,12 @@
         <v>604</v>
       </c>
       <c r="L807" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="808" spans="1:12">
       <c r="A808">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F808" t="s">
         <v>602</v>
@@ -16991,12 +16994,12 @@
         <v>604</v>
       </c>
       <c r="L808" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="809" spans="1:12">
       <c r="A809">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F809" t="s">
         <v>602</v>
@@ -17008,12 +17011,12 @@
         <v>604</v>
       </c>
       <c r="L809" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="810" spans="1:12">
       <c r="A810">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F810" t="s">
         <v>602</v>
@@ -17025,29 +17028,29 @@
         <v>604</v>
       </c>
       <c r="L810" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="811" spans="1:12">
       <c r="A811">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F811" t="s">
         <v>602</v>
       </c>
       <c r="G811" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H811" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="L811" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="812" spans="1:12">
       <c r="A812">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F812" t="s">
         <v>602</v>
@@ -17056,15 +17059,15 @@
         <v>556</v>
       </c>
       <c r="H812" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="L812" t="s">
-        <v>605</v>
+        <v>476</v>
       </c>
     </row>
     <row r="813" spans="1:12">
       <c r="A813">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F813" t="s">
         <v>602</v>
@@ -17076,12 +17079,12 @@
         <v>604</v>
       </c>
       <c r="L813" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="814" spans="1:12">
       <c r="A814">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F814" t="s">
         <v>602</v>
@@ -17093,12 +17096,12 @@
         <v>604</v>
       </c>
       <c r="L814" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="815" spans="1:12">
       <c r="A815">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F815" t="s">
         <v>602</v>
@@ -17110,12 +17113,12 @@
         <v>604</v>
       </c>
       <c r="L815" t="s">
-        <v>474</v>
+        <v>616</v>
       </c>
     </row>
     <row r="816" spans="1:12">
       <c r="A816">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F816" t="s">
         <v>602</v>
@@ -17127,12 +17130,12 @@
         <v>604</v>
       </c>
       <c r="L816" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="817" spans="1:12">
       <c r="A817">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F817" t="s">
         <v>602</v>
@@ -17144,12 +17147,12 @@
         <v>604</v>
       </c>
       <c r="L817" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="818" spans="1:12">
       <c r="A818">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F818" t="s">
         <v>602</v>
@@ -17161,12 +17164,12 @@
         <v>604</v>
       </c>
       <c r="L818" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
     </row>
     <row r="819" spans="1:12">
       <c r="A819">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F819" t="s">
         <v>602</v>
@@ -17178,12 +17181,12 @@
         <v>604</v>
       </c>
       <c r="L819" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="820" spans="1:12">
       <c r="A820">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F820" t="s">
         <v>602</v>
@@ -17195,46 +17198,46 @@
         <v>604</v>
       </c>
       <c r="L820" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
     </row>
     <row r="821" spans="1:12">
       <c r="A821">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F821" t="s">
         <v>602</v>
       </c>
       <c r="G821" t="s">
-        <v>620</v>
+        <v>556</v>
       </c>
       <c r="H821" t="s">
-        <v>117</v>
+        <v>604</v>
       </c>
       <c r="L821" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
     </row>
     <row r="822" spans="1:12">
       <c r="A822">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F822" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="G822" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H822" t="s">
-        <v>623</v>
+        <v>117</v>
       </c>
       <c r="L822" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
     </row>
     <row r="823" spans="1:12">
       <c r="A823">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F823" t="s">
         <v>621</v>
@@ -17246,29 +17249,29 @@
         <v>623</v>
       </c>
       <c r="L823" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="824" spans="1:12">
       <c r="A824">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F824" t="s">
         <v>621</v>
       </c>
       <c r="G824" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H824" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="L824" t="s">
-        <v>286</v>
+        <v>390</v>
       </c>
     </row>
     <row r="825" spans="1:12">
       <c r="A825">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F825" t="s">
         <v>621</v>
@@ -17280,12 +17283,12 @@
         <v>625</v>
       </c>
       <c r="L825" t="s">
-        <v>372</v>
+        <v>286</v>
       </c>
     </row>
     <row r="826" spans="1:12">
       <c r="A826">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F826" t="s">
         <v>621</v>
@@ -17297,12 +17300,12 @@
         <v>625</v>
       </c>
       <c r="L826" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="827" spans="1:12">
       <c r="A827">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F827" t="s">
         <v>621</v>
@@ -17314,12 +17317,12 @@
         <v>625</v>
       </c>
       <c r="L827" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
     </row>
     <row r="828" spans="1:12">
       <c r="A828">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F828" t="s">
         <v>621</v>
@@ -17328,15 +17331,15 @@
         <v>624</v>
       </c>
       <c r="H828" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L828" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="829" spans="1:12">
       <c r="A829">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F829" t="s">
         <v>621</v>
@@ -17348,12 +17351,12 @@
         <v>626</v>
       </c>
       <c r="L829" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
     </row>
     <row r="830" spans="1:12">
       <c r="A830">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F830" t="s">
         <v>621</v>
@@ -17365,12 +17368,12 @@
         <v>626</v>
       </c>
       <c r="L830" t="s">
-        <v>292</v>
+        <v>399</v>
       </c>
     </row>
     <row r="831" spans="1:12">
       <c r="A831">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F831" t="s">
         <v>621</v>
@@ -17382,12 +17385,12 @@
         <v>626</v>
       </c>
       <c r="L831" t="s">
-        <v>363</v>
+        <v>292</v>
       </c>
     </row>
     <row r="832" spans="1:12">
       <c r="A832">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F832" t="s">
         <v>621</v>
@@ -17396,15 +17399,15 @@
         <v>624</v>
       </c>
       <c r="H832" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L832" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
     </row>
     <row r="833" spans="1:12">
       <c r="A833">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F833" t="s">
         <v>621</v>
@@ -17416,12 +17419,12 @@
         <v>627</v>
       </c>
       <c r="L833" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="834" spans="1:12">
       <c r="A834">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F834" t="s">
         <v>621</v>
@@ -17433,12 +17436,12 @@
         <v>627</v>
       </c>
       <c r="L834" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="835" spans="1:12">
       <c r="A835">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F835" t="s">
         <v>621</v>
@@ -17450,12 +17453,12 @@
         <v>627</v>
       </c>
       <c r="L835" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="836" spans="1:12">
       <c r="A836">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F836" t="s">
         <v>621</v>
@@ -17467,12 +17470,12 @@
         <v>627</v>
       </c>
       <c r="L836" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="837" spans="1:12">
       <c r="A837">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F837" t="s">
         <v>621</v>
@@ -17484,12 +17487,12 @@
         <v>627</v>
       </c>
       <c r="L837" t="s">
-        <v>289</v>
+        <v>396</v>
       </c>
     </row>
     <row r="838" spans="1:12">
       <c r="A838">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F838" t="s">
         <v>621</v>
@@ -17501,12 +17504,12 @@
         <v>627</v>
       </c>
       <c r="L838" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="839" spans="1:12">
       <c r="A839">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F839" t="s">
         <v>621</v>
@@ -17518,12 +17521,12 @@
         <v>627</v>
       </c>
       <c r="L839" t="s">
-        <v>385</v>
+        <v>290</v>
       </c>
     </row>
     <row r="840" spans="1:12">
       <c r="A840">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F840" t="s">
         <v>621</v>
@@ -17535,12 +17538,12 @@
         <v>627</v>
       </c>
       <c r="L840" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="841" spans="1:12">
       <c r="A841">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F841" t="s">
         <v>621</v>
@@ -17552,12 +17555,12 @@
         <v>627</v>
       </c>
       <c r="L841" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="842" spans="1:12">
       <c r="A842">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F842" t="s">
         <v>621</v>
@@ -17566,15 +17569,15 @@
         <v>624</v>
       </c>
       <c r="H842" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L842" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="843" spans="1:12">
       <c r="A843">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F843" t="s">
         <v>621</v>
@@ -17586,12 +17589,12 @@
         <v>628</v>
       </c>
       <c r="L843" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
     </row>
     <row r="844" spans="1:12">
       <c r="A844">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F844" t="s">
         <v>621</v>
@@ -17603,12 +17606,12 @@
         <v>628</v>
       </c>
       <c r="L844" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
     </row>
     <row r="845" spans="1:12">
       <c r="A845">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F845" t="s">
         <v>621</v>
@@ -17617,15 +17620,15 @@
         <v>624</v>
       </c>
       <c r="H845" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L845" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
     </row>
     <row r="846" spans="1:12">
       <c r="A846">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F846" t="s">
         <v>621</v>
@@ -17637,12 +17640,12 @@
         <v>629</v>
       </c>
       <c r="L846" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="847" spans="1:12">
       <c r="A847">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F847" t="s">
         <v>621</v>
@@ -17654,12 +17657,12 @@
         <v>629</v>
       </c>
       <c r="L847" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="848" spans="1:12">
       <c r="A848">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F848" t="s">
         <v>621</v>
@@ -17671,12 +17674,12 @@
         <v>629</v>
       </c>
       <c r="L848" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="849" spans="1:12">
       <c r="A849">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F849" t="s">
         <v>621</v>
@@ -17688,12 +17691,12 @@
         <v>629</v>
       </c>
       <c r="L849" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="850" spans="1:12">
       <c r="A850">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F850" t="s">
         <v>621</v>
@@ -17705,12 +17708,12 @@
         <v>629</v>
       </c>
       <c r="L850" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
     </row>
     <row r="851" spans="1:12">
       <c r="A851">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F851" t="s">
         <v>621</v>
@@ -17722,12 +17725,12 @@
         <v>629</v>
       </c>
       <c r="L851" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
     </row>
     <row r="852" spans="1:12">
       <c r="A852">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F852" t="s">
         <v>621</v>
@@ -17739,12 +17742,12 @@
         <v>629</v>
       </c>
       <c r="L852" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="853" spans="1:12">
       <c r="A853">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F853" t="s">
         <v>621</v>
@@ -17756,12 +17759,12 @@
         <v>629</v>
       </c>
       <c r="L853" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="854" spans="1:12">
       <c r="A854">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F854" t="s">
         <v>621</v>
@@ -17773,12 +17776,12 @@
         <v>629</v>
       </c>
       <c r="L854" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="855" spans="1:12">
       <c r="A855">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F855" t="s">
         <v>621</v>
@@ -17787,15 +17790,15 @@
         <v>624</v>
       </c>
       <c r="H855" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L855" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="856" spans="1:12">
       <c r="A856">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F856" t="s">
         <v>621</v>
@@ -17804,15 +17807,15 @@
         <v>624</v>
       </c>
       <c r="H856" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L856" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="857" spans="1:12">
       <c r="A857">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F857" t="s">
         <v>621</v>
@@ -17824,12 +17827,12 @@
         <v>631</v>
       </c>
       <c r="L857" t="s">
-        <v>277</v>
+        <v>358</v>
       </c>
     </row>
     <row r="858" spans="1:12">
       <c r="A858">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F858" t="s">
         <v>621</v>
@@ -17841,12 +17844,12 @@
         <v>631</v>
       </c>
       <c r="L858" t="s">
-        <v>379</v>
+        <v>277</v>
       </c>
     </row>
     <row r="859" spans="1:12">
       <c r="A859">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F859" t="s">
         <v>621</v>
@@ -17858,12 +17861,12 @@
         <v>631</v>
       </c>
       <c r="L859" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="860" spans="1:12">
       <c r="A860">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F860" t="s">
         <v>621</v>
@@ -17875,12 +17878,12 @@
         <v>631</v>
       </c>
       <c r="L860" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="861" spans="1:12">
       <c r="A861">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F861" t="s">
         <v>621</v>
@@ -17892,12 +17895,12 @@
         <v>631</v>
       </c>
       <c r="L861" t="s">
-        <v>285</v>
+        <v>381</v>
       </c>
     </row>
     <row r="862" spans="1:12">
       <c r="A862">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F862" t="s">
         <v>621</v>
@@ -17909,12 +17912,12 @@
         <v>631</v>
       </c>
       <c r="L862" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="863" spans="1:12">
       <c r="A863">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F863" t="s">
         <v>621</v>
@@ -17926,12 +17929,12 @@
         <v>631</v>
       </c>
       <c r="L863" t="s">
-        <v>392</v>
+        <v>283</v>
       </c>
     </row>
     <row r="864" spans="1:12">
       <c r="A864">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F864" t="s">
         <v>621</v>
@@ -17943,12 +17946,12 @@
         <v>631</v>
       </c>
       <c r="L864" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
     </row>
     <row r="865" spans="1:12">
       <c r="A865">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F865" t="s">
         <v>621</v>
@@ -17960,12 +17963,12 @@
         <v>631</v>
       </c>
       <c r="L865" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
     </row>
     <row r="866" spans="1:12">
       <c r="A866">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F866" t="s">
         <v>621</v>
@@ -17974,15 +17977,15 @@
         <v>624</v>
       </c>
       <c r="H866" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L866" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
     </row>
     <row r="867" spans="1:12">
       <c r="A867">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F867" t="s">
         <v>621</v>
@@ -17994,12 +17997,12 @@
         <v>632</v>
       </c>
       <c r="L867" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
     </row>
     <row r="868" spans="1:12">
       <c r="A868">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F868" t="s">
         <v>621</v>
@@ -18011,12 +18014,12 @@
         <v>632</v>
       </c>
       <c r="L868" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
     </row>
     <row r="869" spans="1:12">
       <c r="A869">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F869" t="s">
         <v>621</v>
@@ -18025,35 +18028,32 @@
         <v>624</v>
       </c>
       <c r="H869" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L869" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="870" spans="1:12">
       <c r="A870">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F870" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="G870" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="H870" t="s">
-        <v>636</v>
-      </c>
-      <c r="I870" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="L870" t="s">
-        <v>492</v>
+        <v>361</v>
       </c>
     </row>
     <row r="871" spans="1:12">
       <c r="A871">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F871" t="s">
         <v>634</v>
@@ -18068,12 +18068,12 @@
         <v>637</v>
       </c>
       <c r="L871" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="872" spans="1:12">
       <c r="A872">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F872" t="s">
         <v>634</v>
@@ -18082,18 +18082,18 @@
         <v>635</v>
       </c>
       <c r="H872" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I872" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="L872" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="873" spans="1:12">
       <c r="A873">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F873" t="s">
         <v>634</v>
@@ -18105,7 +18105,7 @@
         <v>638</v>
       </c>
       <c r="I873" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L873" t="s">
         <v>500</v>
@@ -18113,7 +18113,7 @@
     </row>
     <row r="874" spans="1:12">
       <c r="A874">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F874" t="s">
         <v>634</v>
@@ -18125,15 +18125,15 @@
         <v>638</v>
       </c>
       <c r="I874" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L874" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="875" spans="1:12">
       <c r="A875">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F875" t="s">
         <v>634</v>
@@ -18145,15 +18145,15 @@
         <v>638</v>
       </c>
       <c r="I875" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L875" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="876" spans="1:12">
       <c r="A876">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F876" t="s">
         <v>634</v>
@@ -18165,15 +18165,15 @@
         <v>638</v>
       </c>
       <c r="I876" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="L876" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="877" spans="1:12">
       <c r="A877">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F877" t="s">
         <v>634</v>
@@ -18188,12 +18188,12 @@
         <v>631</v>
       </c>
       <c r="L877" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="878" spans="1:12">
       <c r="A878">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F878" t="s">
         <v>634</v>
@@ -18208,12 +18208,12 @@
         <v>631</v>
       </c>
       <c r="L878" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="879" spans="1:12">
       <c r="A879">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F879" t="s">
         <v>634</v>
@@ -18225,15 +18225,15 @@
         <v>638</v>
       </c>
       <c r="I879" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="L879" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="880" spans="1:12">
       <c r="A880">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F880" t="s">
         <v>634</v>
@@ -18245,15 +18245,15 @@
         <v>638</v>
       </c>
       <c r="I880" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="L880" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="881" spans="1:12">
       <c r="A881">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F881" t="s">
         <v>634</v>
@@ -18265,15 +18265,15 @@
         <v>638</v>
       </c>
       <c r="I881" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L881" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="882" spans="1:12">
       <c r="A882">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F882" t="s">
         <v>634</v>
@@ -18285,32 +18285,35 @@
         <v>638</v>
       </c>
       <c r="I882" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L882" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="883" spans="1:12">
       <c r="A883">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F883" t="s">
         <v>634</v>
       </c>
       <c r="G883" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="H883" t="s">
-        <v>640</v>
+        <v>638</v>
+      </c>
+      <c r="I883" t="s">
+        <v>632</v>
       </c>
       <c r="L883" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
     </row>
     <row r="884" spans="1:12">
       <c r="A884">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F884" t="s">
         <v>634</v>
@@ -18322,12 +18325,12 @@
         <v>640</v>
       </c>
       <c r="L884" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="885" spans="1:12">
       <c r="A885">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F885" t="s">
         <v>634</v>
@@ -18339,12 +18342,12 @@
         <v>640</v>
       </c>
       <c r="L885" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="886" spans="1:12">
       <c r="A886">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F886" t="s">
         <v>634</v>
@@ -18356,12 +18359,12 @@
         <v>640</v>
       </c>
       <c r="L886" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="887" spans="1:12">
       <c r="A887">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F887" t="s">
         <v>634</v>
@@ -18373,12 +18376,12 @@
         <v>640</v>
       </c>
       <c r="L887" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="888" spans="1:12">
       <c r="A888">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F888" t="s">
         <v>634</v>
@@ -18390,12 +18393,12 @@
         <v>640</v>
       </c>
       <c r="L888" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="889" spans="1:12">
       <c r="A889">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F889" t="s">
         <v>634</v>
@@ -18407,12 +18410,12 @@
         <v>640</v>
       </c>
       <c r="L889" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="890" spans="1:12">
       <c r="A890">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F890" t="s">
         <v>634</v>
@@ -18424,26 +18427,29 @@
         <v>640</v>
       </c>
       <c r="L890" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="891" spans="1:12">
       <c r="A891">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F891" t="s">
         <v>634</v>
       </c>
       <c r="G891" t="s">
-        <v>641</v>
+        <v>639</v>
+      </c>
+      <c r="H891" t="s">
+        <v>640</v>
       </c>
       <c r="L891" t="s">
-        <v>262</v>
+        <v>489</v>
       </c>
     </row>
     <row r="892" spans="1:12">
       <c r="A892">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F892" t="s">
         <v>634</v>
@@ -18452,12 +18458,12 @@
         <v>641</v>
       </c>
       <c r="L892" t="s">
-        <v>507</v>
+        <v>262</v>
       </c>
     </row>
     <row r="893" spans="1:12">
       <c r="A893">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F893" t="s">
         <v>634</v>
@@ -18466,12 +18472,12 @@
         <v>641</v>
       </c>
       <c r="L893" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
     </row>
     <row r="894" spans="1:12">
       <c r="A894">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F894" t="s">
         <v>634</v>
@@ -18480,12 +18486,12 @@
         <v>641</v>
       </c>
       <c r="L894" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
     </row>
     <row r="895" spans="1:12">
       <c r="A895">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F895" t="s">
         <v>634</v>
@@ -18494,26 +18500,26 @@
         <v>641</v>
       </c>
       <c r="L895" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="896" spans="1:12">
       <c r="A896">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F896" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G896" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="L896" t="s">
-        <v>278</v>
+        <v>480</v>
       </c>
     </row>
     <row r="897" spans="1:12">
       <c r="A897">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F897" t="s">
         <v>642</v>
@@ -18522,26 +18528,26 @@
         <v>643</v>
       </c>
       <c r="L897" t="s">
-        <v>356</v>
+        <v>278</v>
       </c>
     </row>
     <row r="898" spans="1:12">
       <c r="A898">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F898" t="s">
         <v>642</v>
       </c>
       <c r="G898" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L898" t="s">
-        <v>78</v>
+        <v>356</v>
       </c>
     </row>
     <row r="899" spans="1:12">
       <c r="A899">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F899" t="s">
         <v>642</v>
@@ -18550,12 +18556,12 @@
         <v>644</v>
       </c>
       <c r="L899" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="900" spans="1:12">
       <c r="A900">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F900" t="s">
         <v>642</v>
@@ -18564,12 +18570,12 @@
         <v>644</v>
       </c>
       <c r="L900" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="901" spans="1:12">
       <c r="A901">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F901" t="s">
         <v>642</v>
@@ -18578,12 +18584,12 @@
         <v>644</v>
       </c>
       <c r="L901" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="902" spans="1:12">
       <c r="A902">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F902" t="s">
         <v>642</v>
@@ -18592,12 +18598,12 @@
         <v>644</v>
       </c>
       <c r="L902" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="903" spans="1:12">
       <c r="A903">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F903" t="s">
         <v>642</v>
@@ -18606,12 +18612,12 @@
         <v>644</v>
       </c>
       <c r="L903" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="904" spans="1:12">
       <c r="A904">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F904" t="s">
         <v>642</v>
@@ -18620,12 +18626,12 @@
         <v>644</v>
       </c>
       <c r="L904" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="905" spans="1:12">
       <c r="A905">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F905" t="s">
         <v>642</v>
@@ -18634,12 +18640,12 @@
         <v>644</v>
       </c>
       <c r="L905" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="906" spans="1:12">
       <c r="A906">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F906" t="s">
         <v>642</v>
@@ -18648,12 +18654,12 @@
         <v>644</v>
       </c>
       <c r="L906" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="907" spans="1:12">
       <c r="A907">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F907" t="s">
         <v>642</v>
@@ -18662,12 +18668,12 @@
         <v>644</v>
       </c>
       <c r="L907" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="908" spans="1:12">
       <c r="A908">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F908" t="s">
         <v>642</v>
@@ -18676,12 +18682,12 @@
         <v>644</v>
       </c>
       <c r="L908" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="909" spans="1:12">
       <c r="A909">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F909" t="s">
         <v>642</v>
@@ -18690,12 +18696,12 @@
         <v>644</v>
       </c>
       <c r="L909" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="910" spans="1:12">
       <c r="A910">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F910" t="s">
         <v>642</v>
@@ -18704,12 +18710,12 @@
         <v>644</v>
       </c>
       <c r="L910" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="911" spans="1:12">
       <c r="A911">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F911" t="s">
         <v>642</v>
@@ -18718,12 +18724,12 @@
         <v>644</v>
       </c>
       <c r="L911" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="912" spans="1:12">
       <c r="A912">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F912" t="s">
         <v>642</v>
@@ -18732,12 +18738,12 @@
         <v>644</v>
       </c>
       <c r="L912" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="913" spans="1:12">
       <c r="A913">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F913" t="s">
         <v>642</v>
@@ -18746,12 +18752,12 @@
         <v>644</v>
       </c>
       <c r="L913" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="914" spans="1:12">
       <c r="A914">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F914" t="s">
         <v>642</v>
@@ -18760,12 +18766,12 @@
         <v>644</v>
       </c>
       <c r="L914" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="915" spans="1:12">
       <c r="A915">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F915" t="s">
         <v>642</v>
@@ -18774,12 +18780,12 @@
         <v>644</v>
       </c>
       <c r="L915" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="916" spans="1:12">
       <c r="A916">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F916" t="s">
         <v>642</v>
@@ -18788,12 +18794,12 @@
         <v>644</v>
       </c>
       <c r="L916" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="917" spans="1:12">
       <c r="A917">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F917" t="s">
         <v>642</v>
@@ -18802,12 +18808,12 @@
         <v>644</v>
       </c>
       <c r="L917" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="918" spans="1:12">
       <c r="A918">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F918" t="s">
         <v>642</v>
@@ -18816,26 +18822,26 @@
         <v>644</v>
       </c>
       <c r="L918" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="919" spans="1:12">
       <c r="A919">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F919" t="s">
         <v>642</v>
       </c>
       <c r="G919" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L919" t="s">
-        <v>515</v>
+        <v>98</v>
       </c>
     </row>
     <row r="920" spans="1:12">
       <c r="A920">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F920" t="s">
         <v>642</v>
@@ -18844,26 +18850,26 @@
         <v>645</v>
       </c>
       <c r="L920" t="s">
-        <v>377</v>
+        <v>515</v>
       </c>
     </row>
     <row r="921" spans="1:12">
       <c r="A921">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F921" t="s">
         <v>642</v>
       </c>
       <c r="G921" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L921" t="s">
-        <v>647</v>
+        <v>377</v>
       </c>
     </row>
     <row r="922" spans="1:12">
       <c r="A922">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F922" t="s">
         <v>642</v>
@@ -18872,12 +18878,12 @@
         <v>646</v>
       </c>
       <c r="L922" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="923" spans="1:12">
       <c r="A923">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F923" t="s">
         <v>642</v>
@@ -18886,12 +18892,12 @@
         <v>646</v>
       </c>
       <c r="L923" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="924" spans="1:12">
       <c r="A924">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F924" t="s">
         <v>642</v>
@@ -18900,12 +18906,12 @@
         <v>646</v>
       </c>
       <c r="L924" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="925" spans="1:12">
       <c r="A925">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F925" t="s">
         <v>642</v>
@@ -18914,12 +18920,12 @@
         <v>646</v>
       </c>
       <c r="L925" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="926" spans="1:12">
       <c r="A926">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F926" t="s">
         <v>642</v>
@@ -18928,12 +18934,12 @@
         <v>646</v>
       </c>
       <c r="L926" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="927" spans="1:12">
       <c r="A927">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F927" t="s">
         <v>642</v>
@@ -18942,12 +18948,12 @@
         <v>646</v>
       </c>
       <c r="L927" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="928" spans="1:12">
       <c r="A928">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F928" t="s">
         <v>642</v>
@@ -18956,12 +18962,12 @@
         <v>646</v>
       </c>
       <c r="L928" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="929" spans="1:12">
       <c r="A929">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F929" t="s">
         <v>642</v>
@@ -18970,12 +18976,12 @@
         <v>646</v>
       </c>
       <c r="L929" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="930" spans="1:12">
       <c r="A930">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F930" t="s">
         <v>642</v>
@@ -18984,12 +18990,12 @@
         <v>646</v>
       </c>
       <c r="L930" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="931" spans="1:12">
       <c r="A931">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F931" t="s">
         <v>642</v>
@@ -18998,35 +19004,21 @@
         <v>646</v>
       </c>
       <c r="L931" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="932" spans="1:12">
       <c r="A932">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F932" t="s">
         <v>642</v>
       </c>
       <c r="G932" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="L932" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="933" spans="1:12">
-      <c r="A933">
-        <v>932</v>
-      </c>
-      <c r="F933" t="s">
-        <v>642</v>
-      </c>
-      <c r="G933" t="s">
-        <v>658</v>
-      </c>
-      <c r="L933" t="s">
-        <v>437</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>

--- a/dataloader/data/GlycoEnzOntoDB.xlsx
+++ b/dataloader/data/GlycoEnzOntoDB.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27518"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73D57409-940B-4128-9253-0E1DFACD8F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1D13B98-90BC-49DB-9B00-5A7AB4F19669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3982" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3982" uniqueCount="657">
   <si>
     <t>id</t>
   </si>
@@ -1680,7 +1680,7 @@
     <t>Chondroitin/Dermatan sulfate elongation</t>
   </si>
   <si>
-    <t>Heparin sulfate elongation</t>
+    <t>Heparan sulfate elongation</t>
   </si>
   <si>
     <t>Keratan sulfate elongation</t>
@@ -1797,7 +1797,7 @@
     <t>Terminal fucosylation</t>
   </si>
   <si>
-    <t>Terminal sialic acid</t>
+    <t>Terminal sialylation</t>
   </si>
   <si>
     <t>Terminal sulfation</t>
@@ -1882,9 +1882,6 @@
   </si>
   <si>
     <t>GLB1</t>
-  </si>
-  <si>
-    <t>GSL</t>
   </si>
   <si>
     <t>GLA</t>
@@ -2375,7 +2372,7 @@
   <dimension ref="A1:L932"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D366" workbookViewId="0">
-      <selection activeCell="A367" sqref="A367"/>
+      <selection activeCell="A367" sqref="A367:XFD367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16580,7 +16577,7 @@
         <v>602</v>
       </c>
       <c r="G784" t="s">
-        <v>617</v>
+        <v>525</v>
       </c>
       <c r="H784" t="s">
         <v>615</v>
@@ -16597,7 +16594,7 @@
         <v>602</v>
       </c>
       <c r="G785" t="s">
-        <v>617</v>
+        <v>525</v>
       </c>
       <c r="H785" t="s">
         <v>604</v>
@@ -16614,7 +16611,7 @@
         <v>602</v>
       </c>
       <c r="G786" t="s">
-        <v>617</v>
+        <v>525</v>
       </c>
       <c r="H786" t="s">
         <v>604</v>
@@ -16631,7 +16628,7 @@
         <v>602</v>
       </c>
       <c r="G787" t="s">
-        <v>617</v>
+        <v>525</v>
       </c>
       <c r="H787" t="s">
         <v>604</v>
@@ -16648,7 +16645,7 @@
         <v>602</v>
       </c>
       <c r="G788" t="s">
-        <v>617</v>
+        <v>525</v>
       </c>
       <c r="H788" t="s">
         <v>604</v>
@@ -16665,7 +16662,7 @@
         <v>602</v>
       </c>
       <c r="G789" t="s">
-        <v>617</v>
+        <v>525</v>
       </c>
       <c r="H789" t="s">
         <v>604</v>
@@ -16682,7 +16679,7 @@
         <v>602</v>
       </c>
       <c r="G790" t="s">
-        <v>617</v>
+        <v>525</v>
       </c>
       <c r="H790" t="s">
         <v>604</v>
@@ -16699,7 +16696,7 @@
         <v>602</v>
       </c>
       <c r="G791" t="s">
-        <v>617</v>
+        <v>525</v>
       </c>
       <c r="H791" t="s">
         <v>604</v>
@@ -16716,7 +16713,7 @@
         <v>602</v>
       </c>
       <c r="G792" t="s">
-        <v>617</v>
+        <v>525</v>
       </c>
       <c r="H792" t="s">
         <v>604</v>
@@ -16733,7 +16730,7 @@
         <v>602</v>
       </c>
       <c r="G793" t="s">
-        <v>617</v>
+        <v>525</v>
       </c>
       <c r="H793" t="s">
         <v>604</v>
@@ -16750,13 +16747,13 @@
         <v>602</v>
       </c>
       <c r="G794" t="s">
-        <v>617</v>
+        <v>525</v>
       </c>
       <c r="H794" t="s">
         <v>604</v>
       </c>
       <c r="L794" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="795" spans="1:12">
@@ -16767,13 +16764,13 @@
         <v>602</v>
       </c>
       <c r="G795" t="s">
-        <v>617</v>
+        <v>525</v>
       </c>
       <c r="H795" t="s">
         <v>604</v>
       </c>
       <c r="L795" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="796" spans="1:12">
@@ -17226,7 +17223,7 @@
         <v>602</v>
       </c>
       <c r="G822" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H822" t="s">
         <v>117</v>
@@ -17240,13 +17237,13 @@
         <v>821</v>
       </c>
       <c r="F823" t="s">
+        <v>620</v>
+      </c>
+      <c r="G823" t="s">
         <v>621</v>
       </c>
-      <c r="G823" t="s">
+      <c r="H823" t="s">
         <v>622</v>
-      </c>
-      <c r="H823" t="s">
-        <v>623</v>
       </c>
       <c r="L823" t="s">
         <v>389</v>
@@ -17257,13 +17254,13 @@
         <v>822</v>
       </c>
       <c r="F824" t="s">
+        <v>620</v>
+      </c>
+      <c r="G824" t="s">
         <v>621</v>
       </c>
-      <c r="G824" t="s">
+      <c r="H824" t="s">
         <v>622</v>
-      </c>
-      <c r="H824" t="s">
-        <v>623</v>
       </c>
       <c r="L824" t="s">
         <v>390</v>
@@ -17274,13 +17271,13 @@
         <v>823</v>
       </c>
       <c r="F825" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G825" t="s">
+        <v>623</v>
+      </c>
+      <c r="H825" t="s">
         <v>624</v>
-      </c>
-      <c r="H825" t="s">
-        <v>625</v>
       </c>
       <c r="L825" t="s">
         <v>286</v>
@@ -17291,13 +17288,13 @@
         <v>824</v>
       </c>
       <c r="F826" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G826" t="s">
+        <v>623</v>
+      </c>
+      <c r="H826" t="s">
         <v>624</v>
-      </c>
-      <c r="H826" t="s">
-        <v>625</v>
       </c>
       <c r="L826" t="s">
         <v>372</v>
@@ -17308,13 +17305,13 @@
         <v>825</v>
       </c>
       <c r="F827" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G827" t="s">
+        <v>623</v>
+      </c>
+      <c r="H827" t="s">
         <v>624</v>
-      </c>
-      <c r="H827" t="s">
-        <v>625</v>
       </c>
       <c r="L827" t="s">
         <v>373</v>
@@ -17325,13 +17322,13 @@
         <v>826</v>
       </c>
       <c r="F828" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G828" t="s">
+        <v>623</v>
+      </c>
+      <c r="H828" t="s">
         <v>624</v>
-      </c>
-      <c r="H828" t="s">
-        <v>625</v>
       </c>
       <c r="L828" t="s">
         <v>420</v>
@@ -17342,13 +17339,13 @@
         <v>827</v>
       </c>
       <c r="F829" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G829" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H829" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L829" t="s">
         <v>419</v>
@@ -17359,13 +17356,13 @@
         <v>828</v>
       </c>
       <c r="F830" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G830" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H830" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L830" t="s">
         <v>399</v>
@@ -17376,13 +17373,13 @@
         <v>829</v>
       </c>
       <c r="F831" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G831" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H831" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L831" t="s">
         <v>292</v>
@@ -17393,13 +17390,13 @@
         <v>830</v>
       </c>
       <c r="F832" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G832" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H832" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L832" t="s">
         <v>363</v>
@@ -17410,13 +17407,13 @@
         <v>831</v>
       </c>
       <c r="F833" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G833" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H833" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L833" t="s">
         <v>402</v>
@@ -17427,13 +17424,13 @@
         <v>832</v>
       </c>
       <c r="F834" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G834" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H834" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L834" t="s">
         <v>393</v>
@@ -17444,13 +17441,13 @@
         <v>833</v>
       </c>
       <c r="F835" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G835" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H835" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L835" t="s">
         <v>394</v>
@@ -17461,13 +17458,13 @@
         <v>834</v>
       </c>
       <c r="F836" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G836" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H836" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L836" t="s">
         <v>395</v>
@@ -17478,13 +17475,13 @@
         <v>835</v>
       </c>
       <c r="F837" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G837" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H837" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L837" t="s">
         <v>396</v>
@@ -17495,13 +17492,13 @@
         <v>836</v>
       </c>
       <c r="F838" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G838" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H838" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L838" t="s">
         <v>289</v>
@@ -17512,13 +17509,13 @@
         <v>837</v>
       </c>
       <c r="F839" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G839" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H839" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L839" t="s">
         <v>290</v>
@@ -17529,13 +17526,13 @@
         <v>838</v>
       </c>
       <c r="F840" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G840" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H840" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L840" t="s">
         <v>385</v>
@@ -17546,13 +17543,13 @@
         <v>839</v>
       </c>
       <c r="F841" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G841" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H841" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L841" t="s">
         <v>386</v>
@@ -17563,13 +17560,13 @@
         <v>840</v>
       </c>
       <c r="F842" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G842" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H842" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L842" t="s">
         <v>387</v>
@@ -17580,13 +17577,13 @@
         <v>841</v>
       </c>
       <c r="F843" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G843" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H843" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L843" t="s">
         <v>371</v>
@@ -17597,13 +17594,13 @@
         <v>842</v>
       </c>
       <c r="F844" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G844" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H844" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L844" t="s">
         <v>398</v>
@@ -17614,13 +17611,13 @@
         <v>843</v>
       </c>
       <c r="F845" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G845" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H845" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L845" t="s">
         <v>350</v>
@@ -17631,13 +17628,13 @@
         <v>844</v>
       </c>
       <c r="F846" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G846" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H846" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L846" t="s">
         <v>402</v>
@@ -17648,13 +17645,13 @@
         <v>845</v>
       </c>
       <c r="F847" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G847" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H847" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L847" t="s">
         <v>393</v>
@@ -17665,13 +17662,13 @@
         <v>846</v>
       </c>
       <c r="F848" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G848" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H848" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L848" t="s">
         <v>394</v>
@@ -17682,13 +17679,13 @@
         <v>847</v>
       </c>
       <c r="F849" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G849" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H849" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L849" t="s">
         <v>395</v>
@@ -17699,13 +17696,13 @@
         <v>848</v>
       </c>
       <c r="F850" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G850" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H850" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L850" t="s">
         <v>396</v>
@@ -17716,13 +17713,13 @@
         <v>849</v>
       </c>
       <c r="F851" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G851" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H851" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L851" t="s">
         <v>348</v>
@@ -17733,13 +17730,13 @@
         <v>850</v>
       </c>
       <c r="F852" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G852" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H852" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L852" t="s">
         <v>382</v>
@@ -17750,13 +17747,13 @@
         <v>851</v>
       </c>
       <c r="F853" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G853" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H853" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L853" t="s">
         <v>383</v>
@@ -17767,13 +17764,13 @@
         <v>852</v>
       </c>
       <c r="F854" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G854" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H854" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L854" t="s">
         <v>384</v>
@@ -17784,13 +17781,13 @@
         <v>853</v>
       </c>
       <c r="F855" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G855" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H855" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L855" t="s">
         <v>371</v>
@@ -17801,13 +17798,13 @@
         <v>854</v>
       </c>
       <c r="F856" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G856" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H856" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L856" t="s">
         <v>365</v>
@@ -17818,13 +17815,13 @@
         <v>855</v>
       </c>
       <c r="F857" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G857" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H857" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L857" t="s">
         <v>358</v>
@@ -17835,13 +17832,13 @@
         <v>856</v>
       </c>
       <c r="F858" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G858" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H858" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L858" t="s">
         <v>277</v>
@@ -17852,13 +17849,13 @@
         <v>857</v>
       </c>
       <c r="F859" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G859" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H859" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L859" t="s">
         <v>379</v>
@@ -17869,13 +17866,13 @@
         <v>858</v>
       </c>
       <c r="F860" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G860" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H860" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L860" t="s">
         <v>380</v>
@@ -17886,13 +17883,13 @@
         <v>859</v>
       </c>
       <c r="F861" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G861" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H861" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L861" t="s">
         <v>381</v>
@@ -17903,13 +17900,13 @@
         <v>860</v>
       </c>
       <c r="F862" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G862" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H862" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L862" t="s">
         <v>285</v>
@@ -17920,13 +17917,13 @@
         <v>861</v>
       </c>
       <c r="F863" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G863" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H863" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L863" t="s">
         <v>283</v>
@@ -17937,13 +17934,13 @@
         <v>862</v>
       </c>
       <c r="F864" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G864" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H864" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L864" t="s">
         <v>392</v>
@@ -17954,13 +17951,13 @@
         <v>863</v>
       </c>
       <c r="F865" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G865" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H865" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L865" t="s">
         <v>349</v>
@@ -17971,13 +17968,13 @@
         <v>864</v>
       </c>
       <c r="F866" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G866" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H866" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L866" t="s">
         <v>371</v>
@@ -17988,13 +17985,13 @@
         <v>865</v>
       </c>
       <c r="F867" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G867" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H867" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L867" t="s">
         <v>349</v>
@@ -18005,13 +18002,13 @@
         <v>866</v>
       </c>
       <c r="F868" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G868" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H868" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L868" t="s">
         <v>397</v>
@@ -18022,13 +18019,13 @@
         <v>867</v>
       </c>
       <c r="F869" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G869" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H869" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L869" t="s">
         <v>371</v>
@@ -18039,13 +18036,13 @@
         <v>868</v>
       </c>
       <c r="F870" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G870" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H870" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L870" t="s">
         <v>361</v>
@@ -18056,16 +18053,16 @@
         <v>869</v>
       </c>
       <c r="F871" t="s">
+        <v>633</v>
+      </c>
+      <c r="G871" t="s">
         <v>634</v>
       </c>
-      <c r="G871" t="s">
+      <c r="H871" t="s">
         <v>635</v>
       </c>
-      <c r="H871" t="s">
+      <c r="I871" t="s">
         <v>636</v>
-      </c>
-      <c r="I871" t="s">
-        <v>637</v>
       </c>
       <c r="L871" t="s">
         <v>491</v>
@@ -18076,16 +18073,16 @@
         <v>870</v>
       </c>
       <c r="F872" t="s">
+        <v>633</v>
+      </c>
+      <c r="G872" t="s">
         <v>634</v>
       </c>
-      <c r="G872" t="s">
+      <c r="H872" t="s">
         <v>635</v>
       </c>
-      <c r="H872" t="s">
+      <c r="I872" t="s">
         <v>636</v>
-      </c>
-      <c r="I872" t="s">
-        <v>637</v>
       </c>
       <c r="L872" t="s">
         <v>492</v>
@@ -18096,16 +18093,16 @@
         <v>871</v>
       </c>
       <c r="F873" t="s">
+        <v>633</v>
+      </c>
+      <c r="G873" t="s">
         <v>634</v>
       </c>
-      <c r="G873" t="s">
-        <v>635</v>
-      </c>
       <c r="H873" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I873" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L873" t="s">
         <v>500</v>
@@ -18116,16 +18113,16 @@
         <v>872</v>
       </c>
       <c r="F874" t="s">
+        <v>633</v>
+      </c>
+      <c r="G874" t="s">
         <v>634</v>
       </c>
-      <c r="G874" t="s">
-        <v>635</v>
-      </c>
       <c r="H874" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I874" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L874" t="s">
         <v>499</v>
@@ -18136,16 +18133,16 @@
         <v>873</v>
       </c>
       <c r="F875" t="s">
+        <v>633</v>
+      </c>
+      <c r="G875" t="s">
         <v>634</v>
       </c>
-      <c r="G875" t="s">
-        <v>635</v>
-      </c>
       <c r="H875" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I875" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L875" t="s">
         <v>495</v>
@@ -18156,16 +18153,16 @@
         <v>874</v>
       </c>
       <c r="F876" t="s">
+        <v>633</v>
+      </c>
+      <c r="G876" t="s">
         <v>634</v>
       </c>
-      <c r="G876" t="s">
-        <v>635</v>
-      </c>
       <c r="H876" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I876" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L876" t="s">
         <v>498</v>
@@ -18176,16 +18173,16 @@
         <v>875</v>
       </c>
       <c r="F877" t="s">
+        <v>633</v>
+      </c>
+      <c r="G877" t="s">
         <v>634</v>
       </c>
-      <c r="G877" t="s">
-        <v>635</v>
-      </c>
       <c r="H877" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I877" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L877" t="s">
         <v>494</v>
@@ -18196,16 +18193,16 @@
         <v>876</v>
       </c>
       <c r="F878" t="s">
+        <v>633</v>
+      </c>
+      <c r="G878" t="s">
         <v>634</v>
       </c>
-      <c r="G878" t="s">
-        <v>635</v>
-      </c>
       <c r="H878" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I878" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L878" t="s">
         <v>495</v>
@@ -18216,16 +18213,16 @@
         <v>877</v>
       </c>
       <c r="F879" t="s">
+        <v>633</v>
+      </c>
+      <c r="G879" t="s">
         <v>634</v>
       </c>
-      <c r="G879" t="s">
-        <v>635</v>
-      </c>
       <c r="H879" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I879" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L879" t="s">
         <v>496</v>
@@ -18236,16 +18233,16 @@
         <v>878</v>
       </c>
       <c r="F880" t="s">
+        <v>633</v>
+      </c>
+      <c r="G880" t="s">
         <v>634</v>
       </c>
-      <c r="G880" t="s">
-        <v>635</v>
-      </c>
       <c r="H880" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I880" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L880" t="s">
         <v>494</v>
@@ -18256,16 +18253,16 @@
         <v>879</v>
       </c>
       <c r="F881" t="s">
+        <v>633</v>
+      </c>
+      <c r="G881" t="s">
         <v>634</v>
       </c>
-      <c r="G881" t="s">
-        <v>635</v>
-      </c>
       <c r="H881" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I881" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L881" t="s">
         <v>495</v>
@@ -18276,16 +18273,16 @@
         <v>880</v>
       </c>
       <c r="F882" t="s">
+        <v>633</v>
+      </c>
+      <c r="G882" t="s">
         <v>634</v>
       </c>
-      <c r="G882" t="s">
-        <v>635</v>
-      </c>
       <c r="H882" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I882" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L882" t="s">
         <v>497</v>
@@ -18296,16 +18293,16 @@
         <v>881</v>
       </c>
       <c r="F883" t="s">
+        <v>633</v>
+      </c>
+      <c r="G883" t="s">
         <v>634</v>
       </c>
-      <c r="G883" t="s">
-        <v>635</v>
-      </c>
       <c r="H883" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I883" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L883" t="s">
         <v>497</v>
@@ -18316,13 +18313,13 @@
         <v>882</v>
       </c>
       <c r="F884" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G884" t="s">
+        <v>638</v>
+      </c>
+      <c r="H884" t="s">
         <v>639</v>
-      </c>
-      <c r="H884" t="s">
-        <v>640</v>
       </c>
       <c r="L884" t="s">
         <v>482</v>
@@ -18333,13 +18330,13 @@
         <v>883</v>
       </c>
       <c r="F885" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G885" t="s">
+        <v>638</v>
+      </c>
+      <c r="H885" t="s">
         <v>639</v>
-      </c>
-      <c r="H885" t="s">
-        <v>640</v>
       </c>
       <c r="L885" t="s">
         <v>483</v>
@@ -18350,13 +18347,13 @@
         <v>884</v>
       </c>
       <c r="F886" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G886" t="s">
+        <v>638</v>
+      </c>
+      <c r="H886" t="s">
         <v>639</v>
-      </c>
-      <c r="H886" t="s">
-        <v>640</v>
       </c>
       <c r="L886" t="s">
         <v>484</v>
@@ -18367,13 +18364,13 @@
         <v>885</v>
       </c>
       <c r="F887" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G887" t="s">
+        <v>638</v>
+      </c>
+      <c r="H887" t="s">
         <v>639</v>
-      </c>
-      <c r="H887" t="s">
-        <v>640</v>
       </c>
       <c r="L887" t="s">
         <v>485</v>
@@ -18384,13 +18381,13 @@
         <v>886</v>
       </c>
       <c r="F888" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G888" t="s">
+        <v>638</v>
+      </c>
+      <c r="H888" t="s">
         <v>639</v>
-      </c>
-      <c r="H888" t="s">
-        <v>640</v>
       </c>
       <c r="L888" t="s">
         <v>486</v>
@@ -18401,13 +18398,13 @@
         <v>887</v>
       </c>
       <c r="F889" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G889" t="s">
+        <v>638</v>
+      </c>
+      <c r="H889" t="s">
         <v>639</v>
-      </c>
-      <c r="H889" t="s">
-        <v>640</v>
       </c>
       <c r="L889" t="s">
         <v>487</v>
@@ -18418,13 +18415,13 @@
         <v>888</v>
       </c>
       <c r="F890" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G890" t="s">
+        <v>638</v>
+      </c>
+      <c r="H890" t="s">
         <v>639</v>
-      </c>
-      <c r="H890" t="s">
-        <v>640</v>
       </c>
       <c r="L890" t="s">
         <v>488</v>
@@ -18435,13 +18432,13 @@
         <v>889</v>
       </c>
       <c r="F891" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G891" t="s">
+        <v>638</v>
+      </c>
+      <c r="H891" t="s">
         <v>639</v>
-      </c>
-      <c r="H891" t="s">
-        <v>640</v>
       </c>
       <c r="L891" t="s">
         <v>489</v>
@@ -18452,10 +18449,10 @@
         <v>890</v>
       </c>
       <c r="F892" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G892" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L892" t="s">
         <v>262</v>
@@ -18466,10 +18463,10 @@
         <v>891</v>
       </c>
       <c r="F893" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G893" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L893" t="s">
         <v>507</v>
@@ -18480,10 +18477,10 @@
         <v>892</v>
       </c>
       <c r="F894" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G894" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L894" t="s">
         <v>450</v>
@@ -18494,10 +18491,10 @@
         <v>893</v>
       </c>
       <c r="F895" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G895" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L895" t="s">
         <v>479</v>
@@ -18508,10 +18505,10 @@
         <v>894</v>
       </c>
       <c r="F896" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G896" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L896" t="s">
         <v>480</v>
@@ -18522,10 +18519,10 @@
         <v>895</v>
       </c>
       <c r="F897" t="s">
+        <v>641</v>
+      </c>
+      <c r="G897" t="s">
         <v>642</v>
-      </c>
-      <c r="G897" t="s">
-        <v>643</v>
       </c>
       <c r="L897" t="s">
         <v>278</v>
@@ -18536,10 +18533,10 @@
         <v>896</v>
       </c>
       <c r="F898" t="s">
+        <v>641</v>
+      </c>
+      <c r="G898" t="s">
         <v>642</v>
-      </c>
-      <c r="G898" t="s">
-        <v>643</v>
       </c>
       <c r="L898" t="s">
         <v>356</v>
@@ -18550,10 +18547,10 @@
         <v>897</v>
       </c>
       <c r="F899" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G899" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L899" t="s">
         <v>78</v>
@@ -18564,10 +18561,10 @@
         <v>898</v>
       </c>
       <c r="F900" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G900" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L900" t="s">
         <v>79</v>
@@ -18578,10 +18575,10 @@
         <v>899</v>
       </c>
       <c r="F901" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G901" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L901" t="s">
         <v>80</v>
@@ -18592,10 +18589,10 @@
         <v>900</v>
       </c>
       <c r="F902" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G902" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L902" t="s">
         <v>81</v>
@@ -18606,10 +18603,10 @@
         <v>901</v>
       </c>
       <c r="F903" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G903" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L903" t="s">
         <v>82</v>
@@ -18620,10 +18617,10 @@
         <v>902</v>
       </c>
       <c r="F904" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G904" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L904" t="s">
         <v>83</v>
@@ -18634,10 +18631,10 @@
         <v>903</v>
       </c>
       <c r="F905" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G905" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L905" t="s">
         <v>84</v>
@@ -18648,10 +18645,10 @@
         <v>904</v>
       </c>
       <c r="F906" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G906" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L906" t="s">
         <v>85</v>
@@ -18662,10 +18659,10 @@
         <v>905</v>
       </c>
       <c r="F907" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G907" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L907" t="s">
         <v>86</v>
@@ -18676,10 +18673,10 @@
         <v>906</v>
       </c>
       <c r="F908" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G908" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L908" t="s">
         <v>87</v>
@@ -18690,10 +18687,10 @@
         <v>907</v>
       </c>
       <c r="F909" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G909" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L909" t="s">
         <v>88</v>
@@ -18704,10 +18701,10 @@
         <v>908</v>
       </c>
       <c r="F910" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G910" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L910" t="s">
         <v>89</v>
@@ -18718,10 +18715,10 @@
         <v>909</v>
       </c>
       <c r="F911" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G911" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L911" t="s">
         <v>90</v>
@@ -18732,10 +18729,10 @@
         <v>910</v>
       </c>
       <c r="F912" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G912" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L912" t="s">
         <v>91</v>
@@ -18746,10 +18743,10 @@
         <v>911</v>
       </c>
       <c r="F913" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G913" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L913" t="s">
         <v>92</v>
@@ -18760,10 +18757,10 @@
         <v>912</v>
       </c>
       <c r="F914" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G914" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L914" t="s">
         <v>93</v>
@@ -18774,10 +18771,10 @@
         <v>913</v>
       </c>
       <c r="F915" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G915" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L915" t="s">
         <v>94</v>
@@ -18788,10 +18785,10 @@
         <v>914</v>
       </c>
       <c r="F916" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G916" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L916" t="s">
         <v>95</v>
@@ -18802,10 +18799,10 @@
         <v>915</v>
       </c>
       <c r="F917" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G917" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L917" t="s">
         <v>96</v>
@@ -18816,10 +18813,10 @@
         <v>916</v>
       </c>
       <c r="F918" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G918" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L918" t="s">
         <v>97</v>
@@ -18830,10 +18827,10 @@
         <v>917</v>
       </c>
       <c r="F919" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G919" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L919" t="s">
         <v>98</v>
@@ -18844,10 +18841,10 @@
         <v>918</v>
       </c>
       <c r="F920" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G920" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L920" t="s">
         <v>515</v>
@@ -18858,10 +18855,10 @@
         <v>919</v>
       </c>
       <c r="F921" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G921" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L921" t="s">
         <v>377</v>
@@ -18872,13 +18869,13 @@
         <v>920</v>
       </c>
       <c r="F922" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G922" t="s">
+        <v>645</v>
+      </c>
+      <c r="L922" t="s">
         <v>646</v>
-      </c>
-      <c r="L922" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="923" spans="1:12">
@@ -18886,13 +18883,13 @@
         <v>921</v>
       </c>
       <c r="F923" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G923" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L923" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="924" spans="1:12">
@@ -18900,13 +18897,13 @@
         <v>922</v>
       </c>
       <c r="F924" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G924" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L924" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="925" spans="1:12">
@@ -18914,13 +18911,13 @@
         <v>923</v>
       </c>
       <c r="F925" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G925" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L925" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="926" spans="1:12">
@@ -18928,13 +18925,13 @@
         <v>924</v>
       </c>
       <c r="F926" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G926" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L926" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="927" spans="1:12">
@@ -18942,13 +18939,13 @@
         <v>925</v>
       </c>
       <c r="F927" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G927" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L927" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="928" spans="1:12">
@@ -18956,13 +18953,13 @@
         <v>926</v>
       </c>
       <c r="F928" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G928" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L928" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="929" spans="1:12">
@@ -18970,13 +18967,13 @@
         <v>927</v>
       </c>
       <c r="F929" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G929" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L929" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="930" spans="1:12">
@@ -18984,13 +18981,13 @@
         <v>928</v>
       </c>
       <c r="F930" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G930" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L930" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="931" spans="1:12">
@@ -18998,13 +18995,13 @@
         <v>929</v>
       </c>
       <c r="F931" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G931" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L931" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="932" spans="1:12">
@@ -19012,13 +19009,13 @@
         <v>930</v>
       </c>
       <c r="F932" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G932" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L932" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/dataloader/data/GlycoEnzOntoDB.xlsx
+++ b/dataloader/data/GlycoEnzOntoDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neel\Documents\GitHub\webGlycoEnzDB\dataloader\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8506F15-4C57-4A25-8B31-55CBFEC5E431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08281A33-9DA5-4027-8528-9A8D54B5E472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2391,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L973"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="J371" sqref="J371"/>
+    <sheetView tabSelected="1" topLeftCell="A955" workbookViewId="0">
+      <selection activeCell="J967" sqref="J967"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2468,6 +2468,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
+        <f>1+A2</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2486,6 +2487,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
+        <f t="shared" ref="A4:A67" si="0">1+A3</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2504,6 +2506,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2522,6 +2525,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2540,6 +2544,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2558,6 +2563,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2575,6 +2581,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2592,6 +2599,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -2609,6 +2617,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2630,6 +2639,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -2651,6 +2661,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2673,6 +2684,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -2694,6 +2706,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -2713,6 +2726,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -2732,6 +2746,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -2749,6 +2764,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -2766,6 +2782,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -2783,6 +2800,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -2800,6 +2818,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -2817,6 +2836,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -2834,6 +2854,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -2851,6 +2872,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -2868,6 +2890,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -2885,6 +2908,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2902,6 +2926,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2919,6 +2944,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -2936,6 +2962,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -2953,6 +2980,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -2970,6 +2998,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -2987,6 +3016,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -3004,6 +3034,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -3021,6 +3052,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -3038,6 +3070,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -3055,6 +3088,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -3072,6 +3106,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -3089,6 +3124,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -3106,6 +3142,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -3123,6 +3160,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -3140,6 +3178,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -3157,6 +3196,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -3174,6 +3214,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -3191,6 +3232,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -3208,6 +3250,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -3225,6 +3268,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -3242,6 +3286,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -3259,6 +3304,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -3276,6 +3322,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -3293,6 +3340,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -3310,6 +3358,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -3327,6 +3376,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -3344,6 +3394,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -3361,6 +3412,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -3378,6 +3430,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -3395,6 +3448,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" t="s">
@@ -3412,6 +3466,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" t="s">
@@ -3429,6 +3484,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" t="s">
@@ -3446,6 +3502,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" t="s">
@@ -3463,6 +3520,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" t="s">
@@ -3480,6 +3538,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" t="s">
@@ -3497,6 +3556,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" t="s">
@@ -3514,6 +3574,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" t="s">
@@ -3531,6 +3592,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" t="s">
@@ -3548,6 +3610,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" t="s">
@@ -3565,6 +3628,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66" t="s">
@@ -3582,6 +3646,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67">
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B67" t="s">
@@ -3599,6 +3664,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68">
+        <f t="shared" ref="A68:A131" si="1">1+A67</f>
         <v>67</v>
       </c>
       <c r="B68" t="s">
@@ -3616,6 +3682,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B69" t="s">
@@ -3633,6 +3700,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70">
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B70" t="s">
@@ -3650,6 +3718,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B71" t="s">
@@ -3667,6 +3736,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72">
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72" t="s">
@@ -3684,6 +3754,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73">
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B73" t="s">
@@ -3701,6 +3772,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74">
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B74" t="s">
@@ -3718,6 +3790,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" t="s">
@@ -3735,6 +3808,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" t="s">
@@ -3752,6 +3826,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77">
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77" t="s">
@@ -3769,6 +3844,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78">
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B78" t="s">
@@ -3786,6 +3862,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" t="s">
@@ -3803,6 +3880,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80">
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -3820,6 +3898,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" t="s">
@@ -3837,6 +3916,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82">
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" t="s">
@@ -3854,6 +3934,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83">
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83" t="s">
@@ -3871,6 +3952,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84">
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B84" t="s">
@@ -3888,6 +3970,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85">
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" t="s">
@@ -3905,6 +3988,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" t="s">
@@ -3922,6 +4006,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87" t="s">
@@ -3939,6 +4024,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88">
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B88" t="s">
@@ -3956,6 +4042,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B89" t="s">
@@ -3973,6 +4060,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90" t="s">
@@ -3990,6 +4078,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91" t="s">
@@ -4007,6 +4096,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B92" t="s">
@@ -4024,6 +4114,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93">
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B93" t="s">
@@ -4041,6 +4132,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94" t="s">
@@ -4058,6 +4150,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95">
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" t="s">
@@ -4075,6 +4168,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" t="s">
@@ -4092,6 +4186,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97" t="s">
@@ -4109,6 +4204,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" t="s">
@@ -4126,6 +4222,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" t="s">
@@ -4143,6 +4240,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" t="s">
@@ -4160,6 +4258,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" t="s">
@@ -4177,6 +4276,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102">
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102" t="s">
@@ -4194,6 +4294,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103">
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B103" t="s">
@@ -4211,6 +4312,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104" t="s">
@@ -4228,6 +4330,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B105" t="s">
@@ -4245,6 +4348,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B106" t="s">
@@ -4262,6 +4366,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107">
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B107" t="s">
@@ -4279,6 +4384,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108">
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B108" t="s">
@@ -4296,6 +4402,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109">
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B109" t="s">
@@ -4313,6 +4420,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110">
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B110" t="s">
@@ -4330,6 +4438,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B111" t="s">
@@ -4347,6 +4456,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112">
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B112" t="s">
@@ -4364,6 +4474,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113">
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B113" t="s">
@@ -4381,6 +4492,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114">
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B114" t="s">
@@ -4398,6 +4510,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115">
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B115" t="s">
@@ -4415,6 +4528,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116">
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B116" t="s">
@@ -4432,6 +4546,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117">
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B117" t="s">
@@ -4449,6 +4564,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118">
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B118" t="s">
@@ -4466,6 +4582,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119">
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B119" t="s">
@@ -4483,6 +4600,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120">
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B120" t="s">
@@ -4500,6 +4618,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B121" t="s">
@@ -4517,6 +4636,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122">
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="B122" t="s">
@@ -4534,6 +4654,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123">
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="B123" t="s">
@@ -4551,6 +4672,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124">
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="B124" t="s">
@@ -4568,6 +4690,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125">
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="B125" t="s">
@@ -4585,6 +4708,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126">
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="B126" t="s">
@@ -4602,6 +4726,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127">
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="B127" t="s">
@@ -4619,6 +4744,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128">
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="B128" t="s">
@@ -4636,6 +4762,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129">
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="B129" t="s">
@@ -4653,6 +4780,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130">
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="B130" t="s">
@@ -4670,6 +4798,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131">
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="B131" t="s">
@@ -4687,6 +4816,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132">
+        <f t="shared" ref="A132:A195" si="2">1+A131</f>
         <v>131</v>
       </c>
       <c r="B132" t="s">
@@ -4704,6 +4834,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133">
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B133" t="s">
@@ -4721,6 +4852,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134">
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B134" t="s">
@@ -4738,6 +4870,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135">
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B135" t="s">
@@ -4755,6 +4888,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136">
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B136" t="s">
@@ -4772,6 +4906,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137">
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="B137" t="s">
@@ -4789,6 +4924,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138">
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="B138" t="s">
@@ -4806,6 +4942,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139">
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B139" t="s">
@@ -4823,6 +4960,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140">
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B140" t="s">
@@ -4840,6 +4978,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141">
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B141" t="s">
@@ -4857,6 +4996,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142">
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B142" t="s">
@@ -4874,6 +5014,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143">
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="B143" t="s">
@@ -4891,6 +5032,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144">
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="B144" t="s">
@@ -4908,6 +5050,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145">
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="B145" t="s">
@@ -4925,6 +5068,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146">
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B146" t="s">
@@ -4942,6 +5086,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147">
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="B147" t="s">
@@ -4959,6 +5104,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148">
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="B148" t="s">
@@ -4976,6 +5122,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149">
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="B149" t="s">
@@ -4993,6 +5140,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150">
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="B150" t="s">
@@ -5010,6 +5158,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="B151" t="s">
@@ -5027,6 +5176,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152">
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="B152" t="s">
@@ -5044,6 +5194,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153">
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="B153" t="s">
@@ -5061,6 +5212,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154">
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="B154" t="s">
@@ -5078,6 +5230,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155">
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="B155" t="s">
@@ -5095,6 +5248,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156">
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="B156" t="s">
@@ -5112,6 +5266,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157">
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="B157" t="s">
@@ -5129,6 +5284,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158">
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="B158" t="s">
@@ -5146,6 +5302,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159">
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="B159" t="s">
@@ -5163,6 +5320,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160">
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="B160" t="s">
@@ -5180,6 +5338,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161">
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="B161" t="s">
@@ -5197,6 +5356,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162">
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="B162" t="s">
@@ -5214,6 +5374,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163">
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="B163" t="s">
@@ -5231,6 +5392,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164">
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="B164" t="s">
@@ -5248,6 +5410,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165">
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="B165" t="s">
@@ -5265,6 +5428,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166">
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="B166" t="s">
@@ -5282,6 +5446,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167">
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="B167" t="s">
@@ -5299,6 +5464,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168">
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="B168" t="s">
@@ -5316,6 +5482,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169">
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="B169" t="s">
@@ -5333,6 +5500,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170">
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="B170" t="s">
@@ -5350,6 +5518,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171">
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="B171" t="s">
@@ -5367,6 +5536,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172">
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="B172" t="s">
@@ -5384,6 +5554,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173">
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="B173" t="s">
@@ -5401,6 +5572,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174">
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="B174" t="s">
@@ -5418,6 +5590,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175">
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="B175" t="s">
@@ -5435,6 +5608,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176">
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="B176" t="s">
@@ -5452,6 +5626,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177">
+        <f t="shared" si="2"/>
         <v>176</v>
       </c>
       <c r="B177" t="s">
@@ -5469,6 +5644,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178">
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="B178" t="s">
@@ -5486,6 +5662,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179">
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="B179" t="s">
@@ -5503,6 +5680,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180">
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="B180" t="s">
@@ -5520,6 +5698,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="B181" t="s">
@@ -5537,6 +5716,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182">
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="B182" t="s">
@@ -5554,6 +5734,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183">
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="B183" t="s">
@@ -5571,6 +5752,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184">
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="B184" t="s">
@@ -5588,6 +5770,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185">
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="B185" t="s">
@@ -5605,6 +5788,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186">
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
       <c r="B186" t="s">
@@ -5622,6 +5806,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187">
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
       <c r="B187" t="s">
@@ -5639,6 +5824,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188">
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
       <c r="B188" t="s">
@@ -5656,6 +5842,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189">
+        <f t="shared" si="2"/>
         <v>188</v>
       </c>
       <c r="B189" t="s">
@@ -5673,6 +5860,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190">
+        <f t="shared" si="2"/>
         <v>189</v>
       </c>
       <c r="B190" t="s">
@@ -5690,6 +5878,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191">
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="B191" t="s">
@@ -5707,6 +5896,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192">
+        <f t="shared" si="2"/>
         <v>191</v>
       </c>
       <c r="B192" t="s">
@@ -5724,6 +5914,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193">
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="B193" t="s">
@@ -5741,6 +5932,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194">
+        <f t="shared" si="2"/>
         <v>193</v>
       </c>
       <c r="B194" t="s">
@@ -5758,6 +5950,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195">
+        <f t="shared" si="2"/>
         <v>194</v>
       </c>
       <c r="B195" t="s">
@@ -5775,6 +5968,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196">
+        <f t="shared" ref="A196:A259" si="3">1+A195</f>
         <v>195</v>
       </c>
       <c r="B196" t="s">
@@ -5792,6 +5986,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197">
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="B197" t="s">
@@ -5809,6 +6004,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198">
+        <f t="shared" si="3"/>
         <v>197</v>
       </c>
       <c r="B198" t="s">
@@ -5826,6 +6022,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199">
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
       <c r="B199" t="s">
@@ -5843,6 +6040,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200">
+        <f t="shared" si="3"/>
         <v>199</v>
       </c>
       <c r="B200" t="s">
@@ -5860,6 +6058,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="B201" t="s">
@@ -5877,6 +6076,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202">
+        <f t="shared" si="3"/>
         <v>201</v>
       </c>
       <c r="B202" t="s">
@@ -5894,6 +6094,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203">
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="B203" t="s">
@@ -5911,6 +6112,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204">
+        <f t="shared" si="3"/>
         <v>203</v>
       </c>
       <c r="B204" t="s">
@@ -5928,6 +6130,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205">
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
       <c r="B205" t="s">
@@ -5945,6 +6148,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206">
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="B206" t="s">
@@ -5962,6 +6166,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207">
+        <f t="shared" si="3"/>
         <v>206</v>
       </c>
       <c r="B207" t="s">
@@ -5979,6 +6184,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208">
+        <f t="shared" si="3"/>
         <v>207</v>
       </c>
       <c r="B208" t="s">
@@ -5996,6 +6202,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209">
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
       <c r="B209" t="s">
@@ -6013,6 +6220,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210">
+        <f t="shared" si="3"/>
         <v>209</v>
       </c>
       <c r="B210" t="s">
@@ -6030,6 +6238,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211">
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="B211" t="s">
@@ -6047,6 +6256,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212">
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="B212" t="s">
@@ -6064,6 +6274,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213">
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="B213" t="s">
@@ -6081,6 +6292,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214">
+        <f t="shared" si="3"/>
         <v>213</v>
       </c>
       <c r="B214" t="s">
@@ -6098,6 +6310,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215">
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
       <c r="B215" t="s">
@@ -6115,6 +6328,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216">
+        <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="B216" t="s">
@@ -6132,6 +6346,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217">
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
       <c r="B217" t="s">
@@ -6149,6 +6364,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218">
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="B218" t="s">
@@ -6166,6 +6382,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219">
+        <f t="shared" si="3"/>
         <v>218</v>
       </c>
       <c r="B219" t="s">
@@ -6183,6 +6400,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220">
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="B220" t="s">
@@ -6200,6 +6418,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221">
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="B221" t="s">
@@ -6217,6 +6436,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222">
+        <f t="shared" si="3"/>
         <v>221</v>
       </c>
       <c r="B222" t="s">
@@ -6234,6 +6454,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223">
+        <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="B223" t="s">
@@ -6251,6 +6472,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224">
+        <f t="shared" si="3"/>
         <v>223</v>
       </c>
       <c r="B224" t="s">
@@ -6268,6 +6490,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225">
+        <f t="shared" si="3"/>
         <v>224</v>
       </c>
       <c r="B225" t="s">
@@ -6285,6 +6508,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226">
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="B226" t="s">
@@ -6302,6 +6526,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227">
+        <f t="shared" si="3"/>
         <v>226</v>
       </c>
       <c r="B227" t="s">
@@ -6319,6 +6544,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228">
+        <f t="shared" si="3"/>
         <v>227</v>
       </c>
       <c r="B228" t="s">
@@ -6336,6 +6562,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229">
+        <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="B229" t="s">
@@ -6353,6 +6580,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230">
+        <f t="shared" si="3"/>
         <v>229</v>
       </c>
       <c r="B230" t="s">
@@ -6370,6 +6598,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231">
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="B231" t="s">
@@ -6387,6 +6616,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232">
+        <f t="shared" si="3"/>
         <v>231</v>
       </c>
       <c r="B232" t="s">
@@ -6404,6 +6634,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233">
+        <f t="shared" si="3"/>
         <v>232</v>
       </c>
       <c r="B233" t="s">
@@ -6421,6 +6652,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234">
+        <f t="shared" si="3"/>
         <v>233</v>
       </c>
       <c r="B234" t="s">
@@ -6438,6 +6670,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235">
+        <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="B235" t="s">
@@ -6455,6 +6688,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236">
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
       <c r="B236" t="s">
@@ -6472,6 +6706,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237">
+        <f t="shared" si="3"/>
         <v>236</v>
       </c>
       <c r="B237" t="s">
@@ -6489,6 +6724,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238">
+        <f t="shared" si="3"/>
         <v>237</v>
       </c>
       <c r="B238" t="s">
@@ -6506,6 +6742,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239">
+        <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="B239" t="s">
@@ -6523,6 +6760,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240">
+        <f t="shared" si="3"/>
         <v>239</v>
       </c>
       <c r="B240" t="s">
@@ -6540,6 +6778,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241">
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="B241" t="s">
@@ -6557,6 +6796,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242">
+        <f t="shared" si="3"/>
         <v>241</v>
       </c>
       <c r="B242" t="s">
@@ -6574,6 +6814,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243">
+        <f t="shared" si="3"/>
         <v>242</v>
       </c>
       <c r="B243" t="s">
@@ -6591,6 +6832,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244">
+        <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="B244" t="s">
@@ -6608,6 +6850,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245">
+        <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="B245" t="s">
@@ -6622,6 +6865,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246">
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="B246" t="s">
@@ -6636,6 +6880,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247">
+        <f t="shared" si="3"/>
         <v>246</v>
       </c>
       <c r="B247" t="s">
@@ -6650,6 +6895,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248">
+        <f t="shared" si="3"/>
         <v>247</v>
       </c>
       <c r="B248" t="s">
@@ -6664,6 +6910,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249">
+        <f t="shared" si="3"/>
         <v>248</v>
       </c>
       <c r="B249" t="s">
@@ -6678,6 +6925,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250">
+        <f t="shared" si="3"/>
         <v>249</v>
       </c>
       <c r="B250" t="s">
@@ -6692,6 +6940,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251">
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="B251" t="s">
@@ -6706,6 +6955,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252">
+        <f t="shared" si="3"/>
         <v>251</v>
       </c>
       <c r="B252" t="s">
@@ -6720,6 +6970,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253">
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="B253" t="s">
@@ -6734,6 +6985,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254">
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
       <c r="B254" t="s">
@@ -6748,6 +7000,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255">
+        <f t="shared" si="3"/>
         <v>254</v>
       </c>
       <c r="B255" t="s">
@@ -6762,6 +7015,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256">
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="B256" t="s">
@@ -6776,6 +7030,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257">
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="B257" t="s">
@@ -6790,6 +7045,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258">
+        <f t="shared" si="3"/>
         <v>257</v>
       </c>
       <c r="B258" t="s">
@@ -6804,6 +7060,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259">
+        <f t="shared" si="3"/>
         <v>258</v>
       </c>
       <c r="B259" t="s">
@@ -6818,6 +7075,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260">
+        <f t="shared" ref="A260:A323" si="4">1+A259</f>
         <v>259</v>
       </c>
       <c r="B260" t="s">
@@ -6835,6 +7093,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261">
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="B261" t="s">
@@ -6852,6 +7111,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262">
+        <f t="shared" si="4"/>
         <v>261</v>
       </c>
       <c r="B262" t="s">
@@ -6869,6 +7129,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263">
+        <f t="shared" si="4"/>
         <v>262</v>
       </c>
       <c r="B263" t="s">
@@ -6886,6 +7147,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264">
+        <f t="shared" si="4"/>
         <v>263</v>
       </c>
       <c r="B264" t="s">
@@ -6903,6 +7165,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265">
+        <f t="shared" si="4"/>
         <v>264</v>
       </c>
       <c r="B265" t="s">
@@ -6920,6 +7183,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266">
+        <f t="shared" si="4"/>
         <v>265</v>
       </c>
       <c r="B266" t="s">
@@ -6937,6 +7201,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267">
+        <f t="shared" si="4"/>
         <v>266</v>
       </c>
       <c r="B267" t="s">
@@ -6954,6 +7219,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268">
+        <f t="shared" si="4"/>
         <v>267</v>
       </c>
       <c r="B268" t="s">
@@ -6971,6 +7237,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269">
+        <f t="shared" si="4"/>
         <v>268</v>
       </c>
       <c r="B269" t="s">
@@ -6988,6 +7255,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270">
+        <f t="shared" si="4"/>
         <v>269</v>
       </c>
       <c r="B270" t="s">
@@ -7005,6 +7273,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271">
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="B271" t="s">
@@ -7022,6 +7291,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272">
+        <f t="shared" si="4"/>
         <v>271</v>
       </c>
       <c r="B272" t="s">
@@ -7039,6 +7309,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273">
+        <f t="shared" si="4"/>
         <v>272</v>
       </c>
       <c r="B273" t="s">
@@ -7056,6 +7327,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274">
+        <f t="shared" si="4"/>
         <v>273</v>
       </c>
       <c r="B274" t="s">
@@ -7073,6 +7345,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275">
+        <f t="shared" si="4"/>
         <v>274</v>
       </c>
       <c r="B275" t="s">
@@ -7090,6 +7363,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276">
+        <f t="shared" si="4"/>
         <v>275</v>
       </c>
       <c r="B276" t="s">
@@ -7107,6 +7381,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277">
+        <f t="shared" si="4"/>
         <v>276</v>
       </c>
       <c r="B277" t="s">
@@ -7124,6 +7399,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278">
+        <f t="shared" si="4"/>
         <v>277</v>
       </c>
       <c r="B278" t="s">
@@ -7141,6 +7417,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279">
+        <f t="shared" si="4"/>
         <v>278</v>
       </c>
       <c r="B279" t="s">
@@ -7158,6 +7435,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280">
+        <f t="shared" si="4"/>
         <v>279</v>
       </c>
       <c r="B280" t="s">
@@ -7175,6 +7453,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281">
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
       <c r="B281" t="s">
@@ -7192,6 +7471,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282">
+        <f t="shared" si="4"/>
         <v>281</v>
       </c>
       <c r="B282" t="s">
@@ -7209,6 +7489,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283">
+        <f t="shared" si="4"/>
         <v>282</v>
       </c>
       <c r="B283" t="s">
@@ -7226,6 +7507,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284">
+        <f t="shared" si="4"/>
         <v>283</v>
       </c>
       <c r="B284" t="s">
@@ -7243,6 +7525,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285">
+        <f t="shared" si="4"/>
         <v>284</v>
       </c>
       <c r="B285" t="s">
@@ -7260,6 +7543,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286">
+        <f t="shared" si="4"/>
         <v>285</v>
       </c>
       <c r="B286" t="s">
@@ -7277,6 +7561,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287">
+        <f t="shared" si="4"/>
         <v>286</v>
       </c>
       <c r="B287" t="s">
@@ -7294,6 +7579,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288">
+        <f t="shared" si="4"/>
         <v>287</v>
       </c>
       <c r="B288" t="s">
@@ -7311,6 +7597,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289">
+        <f t="shared" si="4"/>
         <v>288</v>
       </c>
       <c r="B289" t="s">
@@ -7328,6 +7615,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290">
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="B290" t="s">
@@ -7345,6 +7633,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291">
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="B291" t="s">
@@ -7362,6 +7651,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292">
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="B292" t="s">
@@ -7379,6 +7669,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293">
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="B293" t="s">
@@ -7396,6 +7687,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294">
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
       <c r="B294" t="s">
@@ -7413,6 +7705,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295">
+        <f t="shared" si="4"/>
         <v>294</v>
       </c>
       <c r="B295" t="s">
@@ -7430,6 +7723,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296">
+        <f t="shared" si="4"/>
         <v>295</v>
       </c>
       <c r="B296" t="s">
@@ -7447,6 +7741,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297">
+        <f t="shared" si="4"/>
         <v>296</v>
       </c>
       <c r="B297" t="s">
@@ -7461,6 +7756,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298">
+        <f t="shared" si="4"/>
         <v>297</v>
       </c>
       <c r="B298" t="s">
@@ -7475,6 +7771,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A299">
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
       <c r="B299" t="s">
@@ -7489,6 +7786,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A300">
+        <f t="shared" si="4"/>
         <v>299</v>
       </c>
       <c r="B300" t="s">
@@ -7503,6 +7801,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A301">
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="B301" t="s">
@@ -7516,6 +7815,10 @@
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <f t="shared" si="4"/>
+        <v>301</v>
+      </c>
       <c r="B302" t="s">
         <v>275</v>
       </c>
@@ -7528,7 +7831,8 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A303">
-        <v>301</v>
+        <f t="shared" si="4"/>
+        <v>302</v>
       </c>
       <c r="B303" t="s">
         <v>354</v>
@@ -7542,7 +7846,8 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A304">
-        <v>302</v>
+        <f t="shared" si="4"/>
+        <v>303</v>
       </c>
       <c r="B304" t="s">
         <v>354</v>
@@ -7556,7 +7861,8 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A305">
-        <v>303</v>
+        <f t="shared" si="4"/>
+        <v>304</v>
       </c>
       <c r="B305" t="s">
         <v>354</v>
@@ -7570,7 +7876,8 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A306">
-        <v>304</v>
+        <f t="shared" si="4"/>
+        <v>305</v>
       </c>
       <c r="B306" t="s">
         <v>354</v>
@@ -7584,7 +7891,8 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A307">
-        <v>305</v>
+        <f t="shared" si="4"/>
+        <v>306</v>
       </c>
       <c r="B307" t="s">
         <v>354</v>
@@ -7598,7 +7906,8 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A308">
-        <v>306</v>
+        <f t="shared" si="4"/>
+        <v>307</v>
       </c>
       <c r="B308" t="s">
         <v>354</v>
@@ -7612,7 +7921,8 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309">
-        <v>307</v>
+        <f t="shared" si="4"/>
+        <v>308</v>
       </c>
       <c r="B309" t="s">
         <v>354</v>
@@ -7626,7 +7936,8 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310">
-        <v>308</v>
+        <f t="shared" si="4"/>
+        <v>309</v>
       </c>
       <c r="B310" t="s">
         <v>354</v>
@@ -7640,7 +7951,8 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A311">
-        <v>309</v>
+        <f t="shared" si="4"/>
+        <v>310</v>
       </c>
       <c r="B311" t="s">
         <v>354</v>
@@ -7654,7 +7966,8 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A312">
-        <v>310</v>
+        <f t="shared" si="4"/>
+        <v>311</v>
       </c>
       <c r="B312" t="s">
         <v>354</v>
@@ -7668,7 +7981,8 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A313">
-        <v>311</v>
+        <f t="shared" si="4"/>
+        <v>312</v>
       </c>
       <c r="B313" t="s">
         <v>354</v>
@@ -7682,7 +7996,8 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A314">
-        <v>312</v>
+        <f t="shared" si="4"/>
+        <v>313</v>
       </c>
       <c r="B314" t="s">
         <v>354</v>
@@ -7696,7 +8011,8 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A315">
-        <v>313</v>
+        <f t="shared" si="4"/>
+        <v>314</v>
       </c>
       <c r="B315" t="s">
         <v>354</v>
@@ -7710,7 +8026,8 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A316">
-        <v>314</v>
+        <f t="shared" si="4"/>
+        <v>315</v>
       </c>
       <c r="B316" t="s">
         <v>354</v>
@@ -7724,7 +8041,8 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A317">
-        <v>315</v>
+        <f t="shared" si="4"/>
+        <v>316</v>
       </c>
       <c r="B317" t="s">
         <v>354</v>
@@ -7738,7 +8056,8 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A318">
-        <v>316</v>
+        <f t="shared" si="4"/>
+        <v>317</v>
       </c>
       <c r="B318" t="s">
         <v>354</v>
@@ -7752,7 +8071,8 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A319">
-        <v>317</v>
+        <f t="shared" si="4"/>
+        <v>318</v>
       </c>
       <c r="B319" t="s">
         <v>354</v>
@@ -7766,7 +8086,8 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A320">
-        <v>318</v>
+        <f t="shared" si="4"/>
+        <v>319</v>
       </c>
       <c r="B320" t="s">
         <v>354</v>
@@ -7780,7 +8101,8 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A321">
-        <v>319</v>
+        <f t="shared" si="4"/>
+        <v>320</v>
       </c>
       <c r="B321" t="s">
         <v>354</v>
@@ -7794,7 +8116,8 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A322">
-        <v>320</v>
+        <f t="shared" si="4"/>
+        <v>321</v>
       </c>
       <c r="B322" t="s">
         <v>354</v>
@@ -7808,7 +8131,8 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A323">
-        <v>321</v>
+        <f t="shared" si="4"/>
+        <v>322</v>
       </c>
       <c r="B323" t="s">
         <v>354</v>
@@ -7822,7 +8146,8 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A324">
-        <v>322</v>
+        <f t="shared" ref="A324:A387" si="5">1+A323</f>
+        <v>323</v>
       </c>
       <c r="B324" t="s">
         <v>354</v>
@@ -7836,7 +8161,8 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A325">
-        <v>323</v>
+        <f t="shared" si="5"/>
+        <v>324</v>
       </c>
       <c r="B325" t="s">
         <v>354</v>
@@ -7850,7 +8176,8 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326">
-        <v>324</v>
+        <f t="shared" si="5"/>
+        <v>325</v>
       </c>
       <c r="B326" t="s">
         <v>354</v>
@@ -7864,7 +8191,8 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327">
-        <v>325</v>
+        <f t="shared" si="5"/>
+        <v>326</v>
       </c>
       <c r="B327" t="s">
         <v>354</v>
@@ -7878,7 +8206,8 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328">
-        <v>326</v>
+        <f t="shared" si="5"/>
+        <v>327</v>
       </c>
       <c r="B328" t="s">
         <v>354</v>
@@ -7892,7 +8221,8 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329">
-        <v>327</v>
+        <f t="shared" si="5"/>
+        <v>328</v>
       </c>
       <c r="B329" t="s">
         <v>354</v>
@@ -7906,7 +8236,8 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A330">
-        <v>328</v>
+        <f t="shared" si="5"/>
+        <v>329</v>
       </c>
       <c r="B330" t="s">
         <v>354</v>
@@ -7920,7 +8251,8 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331">
-        <v>329</v>
+        <f t="shared" si="5"/>
+        <v>330</v>
       </c>
       <c r="B331" t="s">
         <v>354</v>
@@ -7934,7 +8266,8 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A332">
-        <v>330</v>
+        <f t="shared" si="5"/>
+        <v>331</v>
       </c>
       <c r="B332" t="s">
         <v>354</v>
@@ -7948,7 +8281,8 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333">
-        <v>331</v>
+        <f t="shared" si="5"/>
+        <v>332</v>
       </c>
       <c r="B333" t="s">
         <v>354</v>
@@ -7962,7 +8296,8 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334">
-        <v>332</v>
+        <f t="shared" si="5"/>
+        <v>333</v>
       </c>
       <c r="B334" t="s">
         <v>354</v>
@@ -7976,7 +8311,8 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A335">
-        <v>333</v>
+        <f t="shared" si="5"/>
+        <v>334</v>
       </c>
       <c r="B335" t="s">
         <v>354</v>
@@ -7990,7 +8326,8 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336">
-        <v>334</v>
+        <f t="shared" si="5"/>
+        <v>335</v>
       </c>
       <c r="B336" t="s">
         <v>354</v>
@@ -8004,7 +8341,8 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A337">
-        <v>335</v>
+        <f t="shared" si="5"/>
+        <v>336</v>
       </c>
       <c r="B337" t="s">
         <v>354</v>
@@ -8018,7 +8356,8 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A338">
-        <v>336</v>
+        <f t="shared" si="5"/>
+        <v>337</v>
       </c>
       <c r="B338" t="s">
         <v>354</v>
@@ -8032,7 +8371,8 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A339">
-        <v>337</v>
+        <f t="shared" si="5"/>
+        <v>338</v>
       </c>
       <c r="B339" t="s">
         <v>354</v>
@@ -8046,7 +8386,8 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A340">
-        <v>338</v>
+        <f t="shared" si="5"/>
+        <v>339</v>
       </c>
       <c r="B340" t="s">
         <v>354</v>
@@ -8060,7 +8401,8 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A341">
-        <v>339</v>
+        <f t="shared" si="5"/>
+        <v>340</v>
       </c>
       <c r="B341" t="s">
         <v>354</v>
@@ -8074,7 +8416,8 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A342">
-        <v>340</v>
+        <f t="shared" si="5"/>
+        <v>341</v>
       </c>
       <c r="B342" t="s">
         <v>354</v>
@@ -8088,7 +8431,8 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A343">
-        <v>341</v>
+        <f t="shared" si="5"/>
+        <v>342</v>
       </c>
       <c r="B343" t="s">
         <v>354</v>
@@ -8102,7 +8446,8 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A344">
-        <v>342</v>
+        <f t="shared" si="5"/>
+        <v>343</v>
       </c>
       <c r="B344" t="s">
         <v>354</v>
@@ -8116,7 +8461,8 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A345">
-        <v>343</v>
+        <f t="shared" si="5"/>
+        <v>344</v>
       </c>
       <c r="B345" t="s">
         <v>354</v>
@@ -8130,7 +8476,8 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A346">
-        <v>344</v>
+        <f t="shared" si="5"/>
+        <v>345</v>
       </c>
       <c r="B346" t="s">
         <v>354</v>
@@ -8144,7 +8491,8 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A347">
-        <v>345</v>
+        <f t="shared" si="5"/>
+        <v>346</v>
       </c>
       <c r="B347" t="s">
         <v>354</v>
@@ -8161,7 +8509,8 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A348">
-        <v>346</v>
+        <f t="shared" si="5"/>
+        <v>347</v>
       </c>
       <c r="B348" t="s">
         <v>354</v>
@@ -8178,7 +8527,8 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A349">
-        <v>347</v>
+        <f t="shared" si="5"/>
+        <v>348</v>
       </c>
       <c r="B349" t="s">
         <v>354</v>
@@ -8195,7 +8545,8 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A350">
-        <v>348</v>
+        <f t="shared" si="5"/>
+        <v>349</v>
       </c>
       <c r="B350" t="s">
         <v>354</v>
@@ -8212,7 +8563,8 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A351">
-        <v>349</v>
+        <f t="shared" si="5"/>
+        <v>350</v>
       </c>
       <c r="B351" t="s">
         <v>354</v>
@@ -8229,7 +8581,8 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A352">
-        <v>350</v>
+        <f t="shared" si="5"/>
+        <v>351</v>
       </c>
       <c r="B352" t="s">
         <v>354</v>
@@ -8246,7 +8599,8 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A353">
-        <v>351</v>
+        <f t="shared" si="5"/>
+        <v>352</v>
       </c>
       <c r="B353" t="s">
         <v>354</v>
@@ -8260,7 +8614,8 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A354">
-        <v>352</v>
+        <f t="shared" si="5"/>
+        <v>353</v>
       </c>
       <c r="B354" t="s">
         <v>354</v>
@@ -8274,7 +8629,8 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A355">
-        <v>353</v>
+        <f t="shared" si="5"/>
+        <v>354</v>
       </c>
       <c r="B355" t="s">
         <v>354</v>
@@ -8288,7 +8644,8 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A356">
-        <v>354</v>
+        <f t="shared" si="5"/>
+        <v>355</v>
       </c>
       <c r="B356" t="s">
         <v>354</v>
@@ -8302,7 +8659,8 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A357">
-        <v>355</v>
+        <f t="shared" si="5"/>
+        <v>356</v>
       </c>
       <c r="B357" t="s">
         <v>354</v>
@@ -8316,7 +8674,8 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A358">
-        <v>356</v>
+        <f t="shared" si="5"/>
+        <v>357</v>
       </c>
       <c r="B358" t="s">
         <v>354</v>
@@ -8330,7 +8689,8 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A359">
-        <v>357</v>
+        <f t="shared" si="5"/>
+        <v>358</v>
       </c>
       <c r="B359" t="s">
         <v>424</v>
@@ -8344,7 +8704,8 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A360">
-        <v>358</v>
+        <f t="shared" si="5"/>
+        <v>359</v>
       </c>
       <c r="B360" t="s">
         <v>424</v>
@@ -8358,7 +8719,8 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A361">
-        <v>359</v>
+        <f t="shared" si="5"/>
+        <v>360</v>
       </c>
       <c r="B361" t="s">
         <v>424</v>
@@ -8372,7 +8734,8 @@
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A362">
-        <v>360</v>
+        <f t="shared" si="5"/>
+        <v>361</v>
       </c>
       <c r="B362" t="s">
         <v>424</v>
@@ -8386,7 +8749,8 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A363">
-        <v>361</v>
+        <f t="shared" si="5"/>
+        <v>362</v>
       </c>
       <c r="B363" t="s">
         <v>424</v>
@@ -8400,7 +8764,8 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A364">
-        <v>362</v>
+        <f t="shared" si="5"/>
+        <v>363</v>
       </c>
       <c r="B364" t="s">
         <v>424</v>
@@ -8414,7 +8779,8 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A365">
-        <v>363</v>
+        <f t="shared" si="5"/>
+        <v>364</v>
       </c>
       <c r="B365" t="s">
         <v>424</v>
@@ -8428,7 +8794,8 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A366">
-        <v>364</v>
+        <f t="shared" si="5"/>
+        <v>365</v>
       </c>
       <c r="B366" t="s">
         <v>424</v>
@@ -8442,7 +8809,8 @@
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A367">
-        <v>367</v>
+        <f t="shared" si="5"/>
+        <v>366</v>
       </c>
       <c r="B367" t="s">
         <v>424</v>
@@ -8456,7 +8824,8 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A368">
-        <v>368</v>
+        <f t="shared" si="5"/>
+        <v>367</v>
       </c>
       <c r="B368" t="s">
         <v>424</v>
@@ -8470,7 +8839,8 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A369">
-        <v>369</v>
+        <f t="shared" si="5"/>
+        <v>368</v>
       </c>
       <c r="B369" t="s">
         <v>424</v>
@@ -8484,7 +8854,8 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A370">
-        <v>370</v>
+        <f t="shared" si="5"/>
+        <v>369</v>
       </c>
       <c r="B370" t="s">
         <v>424</v>
@@ -8498,7 +8869,8 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A371">
-        <v>371</v>
+        <f t="shared" si="5"/>
+        <v>370</v>
       </c>
       <c r="B371" t="s">
         <v>424</v>
@@ -8512,7 +8884,8 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A372">
-        <v>372</v>
+        <f t="shared" si="5"/>
+        <v>371</v>
       </c>
       <c r="B372" t="s">
         <v>424</v>
@@ -8526,7 +8899,8 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A373">
-        <v>373</v>
+        <f t="shared" si="5"/>
+        <v>372</v>
       </c>
       <c r="B373" t="s">
         <v>424</v>
@@ -8540,7 +8914,8 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A374">
-        <v>374</v>
+        <f t="shared" si="5"/>
+        <v>373</v>
       </c>
       <c r="B374" t="s">
         <v>424</v>
@@ -8553,6 +8928,10 @@
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A375">
+        <f t="shared" si="5"/>
+        <v>374</v>
+      </c>
       <c r="B375" t="s">
         <v>424</v>
       </c>
@@ -8564,6 +8943,10 @@
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A376">
+        <f t="shared" si="5"/>
+        <v>375</v>
+      </c>
       <c r="B376" t="s">
         <v>424</v>
       </c>
@@ -8576,7 +8959,8 @@
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A377">
-        <v>375</v>
+        <f t="shared" si="5"/>
+        <v>376</v>
       </c>
       <c r="B377" t="s">
         <v>424</v>
@@ -8590,7 +8974,8 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A378">
-        <v>376</v>
+        <f t="shared" si="5"/>
+        <v>377</v>
       </c>
       <c r="B378" t="s">
         <v>424</v>
@@ -8604,7 +8989,8 @@
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A379">
-        <v>377</v>
+        <f t="shared" si="5"/>
+        <v>378</v>
       </c>
       <c r="B379" t="s">
         <v>424</v>
@@ -8618,7 +9004,8 @@
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A380">
-        <v>378</v>
+        <f t="shared" si="5"/>
+        <v>379</v>
       </c>
       <c r="B380" t="s">
         <v>424</v>
@@ -8632,7 +9019,8 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A381">
-        <v>379</v>
+        <f t="shared" si="5"/>
+        <v>380</v>
       </c>
       <c r="B381" t="s">
         <v>424</v>
@@ -8646,7 +9034,8 @@
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A382">
-        <v>380</v>
+        <f t="shared" si="5"/>
+        <v>381</v>
       </c>
       <c r="B382" t="s">
         <v>424</v>
@@ -8660,7 +9049,8 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A383">
-        <v>381</v>
+        <f t="shared" si="5"/>
+        <v>382</v>
       </c>
       <c r="B383" t="s">
         <v>424</v>
@@ -8674,7 +9064,8 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A384">
-        <v>382</v>
+        <f t="shared" si="5"/>
+        <v>383</v>
       </c>
       <c r="B384" t="s">
         <v>424</v>
@@ -8688,7 +9079,8 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A385">
-        <v>383</v>
+        <f t="shared" si="5"/>
+        <v>384</v>
       </c>
       <c r="B385" t="s">
         <v>424</v>
@@ -8701,6 +9093,10 @@
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A386">
+        <f t="shared" si="5"/>
+        <v>385</v>
+      </c>
       <c r="B386" t="s">
         <v>424</v>
       </c>
@@ -8712,6 +9108,10 @@
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A387">
+        <f t="shared" si="5"/>
+        <v>386</v>
+      </c>
       <c r="B387" t="s">
         <v>424</v>
       </c>
@@ -8724,7 +9124,8 @@
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A388">
-        <v>384</v>
+        <f t="shared" ref="A388:A451" si="6">1+A387</f>
+        <v>387</v>
       </c>
       <c r="B388" t="s">
         <v>424</v>
@@ -8738,7 +9139,8 @@
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A389">
-        <v>385</v>
+        <f t="shared" si="6"/>
+        <v>388</v>
       </c>
       <c r="B389" t="s">
         <v>424</v>
@@ -8752,7 +9154,8 @@
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A390">
-        <v>386</v>
+        <f t="shared" si="6"/>
+        <v>389</v>
       </c>
       <c r="B390" t="s">
         <v>424</v>
@@ -8766,7 +9169,8 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A391">
-        <v>387</v>
+        <f t="shared" si="6"/>
+        <v>390</v>
       </c>
       <c r="B391" t="s">
         <v>424</v>
@@ -8780,7 +9184,8 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A392">
-        <v>388</v>
+        <f t="shared" si="6"/>
+        <v>391</v>
       </c>
       <c r="B392" t="s">
         <v>424</v>
@@ -8794,7 +9199,8 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A393">
-        <v>389</v>
+        <f t="shared" si="6"/>
+        <v>392</v>
       </c>
       <c r="B393" t="s">
         <v>424</v>
@@ -8808,7 +9214,8 @@
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A394">
-        <v>390</v>
+        <f t="shared" si="6"/>
+        <v>393</v>
       </c>
       <c r="B394" t="s">
         <v>424</v>
@@ -8822,7 +9229,8 @@
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A395">
-        <v>391</v>
+        <f t="shared" si="6"/>
+        <v>394</v>
       </c>
       <c r="B395" t="s">
         <v>424</v>
@@ -8836,7 +9244,8 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A396">
-        <v>392</v>
+        <f t="shared" si="6"/>
+        <v>395</v>
       </c>
       <c r="B396" t="s">
         <v>424</v>
@@ -8850,7 +9259,8 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A397">
-        <v>393</v>
+        <f t="shared" si="6"/>
+        <v>396</v>
       </c>
       <c r="B397" t="s">
         <v>424</v>
@@ -8864,7 +9274,8 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A398">
-        <v>394</v>
+        <f t="shared" si="6"/>
+        <v>397</v>
       </c>
       <c r="B398" t="s">
         <v>424</v>
@@ -8878,7 +9289,8 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A399">
-        <v>395</v>
+        <f t="shared" si="6"/>
+        <v>398</v>
       </c>
       <c r="B399" t="s">
         <v>424</v>
@@ -8892,7 +9304,8 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A400">
-        <v>396</v>
+        <f t="shared" si="6"/>
+        <v>399</v>
       </c>
       <c r="B400" t="s">
         <v>424</v>
@@ -8906,7 +9319,8 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A401">
-        <v>397</v>
+        <f t="shared" si="6"/>
+        <v>400</v>
       </c>
       <c r="B401" t="s">
         <v>424</v>
@@ -8920,7 +9334,8 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A402">
-        <v>398</v>
+        <f t="shared" si="6"/>
+        <v>401</v>
       </c>
       <c r="B402" t="s">
         <v>424</v>
@@ -8934,7 +9349,8 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A403">
-        <v>399</v>
+        <f t="shared" si="6"/>
+        <v>402</v>
       </c>
       <c r="B403" t="s">
         <v>424</v>
@@ -8948,7 +9364,8 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A404">
-        <v>400</v>
+        <f t="shared" si="6"/>
+        <v>403</v>
       </c>
       <c r="B404" t="s">
         <v>424</v>
@@ -8962,7 +9379,8 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A405">
-        <v>401</v>
+        <f t="shared" si="6"/>
+        <v>404</v>
       </c>
       <c r="B405" t="s">
         <v>424</v>
@@ -8976,7 +9394,8 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A406">
-        <v>402</v>
+        <f t="shared" si="6"/>
+        <v>405</v>
       </c>
       <c r="B406" t="s">
         <v>476</v>
@@ -8990,7 +9409,8 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A407">
-        <v>403</v>
+        <f t="shared" si="6"/>
+        <v>406</v>
       </c>
       <c r="B407" t="s">
         <v>476</v>
@@ -9004,7 +9424,8 @@
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A408">
-        <v>404</v>
+        <f t="shared" si="6"/>
+        <v>407</v>
       </c>
       <c r="B408" t="s">
         <v>476</v>
@@ -9018,7 +9439,8 @@
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A409">
-        <v>405</v>
+        <f t="shared" si="6"/>
+        <v>408</v>
       </c>
       <c r="B409" t="s">
         <v>476</v>
@@ -9032,7 +9454,8 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A410">
-        <v>406</v>
+        <f t="shared" si="6"/>
+        <v>409</v>
       </c>
       <c r="B410" t="s">
         <v>476</v>
@@ -9046,7 +9469,8 @@
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A411">
-        <v>407</v>
+        <f t="shared" si="6"/>
+        <v>410</v>
       </c>
       <c r="B411" t="s">
         <v>476</v>
@@ -9060,7 +9484,8 @@
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A412">
-        <v>408</v>
+        <f t="shared" si="6"/>
+        <v>411</v>
       </c>
       <c r="B412" t="s">
         <v>476</v>
@@ -9074,7 +9499,8 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A413">
-        <v>409</v>
+        <f t="shared" si="6"/>
+        <v>412</v>
       </c>
       <c r="B413" t="s">
         <v>476</v>
@@ -9088,7 +9514,8 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A414">
-        <v>410</v>
+        <f t="shared" si="6"/>
+        <v>413</v>
       </c>
       <c r="B414" t="s">
         <v>476</v>
@@ -9102,7 +9529,8 @@
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A415">
-        <v>411</v>
+        <f t="shared" si="6"/>
+        <v>414</v>
       </c>
       <c r="B415" t="s">
         <v>476</v>
@@ -9116,7 +9544,8 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A416">
-        <v>412</v>
+        <f t="shared" si="6"/>
+        <v>415</v>
       </c>
       <c r="B416" t="s">
         <v>476</v>
@@ -9130,7 +9559,8 @@
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A417">
-        <v>413</v>
+        <f t="shared" si="6"/>
+        <v>416</v>
       </c>
       <c r="B417" t="s">
         <v>476</v>
@@ -9144,7 +9574,8 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A418">
-        <v>414</v>
+        <f t="shared" si="6"/>
+        <v>417</v>
       </c>
       <c r="B418" t="s">
         <v>476</v>
@@ -9158,7 +9589,8 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A419">
-        <v>415</v>
+        <f t="shared" si="6"/>
+        <v>418</v>
       </c>
       <c r="B419" t="s">
         <v>476</v>
@@ -9172,7 +9604,8 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A420">
-        <v>416</v>
+        <f t="shared" si="6"/>
+        <v>419</v>
       </c>
       <c r="B420" t="s">
         <v>476</v>
@@ -9186,7 +9619,8 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A421">
-        <v>417</v>
+        <f t="shared" si="6"/>
+        <v>420</v>
       </c>
       <c r="B421" t="s">
         <v>476</v>
@@ -9200,7 +9634,8 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A422">
-        <v>418</v>
+        <f t="shared" si="6"/>
+        <v>421</v>
       </c>
       <c r="B422" t="s">
         <v>476</v>
@@ -9214,7 +9649,8 @@
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A423">
-        <v>419</v>
+        <f t="shared" si="6"/>
+        <v>422</v>
       </c>
       <c r="B423" t="s">
         <v>476</v>
@@ -9228,7 +9664,8 @@
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A424">
-        <v>420</v>
+        <f t="shared" si="6"/>
+        <v>423</v>
       </c>
       <c r="B424" t="s">
         <v>476</v>
@@ -9241,6 +9678,10 @@
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A425">
+        <f t="shared" si="6"/>
+        <v>424</v>
+      </c>
       <c r="B425" t="s">
         <v>500</v>
       </c>
@@ -9252,6 +9693,10 @@
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A426">
+        <f t="shared" si="6"/>
+        <v>425</v>
+      </c>
       <c r="B426" t="s">
         <v>500</v>
       </c>
@@ -9263,6 +9708,10 @@
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A427">
+        <f t="shared" si="6"/>
+        <v>426</v>
+      </c>
       <c r="B427" t="s">
         <v>500</v>
       </c>
@@ -9274,6 +9723,10 @@
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A428">
+        <f t="shared" si="6"/>
+        <v>427</v>
+      </c>
       <c r="B428" t="s">
         <v>500</v>
       </c>
@@ -9285,6 +9738,10 @@
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A429">
+        <f t="shared" si="6"/>
+        <v>428</v>
+      </c>
       <c r="B429" t="s">
         <v>500</v>
       </c>
@@ -9296,6 +9753,10 @@
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A430">
+        <f t="shared" si="6"/>
+        <v>429</v>
+      </c>
       <c r="B430" t="s">
         <v>500</v>
       </c>
@@ -9307,6 +9768,10 @@
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A431">
+        <f t="shared" si="6"/>
+        <v>430</v>
+      </c>
       <c r="B431" t="s">
         <v>500</v>
       </c>
@@ -9318,6 +9783,10 @@
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A432">
+        <f t="shared" si="6"/>
+        <v>431</v>
+      </c>
       <c r="B432" t="s">
         <v>500</v>
       </c>
@@ -9329,6 +9798,10 @@
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A433">
+        <f t="shared" si="6"/>
+        <v>432</v>
+      </c>
       <c r="B433" t="s">
         <v>500</v>
       </c>
@@ -9340,6 +9813,10 @@
       </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A434">
+        <f t="shared" si="6"/>
+        <v>433</v>
+      </c>
       <c r="B434" t="s">
         <v>500</v>
       </c>
@@ -9351,6 +9828,10 @@
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A435">
+        <f t="shared" si="6"/>
+        <v>434</v>
+      </c>
       <c r="B435" t="s">
         <v>500</v>
       </c>
@@ -9362,6 +9843,10 @@
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A436">
+        <f t="shared" si="6"/>
+        <v>435</v>
+      </c>
       <c r="B436" t="s">
         <v>500</v>
       </c>
@@ -9374,7 +9859,8 @@
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A437">
-        <v>421</v>
+        <f t="shared" si="6"/>
+        <v>436</v>
       </c>
       <c r="B437" t="s">
         <v>500</v>
@@ -9388,7 +9874,8 @@
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A438">
-        <v>4211</v>
+        <f t="shared" si="6"/>
+        <v>437</v>
       </c>
       <c r="B438" t="s">
         <v>500</v>
@@ -9401,6 +9888,10 @@
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A439">
+        <f t="shared" si="6"/>
+        <v>438</v>
+      </c>
       <c r="B439" t="s">
         <v>500</v>
       </c>
@@ -9412,6 +9903,10 @@
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A440">
+        <f t="shared" si="6"/>
+        <v>439</v>
+      </c>
       <c r="B440" t="s">
         <v>500</v>
       </c>
@@ -9423,6 +9918,10 @@
       </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A441">
+        <f t="shared" si="6"/>
+        <v>440</v>
+      </c>
       <c r="B441" t="s">
         <v>500</v>
       </c>
@@ -9434,6 +9933,10 @@
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A442">
+        <f t="shared" si="6"/>
+        <v>441</v>
+      </c>
       <c r="B442" t="s">
         <v>500</v>
       </c>
@@ -9445,6 +9948,10 @@
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A443">
+        <f t="shared" si="6"/>
+        <v>442</v>
+      </c>
       <c r="B443" t="s">
         <v>500</v>
       </c>
@@ -9456,6 +9963,10 @@
       </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A444">
+        <f t="shared" si="6"/>
+        <v>443</v>
+      </c>
       <c r="B444" t="s">
         <v>500</v>
       </c>
@@ -9467,6 +9978,10 @@
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A445">
+        <f t="shared" si="6"/>
+        <v>444</v>
+      </c>
       <c r="B445" t="s">
         <v>500</v>
       </c>
@@ -9478,6 +9993,10 @@
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A446">
+        <f t="shared" si="6"/>
+        <v>445</v>
+      </c>
       <c r="B446" t="s">
         <v>500</v>
       </c>
@@ -9489,6 +10008,10 @@
       </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A447">
+        <f t="shared" si="6"/>
+        <v>446</v>
+      </c>
       <c r="B447" t="s">
         <v>500</v>
       </c>
@@ -9500,6 +10023,10 @@
       </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A448">
+        <f t="shared" si="6"/>
+        <v>447</v>
+      </c>
       <c r="B448" t="s">
         <v>500</v>
       </c>
@@ -9512,7 +10039,8 @@
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A449">
-        <v>422</v>
+        <f t="shared" si="6"/>
+        <v>448</v>
       </c>
       <c r="B449" t="s">
         <v>500</v>
@@ -9526,7 +10054,8 @@
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A450">
-        <v>423</v>
+        <f t="shared" si="6"/>
+        <v>449</v>
       </c>
       <c r="B450" t="s">
         <v>500</v>
@@ -9540,7 +10069,8 @@
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A451">
-        <v>424</v>
+        <f t="shared" si="6"/>
+        <v>450</v>
       </c>
       <c r="B451" t="s">
         <v>500</v>
@@ -9554,7 +10084,8 @@
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A452">
-        <v>425</v>
+        <f t="shared" ref="A452:A515" si="7">1+A451</f>
+        <v>451</v>
       </c>
       <c r="B452" t="s">
         <v>500</v>
@@ -9568,7 +10099,8 @@
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A453">
-        <v>426</v>
+        <f t="shared" si="7"/>
+        <v>452</v>
       </c>
       <c r="B453" t="s">
         <v>500</v>
@@ -9582,7 +10114,8 @@
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A454">
-        <v>427</v>
+        <f t="shared" si="7"/>
+        <v>453</v>
       </c>
       <c r="B454" t="s">
         <v>500</v>
@@ -9596,7 +10129,8 @@
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A455">
-        <v>428</v>
+        <f t="shared" si="7"/>
+        <v>454</v>
       </c>
       <c r="B455" t="s">
         <v>500</v>
@@ -9610,7 +10144,8 @@
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A456">
-        <v>429</v>
+        <f t="shared" si="7"/>
+        <v>455</v>
       </c>
       <c r="B456" t="s">
         <v>500</v>
@@ -9624,7 +10159,8 @@
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A457">
-        <v>430</v>
+        <f t="shared" si="7"/>
+        <v>456</v>
       </c>
       <c r="B457" t="s">
         <v>513</v>
@@ -9635,7 +10171,8 @@
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A458">
-        <v>431</v>
+        <f t="shared" si="7"/>
+        <v>457</v>
       </c>
       <c r="B458" t="s">
         <v>513</v>
@@ -9646,7 +10183,8 @@
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A459">
-        <v>432</v>
+        <f t="shared" si="7"/>
+        <v>458</v>
       </c>
       <c r="B459" t="s">
         <v>513</v>
@@ -9657,7 +10195,8 @@
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A460">
-        <v>433</v>
+        <f t="shared" si="7"/>
+        <v>459</v>
       </c>
       <c r="B460" t="s">
         <v>513</v>
@@ -9668,7 +10207,8 @@
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A461">
-        <v>434</v>
+        <f t="shared" si="7"/>
+        <v>460</v>
       </c>
       <c r="B461" t="s">
         <v>513</v>
@@ -9679,7 +10219,8 @@
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A462">
-        <v>435</v>
+        <f t="shared" si="7"/>
+        <v>461</v>
       </c>
       <c r="B462" t="s">
         <v>513</v>
@@ -9690,7 +10231,8 @@
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A463">
-        <v>436</v>
+        <f t="shared" si="7"/>
+        <v>462</v>
       </c>
       <c r="F463" t="s">
         <v>520</v>
@@ -9707,7 +10249,8 @@
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A464">
-        <v>437</v>
+        <f t="shared" si="7"/>
+        <v>463</v>
       </c>
       <c r="F464" t="s">
         <v>520</v>
@@ -9724,7 +10267,8 @@
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A465">
-        <v>438</v>
+        <f t="shared" si="7"/>
+        <v>464</v>
       </c>
       <c r="F465" t="s">
         <v>520</v>
@@ -9741,7 +10285,8 @@
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A466">
-        <v>439</v>
+        <f t="shared" si="7"/>
+        <v>465</v>
       </c>
       <c r="F466" t="s">
         <v>520</v>
@@ -9761,7 +10306,8 @@
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A467">
-        <v>440</v>
+        <f t="shared" si="7"/>
+        <v>466</v>
       </c>
       <c r="F467" t="s">
         <v>520</v>
@@ -9781,7 +10327,8 @@
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A468">
-        <v>441</v>
+        <f t="shared" si="7"/>
+        <v>467</v>
       </c>
       <c r="F468" t="s">
         <v>520</v>
@@ -9801,7 +10348,8 @@
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A469">
-        <v>442</v>
+        <f t="shared" si="7"/>
+        <v>468</v>
       </c>
       <c r="F469" t="s">
         <v>520</v>
@@ -9821,7 +10369,8 @@
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A470">
-        <v>443</v>
+        <f t="shared" si="7"/>
+        <v>469</v>
       </c>
       <c r="F470" t="s">
         <v>520</v>
@@ -9841,7 +10390,8 @@
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A471">
-        <v>444</v>
+        <f t="shared" si="7"/>
+        <v>470</v>
       </c>
       <c r="F471" t="s">
         <v>520</v>
@@ -9861,7 +10411,8 @@
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A472">
-        <v>445</v>
+        <f t="shared" si="7"/>
+        <v>471</v>
       </c>
       <c r="F472" t="s">
         <v>520</v>
@@ -9881,7 +10432,8 @@
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A473">
-        <v>446</v>
+        <f t="shared" si="7"/>
+        <v>472</v>
       </c>
       <c r="F473" t="s">
         <v>520</v>
@@ -9901,7 +10453,8 @@
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A474">
-        <v>447</v>
+        <f t="shared" si="7"/>
+        <v>473</v>
       </c>
       <c r="F474" t="s">
         <v>520</v>
@@ -9921,7 +10474,8 @@
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A475">
-        <v>448</v>
+        <f t="shared" si="7"/>
+        <v>474</v>
       </c>
       <c r="F475" t="s">
         <v>520</v>
@@ -9941,7 +10495,8 @@
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A476">
-        <v>449</v>
+        <f t="shared" si="7"/>
+        <v>475</v>
       </c>
       <c r="F476" t="s">
         <v>520</v>
@@ -9961,7 +10516,8 @@
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A477">
-        <v>450</v>
+        <f t="shared" si="7"/>
+        <v>476</v>
       </c>
       <c r="F477" t="s">
         <v>520</v>
@@ -9981,7 +10537,8 @@
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A478">
-        <v>451</v>
+        <f t="shared" si="7"/>
+        <v>477</v>
       </c>
       <c r="F478" t="s">
         <v>520</v>
@@ -10001,7 +10558,8 @@
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A479">
-        <v>452</v>
+        <f t="shared" si="7"/>
+        <v>478</v>
       </c>
       <c r="F479" t="s">
         <v>520</v>
@@ -10021,7 +10579,8 @@
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A480">
-        <v>453</v>
+        <f t="shared" si="7"/>
+        <v>479</v>
       </c>
       <c r="F480" t="s">
         <v>520</v>
@@ -10041,7 +10600,8 @@
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A481">
-        <v>454</v>
+        <f t="shared" si="7"/>
+        <v>480</v>
       </c>
       <c r="F481" t="s">
         <v>520</v>
@@ -10061,7 +10621,8 @@
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A482">
-        <v>455</v>
+        <f t="shared" si="7"/>
+        <v>481</v>
       </c>
       <c r="F482" t="s">
         <v>520</v>
@@ -10081,7 +10642,8 @@
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A483">
-        <v>456</v>
+        <f t="shared" si="7"/>
+        <v>482</v>
       </c>
       <c r="F483" t="s">
         <v>520</v>
@@ -10101,7 +10663,8 @@
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A484">
-        <v>457</v>
+        <f t="shared" si="7"/>
+        <v>483</v>
       </c>
       <c r="F484" t="s">
         <v>520</v>
@@ -10121,7 +10684,8 @@
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A485">
-        <v>458</v>
+        <f t="shared" si="7"/>
+        <v>484</v>
       </c>
       <c r="F485" t="s">
         <v>520</v>
@@ -10141,7 +10705,8 @@
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A486">
-        <v>459</v>
+        <f t="shared" si="7"/>
+        <v>485</v>
       </c>
       <c r="F486" t="s">
         <v>520</v>
@@ -10161,7 +10726,8 @@
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A487">
-        <v>460</v>
+        <f t="shared" si="7"/>
+        <v>486</v>
       </c>
       <c r="F487" t="s">
         <v>520</v>
@@ -10181,7 +10747,8 @@
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A488">
-        <v>461</v>
+        <f t="shared" si="7"/>
+        <v>487</v>
       </c>
       <c r="F488" t="s">
         <v>520</v>
@@ -10201,7 +10768,8 @@
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A489">
-        <v>462</v>
+        <f t="shared" si="7"/>
+        <v>488</v>
       </c>
       <c r="F489" t="s">
         <v>520</v>
@@ -10221,7 +10789,8 @@
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A490">
-        <v>463</v>
+        <f t="shared" si="7"/>
+        <v>489</v>
       </c>
       <c r="F490" t="s">
         <v>520</v>
@@ -10241,7 +10810,8 @@
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A491">
-        <v>464</v>
+        <f t="shared" si="7"/>
+        <v>490</v>
       </c>
       <c r="F491" t="s">
         <v>520</v>
@@ -10261,7 +10831,8 @@
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A492">
-        <v>465</v>
+        <f t="shared" si="7"/>
+        <v>491</v>
       </c>
       <c r="F492" t="s">
         <v>520</v>
@@ -10281,7 +10852,8 @@
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A493">
-        <v>466</v>
+        <f t="shared" si="7"/>
+        <v>492</v>
       </c>
       <c r="F493" t="s">
         <v>520</v>
@@ -10304,7 +10876,8 @@
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A494">
-        <v>468</v>
+        <f t="shared" si="7"/>
+        <v>493</v>
       </c>
       <c r="F494" t="s">
         <v>520</v>
@@ -10330,7 +10903,8 @@
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A495">
-        <v>467</v>
+        <f t="shared" si="7"/>
+        <v>494</v>
       </c>
       <c r="F495" t="s">
         <v>520</v>
@@ -10356,7 +10930,8 @@
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A496">
-        <v>468</v>
+        <f t="shared" si="7"/>
+        <v>495</v>
       </c>
       <c r="F496" t="s">
         <v>520</v>
@@ -10382,7 +10957,8 @@
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A497">
-        <v>469</v>
+        <f t="shared" si="7"/>
+        <v>496</v>
       </c>
       <c r="F497" t="s">
         <v>520</v>
@@ -10407,6 +10983,10 @@
       </c>
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A498">
+        <f t="shared" si="7"/>
+        <v>497</v>
+      </c>
       <c r="F498" t="s">
         <v>520</v>
       </c>
@@ -10431,7 +11011,8 @@
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A499">
-        <v>470</v>
+        <f t="shared" si="7"/>
+        <v>498</v>
       </c>
       <c r="F499" t="s">
         <v>520</v>
@@ -10457,7 +11038,8 @@
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A500">
-        <v>471</v>
+        <f t="shared" si="7"/>
+        <v>499</v>
       </c>
       <c r="F500" t="s">
         <v>520</v>
@@ -10483,7 +11065,8 @@
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A501">
-        <v>472</v>
+        <f t="shared" si="7"/>
+        <v>500</v>
       </c>
       <c r="F501" t="s">
         <v>520</v>
@@ -10508,6 +11091,10 @@
       </c>
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A502">
+        <f t="shared" si="7"/>
+        <v>501</v>
+      </c>
       <c r="F502" t="s">
         <v>520</v>
       </c>
@@ -10532,7 +11119,8 @@
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A503">
-        <v>473</v>
+        <f t="shared" si="7"/>
+        <v>502</v>
       </c>
       <c r="F503" t="s">
         <v>520</v>
@@ -10558,7 +11146,8 @@
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A504">
-        <v>474</v>
+        <f t="shared" si="7"/>
+        <v>503</v>
       </c>
       <c r="F504" t="s">
         <v>520</v>
@@ -10584,7 +11173,8 @@
     </row>
     <row r="505" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A505">
-        <v>475</v>
+        <f t="shared" si="7"/>
+        <v>504</v>
       </c>
       <c r="F505" t="s">
         <v>520</v>
@@ -10609,6 +11199,10 @@
       </c>
     </row>
     <row r="506" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A506">
+        <f t="shared" si="7"/>
+        <v>505</v>
+      </c>
       <c r="F506" t="s">
         <v>520</v>
       </c>
@@ -10633,7 +11227,8 @@
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A507">
-        <v>476</v>
+        <f t="shared" si="7"/>
+        <v>506</v>
       </c>
       <c r="F507" t="s">
         <v>520</v>
@@ -10659,7 +11254,8 @@
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A508">
-        <v>477</v>
+        <f t="shared" si="7"/>
+        <v>507</v>
       </c>
       <c r="F508" t="s">
         <v>520</v>
@@ -10685,7 +11281,8 @@
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A509">
-        <v>478</v>
+        <f t="shared" si="7"/>
+        <v>508</v>
       </c>
       <c r="F509" t="s">
         <v>520</v>
@@ -10705,7 +11302,8 @@
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A510">
-        <v>479</v>
+        <f t="shared" si="7"/>
+        <v>509</v>
       </c>
       <c r="F510" t="s">
         <v>520</v>
@@ -10725,7 +11323,8 @@
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A511">
-        <v>480</v>
+        <f t="shared" si="7"/>
+        <v>510</v>
       </c>
       <c r="F511" t="s">
         <v>520</v>
@@ -10745,7 +11344,8 @@
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A512">
-        <v>481</v>
+        <f t="shared" si="7"/>
+        <v>511</v>
       </c>
       <c r="F512" t="s">
         <v>520</v>
@@ -10765,7 +11365,8 @@
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A513">
-        <v>482</v>
+        <f t="shared" si="7"/>
+        <v>512</v>
       </c>
       <c r="F513" t="s">
         <v>520</v>
@@ -10785,7 +11386,8 @@
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A514">
-        <v>483</v>
+        <f t="shared" si="7"/>
+        <v>513</v>
       </c>
       <c r="F514" t="s">
         <v>520</v>
@@ -10805,7 +11407,8 @@
     </row>
     <row r="515" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A515">
-        <v>484</v>
+        <f t="shared" si="7"/>
+        <v>514</v>
       </c>
       <c r="F515" t="s">
         <v>520</v>
@@ -10825,7 +11428,8 @@
     </row>
     <row r="516" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A516">
-        <v>485</v>
+        <f t="shared" ref="A516:A579" si="8">1+A515</f>
+        <v>515</v>
       </c>
       <c r="F516" t="s">
         <v>520</v>
@@ -10842,7 +11446,8 @@
     </row>
     <row r="517" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A517">
-        <v>486</v>
+        <f t="shared" si="8"/>
+        <v>516</v>
       </c>
       <c r="F517" t="s">
         <v>520</v>
@@ -10859,7 +11464,8 @@
     </row>
     <row r="518" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A518">
-        <v>487</v>
+        <f t="shared" si="8"/>
+        <v>517</v>
       </c>
       <c r="F518" t="s">
         <v>520</v>
@@ -10876,7 +11482,8 @@
     </row>
     <row r="519" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A519">
-        <v>488</v>
+        <f t="shared" si="8"/>
+        <v>518</v>
       </c>
       <c r="F519" t="s">
         <v>520</v>
@@ -10893,7 +11500,8 @@
     </row>
     <row r="520" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A520">
-        <v>489</v>
+        <f t="shared" si="8"/>
+        <v>519</v>
       </c>
       <c r="F520" t="s">
         <v>520</v>
@@ -10910,7 +11518,8 @@
     </row>
     <row r="521" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A521">
-        <v>490</v>
+        <f t="shared" si="8"/>
+        <v>520</v>
       </c>
       <c r="F521" t="s">
         <v>520</v>
@@ -10927,7 +11536,8 @@
     </row>
     <row r="522" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A522">
-        <v>491</v>
+        <f t="shared" si="8"/>
+        <v>521</v>
       </c>
       <c r="F522" t="s">
         <v>520</v>
@@ -10944,7 +11554,8 @@
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A523">
-        <v>492</v>
+        <f t="shared" si="8"/>
+        <v>522</v>
       </c>
       <c r="F523" t="s">
         <v>520</v>
@@ -10961,7 +11572,8 @@
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A524">
-        <v>493</v>
+        <f t="shared" si="8"/>
+        <v>523</v>
       </c>
       <c r="F524" t="s">
         <v>520</v>
@@ -10978,7 +11590,8 @@
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A525">
-        <v>494</v>
+        <f t="shared" si="8"/>
+        <v>524</v>
       </c>
       <c r="F525" t="s">
         <v>520</v>
@@ -10995,7 +11608,8 @@
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A526">
-        <v>495</v>
+        <f t="shared" si="8"/>
+        <v>525</v>
       </c>
       <c r="F526" t="s">
         <v>520</v>
@@ -11012,7 +11626,8 @@
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A527">
-        <v>496</v>
+        <f t="shared" si="8"/>
+        <v>526</v>
       </c>
       <c r="F527" t="s">
         <v>520</v>
@@ -11029,7 +11644,8 @@
     </row>
     <row r="528" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A528">
-        <v>497</v>
+        <f t="shared" si="8"/>
+        <v>527</v>
       </c>
       <c r="F528" t="s">
         <v>520</v>
@@ -11046,7 +11662,8 @@
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A529">
-        <v>498</v>
+        <f t="shared" si="8"/>
+        <v>528</v>
       </c>
       <c r="F529" t="s">
         <v>520</v>
@@ -11063,7 +11680,8 @@
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A530">
-        <v>499</v>
+        <f t="shared" si="8"/>
+        <v>529</v>
       </c>
       <c r="F530" t="s">
         <v>520</v>
@@ -11080,7 +11698,8 @@
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A531">
-        <v>500</v>
+        <f t="shared" si="8"/>
+        <v>530</v>
       </c>
       <c r="F531" t="s">
         <v>520</v>
@@ -11097,7 +11716,8 @@
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A532">
-        <v>501</v>
+        <f t="shared" si="8"/>
+        <v>531</v>
       </c>
       <c r="F532" t="s">
         <v>520</v>
@@ -11114,7 +11734,8 @@
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A533">
-        <v>502</v>
+        <f t="shared" si="8"/>
+        <v>532</v>
       </c>
       <c r="F533" t="s">
         <v>520</v>
@@ -11131,7 +11752,8 @@
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A534">
-        <v>503</v>
+        <f t="shared" si="8"/>
+        <v>533</v>
       </c>
       <c r="F534" t="s">
         <v>520</v>
@@ -11148,7 +11770,8 @@
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A535">
-        <v>504</v>
+        <f t="shared" si="8"/>
+        <v>534</v>
       </c>
       <c r="F535" t="s">
         <v>520</v>
@@ -11168,7 +11791,8 @@
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A536">
-        <v>505</v>
+        <f t="shared" si="8"/>
+        <v>535</v>
       </c>
       <c r="F536" t="s">
         <v>520</v>
@@ -11188,7 +11812,8 @@
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A537">
-        <v>506</v>
+        <f t="shared" si="8"/>
+        <v>536</v>
       </c>
       <c r="F537" t="s">
         <v>520</v>
@@ -11208,7 +11833,8 @@
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A538">
-        <v>507</v>
+        <f t="shared" si="8"/>
+        <v>537</v>
       </c>
       <c r="F538" t="s">
         <v>520</v>
@@ -11228,7 +11854,8 @@
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A539">
-        <v>508</v>
+        <f t="shared" si="8"/>
+        <v>538</v>
       </c>
       <c r="F539" t="s">
         <v>520</v>
@@ -11248,7 +11875,8 @@
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A540">
-        <v>509</v>
+        <f t="shared" si="8"/>
+        <v>539</v>
       </c>
       <c r="F540" t="s">
         <v>520</v>
@@ -11268,7 +11896,8 @@
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A541">
-        <v>510</v>
+        <f t="shared" si="8"/>
+        <v>540</v>
       </c>
       <c r="F541" t="s">
         <v>520</v>
@@ -11288,7 +11917,8 @@
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A542">
-        <v>511</v>
+        <f t="shared" si="8"/>
+        <v>541</v>
       </c>
       <c r="F542" t="s">
         <v>520</v>
@@ -11308,7 +11938,8 @@
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A543">
-        <v>512</v>
+        <f t="shared" si="8"/>
+        <v>542</v>
       </c>
       <c r="F543" t="s">
         <v>520</v>
@@ -11328,7 +11959,8 @@
     </row>
     <row r="544" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A544">
-        <v>513</v>
+        <f t="shared" si="8"/>
+        <v>543</v>
       </c>
       <c r="F544" t="s">
         <v>520</v>
@@ -11348,7 +11980,8 @@
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A545">
-        <v>514</v>
+        <f t="shared" si="8"/>
+        <v>544</v>
       </c>
       <c r="F545" t="s">
         <v>520</v>
@@ -11368,7 +12001,8 @@
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A546">
-        <v>515</v>
+        <f t="shared" si="8"/>
+        <v>545</v>
       </c>
       <c r="F546" t="s">
         <v>520</v>
@@ -11388,7 +12022,8 @@
     </row>
     <row r="547" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A547">
-        <v>516</v>
+        <f t="shared" si="8"/>
+        <v>546</v>
       </c>
       <c r="F547" t="s">
         <v>520</v>
@@ -11408,7 +12043,8 @@
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A548">
-        <v>517</v>
+        <f t="shared" si="8"/>
+        <v>547</v>
       </c>
       <c r="F548" t="s">
         <v>520</v>
@@ -11428,7 +12064,8 @@
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A549">
-        <v>518</v>
+        <f t="shared" si="8"/>
+        <v>548</v>
       </c>
       <c r="F549" t="s">
         <v>520</v>
@@ -11448,7 +12085,8 @@
     </row>
     <row r="550" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A550">
-        <v>519</v>
+        <f t="shared" si="8"/>
+        <v>549</v>
       </c>
       <c r="F550" t="s">
         <v>520</v>
@@ -11468,7 +12106,8 @@
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A551">
-        <v>520</v>
+        <f t="shared" si="8"/>
+        <v>550</v>
       </c>
       <c r="F551" t="s">
         <v>520</v>
@@ -11488,7 +12127,8 @@
     </row>
     <row r="552" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A552">
-        <v>521</v>
+        <f t="shared" si="8"/>
+        <v>551</v>
       </c>
       <c r="F552" t="s">
         <v>520</v>
@@ -11508,7 +12148,8 @@
     </row>
     <row r="553" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A553">
-        <v>522</v>
+        <f t="shared" si="8"/>
+        <v>552</v>
       </c>
       <c r="F553" t="s">
         <v>520</v>
@@ -11528,7 +12169,8 @@
     </row>
     <row r="554" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A554">
-        <v>523</v>
+        <f t="shared" si="8"/>
+        <v>553</v>
       </c>
       <c r="F554" t="s">
         <v>520</v>
@@ -11548,7 +12190,8 @@
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A555">
-        <v>524</v>
+        <f t="shared" si="8"/>
+        <v>554</v>
       </c>
       <c r="F555" t="s">
         <v>520</v>
@@ -11568,7 +12211,8 @@
     </row>
     <row r="556" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A556">
-        <v>525</v>
+        <f t="shared" si="8"/>
+        <v>555</v>
       </c>
       <c r="F556" t="s">
         <v>520</v>
@@ -11588,7 +12232,8 @@
     </row>
     <row r="557" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A557">
-        <v>526</v>
+        <f t="shared" si="8"/>
+        <v>556</v>
       </c>
       <c r="F557" t="s">
         <v>520</v>
@@ -11608,7 +12253,8 @@
     </row>
     <row r="558" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A558">
-        <v>527</v>
+        <f t="shared" si="8"/>
+        <v>557</v>
       </c>
       <c r="F558" t="s">
         <v>520</v>
@@ -11628,7 +12274,8 @@
     </row>
     <row r="559" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A559">
-        <v>528</v>
+        <f t="shared" si="8"/>
+        <v>558</v>
       </c>
       <c r="F559" t="s">
         <v>520</v>
@@ -11648,7 +12295,8 @@
     </row>
     <row r="560" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A560">
-        <v>529</v>
+        <f t="shared" si="8"/>
+        <v>559</v>
       </c>
       <c r="F560" t="s">
         <v>520</v>
@@ -11668,7 +12316,8 @@
     </row>
     <row r="561" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A561">
-        <v>530</v>
+        <f t="shared" si="8"/>
+        <v>560</v>
       </c>
       <c r="F561" t="s">
         <v>520</v>
@@ -11688,7 +12337,8 @@
     </row>
     <row r="562" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A562">
-        <v>531</v>
+        <f t="shared" si="8"/>
+        <v>561</v>
       </c>
       <c r="F562" t="s">
         <v>520</v>
@@ -11708,7 +12358,8 @@
     </row>
     <row r="563" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A563">
-        <v>532</v>
+        <f t="shared" si="8"/>
+        <v>562</v>
       </c>
       <c r="F563" t="s">
         <v>520</v>
@@ -11728,7 +12379,8 @@
     </row>
     <row r="564" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A564">
-        <v>533</v>
+        <f t="shared" si="8"/>
+        <v>563</v>
       </c>
       <c r="F564" t="s">
         <v>520</v>
@@ -11748,7 +12400,8 @@
     </row>
     <row r="565" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A565">
-        <v>534</v>
+        <f t="shared" si="8"/>
+        <v>564</v>
       </c>
       <c r="F565" t="s">
         <v>520</v>
@@ -11768,7 +12421,8 @@
     </row>
     <row r="566" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A566">
-        <v>535</v>
+        <f t="shared" si="8"/>
+        <v>565</v>
       </c>
       <c r="F566" t="s">
         <v>520</v>
@@ -11788,7 +12442,8 @@
     </row>
     <row r="567" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A567">
-        <v>536</v>
+        <f t="shared" si="8"/>
+        <v>566</v>
       </c>
       <c r="F567" t="s">
         <v>520</v>
@@ -11808,7 +12463,8 @@
     </row>
     <row r="568" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A568">
-        <v>537</v>
+        <f t="shared" si="8"/>
+        <v>567</v>
       </c>
       <c r="F568" t="s">
         <v>520</v>
@@ -11828,7 +12484,8 @@
     </row>
     <row r="569" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A569">
-        <v>538</v>
+        <f t="shared" si="8"/>
+        <v>568</v>
       </c>
       <c r="F569" t="s">
         <v>520</v>
@@ -11848,7 +12505,8 @@
     </row>
     <row r="570" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A570">
-        <v>539</v>
+        <f t="shared" si="8"/>
+        <v>569</v>
       </c>
       <c r="F570" t="s">
         <v>520</v>
@@ -11868,7 +12526,8 @@
     </row>
     <row r="571" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A571">
-        <v>540</v>
+        <f t="shared" si="8"/>
+        <v>570</v>
       </c>
       <c r="F571" t="s">
         <v>520</v>
@@ -11888,7 +12547,8 @@
     </row>
     <row r="572" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A572">
-        <v>541</v>
+        <f t="shared" si="8"/>
+        <v>571</v>
       </c>
       <c r="F572" t="s">
         <v>520</v>
@@ -11908,7 +12568,8 @@
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A573">
-        <v>542</v>
+        <f t="shared" si="8"/>
+        <v>572</v>
       </c>
       <c r="F573" t="s">
         <v>520</v>
@@ -11928,7 +12589,8 @@
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A574">
-        <v>543</v>
+        <f t="shared" si="8"/>
+        <v>573</v>
       </c>
       <c r="F574" t="s">
         <v>520</v>
@@ -11948,7 +12610,8 @@
     </row>
     <row r="575" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A575">
-        <v>544</v>
+        <f t="shared" si="8"/>
+        <v>574</v>
       </c>
       <c r="F575" t="s">
         <v>520</v>
@@ -11968,7 +12631,8 @@
     </row>
     <row r="576" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A576">
-        <v>545</v>
+        <f t="shared" si="8"/>
+        <v>575</v>
       </c>
       <c r="F576" t="s">
         <v>520</v>
@@ -11988,7 +12652,8 @@
     </row>
     <row r="577" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A577">
-        <v>546</v>
+        <f t="shared" si="8"/>
+        <v>576</v>
       </c>
       <c r="F577" t="s">
         <v>520</v>
@@ -12008,7 +12673,8 @@
     </row>
     <row r="578" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A578">
-        <v>547</v>
+        <f t="shared" si="8"/>
+        <v>577</v>
       </c>
       <c r="F578" t="s">
         <v>520</v>
@@ -12028,7 +12694,8 @@
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A579">
-        <v>548</v>
+        <f t="shared" si="8"/>
+        <v>578</v>
       </c>
       <c r="F579" t="s">
         <v>520</v>
@@ -12048,7 +12715,8 @@
     </row>
     <row r="580" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A580">
-        <v>549</v>
+        <f t="shared" ref="A580:A643" si="9">1+A579</f>
+        <v>579</v>
       </c>
       <c r="F580" t="s">
         <v>520</v>
@@ -12068,7 +12736,8 @@
     </row>
     <row r="581" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A581">
-        <v>550</v>
+        <f t="shared" si="9"/>
+        <v>580</v>
       </c>
       <c r="F581" t="s">
         <v>520</v>
@@ -12088,7 +12757,8 @@
     </row>
     <row r="582" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A582">
-        <v>551</v>
+        <f t="shared" si="9"/>
+        <v>581</v>
       </c>
       <c r="F582" t="s">
         <v>520</v>
@@ -12108,7 +12778,8 @@
     </row>
     <row r="583" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A583">
-        <v>552</v>
+        <f t="shared" si="9"/>
+        <v>582</v>
       </c>
       <c r="F583" t="s">
         <v>520</v>
@@ -12128,7 +12799,8 @@
     </row>
     <row r="584" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A584">
-        <v>553</v>
+        <f t="shared" si="9"/>
+        <v>583</v>
       </c>
       <c r="F584" t="s">
         <v>520</v>
@@ -12148,7 +12820,8 @@
     </row>
     <row r="585" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A585">
-        <v>554</v>
+        <f t="shared" si="9"/>
+        <v>584</v>
       </c>
       <c r="F585" t="s">
         <v>520</v>
@@ -12168,7 +12841,8 @@
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A586">
-        <v>555</v>
+        <f t="shared" si="9"/>
+        <v>585</v>
       </c>
       <c r="F586" t="s">
         <v>520</v>
@@ -12188,7 +12862,8 @@
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A587">
-        <v>556</v>
+        <f t="shared" si="9"/>
+        <v>586</v>
       </c>
       <c r="F587" t="s">
         <v>520</v>
@@ -12208,7 +12883,8 @@
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A588">
-        <v>557</v>
+        <f t="shared" si="9"/>
+        <v>587</v>
       </c>
       <c r="F588" t="s">
         <v>520</v>
@@ -12228,7 +12904,8 @@
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A589">
-        <v>558</v>
+        <f t="shared" si="9"/>
+        <v>588</v>
       </c>
       <c r="F589" t="s">
         <v>520</v>
@@ -12248,7 +12925,8 @@
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A590">
-        <v>559</v>
+        <f t="shared" si="9"/>
+        <v>589</v>
       </c>
       <c r="F590" t="s">
         <v>520</v>
@@ -12268,7 +12946,8 @@
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A591">
-        <v>560</v>
+        <f t="shared" si="9"/>
+        <v>590</v>
       </c>
       <c r="F591" t="s">
         <v>520</v>
@@ -12288,7 +12967,8 @@
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A592">
-        <v>561</v>
+        <f t="shared" si="9"/>
+        <v>591</v>
       </c>
       <c r="F592" t="s">
         <v>520</v>
@@ -12311,7 +12991,8 @@
     </row>
     <row r="593" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A593">
-        <v>562</v>
+        <f t="shared" si="9"/>
+        <v>592</v>
       </c>
       <c r="F593" t="s">
         <v>520</v>
@@ -12334,7 +13015,8 @@
     </row>
     <row r="594" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A594">
-        <v>563</v>
+        <f t="shared" si="9"/>
+        <v>593</v>
       </c>
       <c r="F594" t="s">
         <v>520</v>
@@ -12357,7 +13039,8 @@
     </row>
     <row r="595" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A595">
-        <v>564</v>
+        <f t="shared" si="9"/>
+        <v>594</v>
       </c>
       <c r="F595" t="s">
         <v>520</v>
@@ -12380,7 +13063,8 @@
     </row>
     <row r="596" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A596">
-        <v>565</v>
+        <f t="shared" si="9"/>
+        <v>595</v>
       </c>
       <c r="F596" t="s">
         <v>520</v>
@@ -12403,7 +13087,8 @@
     </row>
     <row r="597" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A597">
-        <v>566</v>
+        <f t="shared" si="9"/>
+        <v>596</v>
       </c>
       <c r="F597" t="s">
         <v>520</v>
@@ -12426,7 +13111,8 @@
     </row>
     <row r="598" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A598">
-        <v>567</v>
+        <f t="shared" si="9"/>
+        <v>597</v>
       </c>
       <c r="F598" t="s">
         <v>520</v>
@@ -12449,7 +13135,8 @@
     </row>
     <row r="599" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A599">
-        <v>568</v>
+        <f t="shared" si="9"/>
+        <v>598</v>
       </c>
       <c r="F599" t="s">
         <v>520</v>
@@ -12469,7 +13156,8 @@
     </row>
     <row r="600" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A600">
-        <v>569</v>
+        <f t="shared" si="9"/>
+        <v>599</v>
       </c>
       <c r="F600" t="s">
         <v>520</v>
@@ -12489,7 +13177,8 @@
     </row>
     <row r="601" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A601">
-        <v>570</v>
+        <f t="shared" si="9"/>
+        <v>600</v>
       </c>
       <c r="F601" t="s">
         <v>520</v>
@@ -12509,7 +13198,8 @@
     </row>
     <row r="602" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A602">
-        <v>571</v>
+        <f t="shared" si="9"/>
+        <v>601</v>
       </c>
       <c r="F602" t="s">
         <v>520</v>
@@ -12529,7 +13219,8 @@
     </row>
     <row r="603" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A603">
-        <v>572</v>
+        <f t="shared" si="9"/>
+        <v>602</v>
       </c>
       <c r="F603" t="s">
         <v>520</v>
@@ -12549,7 +13240,8 @@
     </row>
     <row r="604" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A604">
-        <v>573</v>
+        <f t="shared" si="9"/>
+        <v>603</v>
       </c>
       <c r="F604" t="s">
         <v>520</v>
@@ -12569,7 +13261,8 @@
     </row>
     <row r="605" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A605">
-        <v>574</v>
+        <f t="shared" si="9"/>
+        <v>604</v>
       </c>
       <c r="F605" t="s">
         <v>520</v>
@@ -12595,7 +13288,8 @@
     </row>
     <row r="606" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A606">
-        <v>575</v>
+        <f t="shared" si="9"/>
+        <v>605</v>
       </c>
       <c r="F606" t="s">
         <v>520</v>
@@ -12621,7 +13315,8 @@
     </row>
     <row r="607" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A607">
-        <v>576</v>
+        <f t="shared" si="9"/>
+        <v>606</v>
       </c>
       <c r="F607" t="s">
         <v>520</v>
@@ -12647,7 +13342,8 @@
     </row>
     <row r="608" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A608">
-        <v>577</v>
+        <f t="shared" si="9"/>
+        <v>607</v>
       </c>
       <c r="F608" t="s">
         <v>520</v>
@@ -12673,7 +13369,8 @@
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A609">
-        <v>578</v>
+        <f t="shared" si="9"/>
+        <v>608</v>
       </c>
       <c r="F609" t="s">
         <v>520</v>
@@ -12699,7 +13396,8 @@
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A610">
-        <v>579</v>
+        <f t="shared" si="9"/>
+        <v>609</v>
       </c>
       <c r="F610" t="s">
         <v>520</v>
@@ -12725,7 +13423,8 @@
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A611">
-        <v>580</v>
+        <f t="shared" si="9"/>
+        <v>610</v>
       </c>
       <c r="F611" t="s">
         <v>520</v>
@@ -12751,7 +13450,8 @@
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A612">
-        <v>581</v>
+        <f t="shared" si="9"/>
+        <v>611</v>
       </c>
       <c r="F612" t="s">
         <v>520</v>
@@ -12777,7 +13477,8 @@
     </row>
     <row r="613" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A613">
-        <v>582</v>
+        <f t="shared" si="9"/>
+        <v>612</v>
       </c>
       <c r="F613" t="s">
         <v>520</v>
@@ -12803,7 +13504,8 @@
     </row>
     <row r="614" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A614">
-        <v>583</v>
+        <f t="shared" si="9"/>
+        <v>613</v>
       </c>
       <c r="F614" t="s">
         <v>520</v>
@@ -12829,7 +13531,8 @@
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A615">
-        <v>584</v>
+        <f t="shared" si="9"/>
+        <v>614</v>
       </c>
       <c r="F615" t="s">
         <v>520</v>
@@ -12855,7 +13558,8 @@
     </row>
     <row r="616" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A616">
-        <v>585</v>
+        <f t="shared" si="9"/>
+        <v>615</v>
       </c>
       <c r="F616" t="s">
         <v>520</v>
@@ -12881,7 +13585,8 @@
     </row>
     <row r="617" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A617">
-        <v>586</v>
+        <f t="shared" si="9"/>
+        <v>616</v>
       </c>
       <c r="F617" t="s">
         <v>520</v>
@@ -12907,7 +13612,8 @@
     </row>
     <row r="618" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A618">
-        <v>587</v>
+        <f t="shared" si="9"/>
+        <v>617</v>
       </c>
       <c r="F618" t="s">
         <v>520</v>
@@ -12933,7 +13639,8 @@
     </row>
     <row r="619" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A619">
-        <v>588</v>
+        <f t="shared" si="9"/>
+        <v>618</v>
       </c>
       <c r="F619" t="s">
         <v>520</v>
@@ -12959,7 +13666,8 @@
     </row>
     <row r="620" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A620">
-        <v>589</v>
+        <f t="shared" si="9"/>
+        <v>619</v>
       </c>
       <c r="F620" t="s">
         <v>520</v>
@@ -12982,7 +13690,8 @@
     </row>
     <row r="621" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A621">
-        <v>590</v>
+        <f t="shared" si="9"/>
+        <v>620</v>
       </c>
       <c r="F621" t="s">
         <v>520</v>
@@ -13005,7 +13714,8 @@
     </row>
     <row r="622" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A622">
-        <v>591</v>
+        <f t="shared" si="9"/>
+        <v>621</v>
       </c>
       <c r="F622" t="s">
         <v>520</v>
@@ -13028,7 +13738,8 @@
     </row>
     <row r="623" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A623">
-        <v>592</v>
+        <f t="shared" si="9"/>
+        <v>622</v>
       </c>
       <c r="F623" t="s">
         <v>520</v>
@@ -13051,7 +13762,8 @@
     </row>
     <row r="624" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A624">
-        <v>593</v>
+        <f t="shared" si="9"/>
+        <v>623</v>
       </c>
       <c r="F624" t="s">
         <v>520</v>
@@ -13074,7 +13786,8 @@
     </row>
     <row r="625" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A625">
-        <v>594</v>
+        <f t="shared" si="9"/>
+        <v>624</v>
       </c>
       <c r="F625" t="s">
         <v>520</v>
@@ -13097,7 +13810,8 @@
     </row>
     <row r="626" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A626">
-        <v>595</v>
+        <f t="shared" si="9"/>
+        <v>625</v>
       </c>
       <c r="F626" t="s">
         <v>520</v>
@@ -13120,7 +13834,8 @@
     </row>
     <row r="627" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A627">
-        <v>596</v>
+        <f t="shared" si="9"/>
+        <v>626</v>
       </c>
       <c r="F627" t="s">
         <v>520</v>
@@ -13143,7 +13858,8 @@
     </row>
     <row r="628" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A628">
-        <v>597</v>
+        <f t="shared" si="9"/>
+        <v>627</v>
       </c>
       <c r="F628" t="s">
         <v>520</v>
@@ -13166,7 +13882,8 @@
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A629">
-        <v>598</v>
+        <f t="shared" si="9"/>
+        <v>628</v>
       </c>
       <c r="F629" t="s">
         <v>520</v>
@@ -13189,7 +13906,8 @@
     </row>
     <row r="630" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A630">
-        <v>599</v>
+        <f t="shared" si="9"/>
+        <v>629</v>
       </c>
       <c r="F630" t="s">
         <v>520</v>
@@ -13212,7 +13930,8 @@
     </row>
     <row r="631" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A631">
-        <v>600</v>
+        <f t="shared" si="9"/>
+        <v>630</v>
       </c>
       <c r="F631" t="s">
         <v>520</v>
@@ -13235,7 +13954,8 @@
     </row>
     <row r="632" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A632">
-        <v>601</v>
+        <f t="shared" si="9"/>
+        <v>631</v>
       </c>
       <c r="F632" t="s">
         <v>520</v>
@@ -13258,7 +13978,8 @@
     </row>
     <row r="633" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A633">
-        <v>602</v>
+        <f t="shared" si="9"/>
+        <v>632</v>
       </c>
       <c r="F633" t="s">
         <v>520</v>
@@ -13281,7 +14002,8 @@
     </row>
     <row r="634" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A634">
-        <v>603</v>
+        <f t="shared" si="9"/>
+        <v>633</v>
       </c>
       <c r="F634" t="s">
         <v>520</v>
@@ -13304,7 +14026,8 @@
     </row>
     <row r="635" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A635">
-        <v>604</v>
+        <f t="shared" si="9"/>
+        <v>634</v>
       </c>
       <c r="F635" t="s">
         <v>520</v>
@@ -13327,7 +14050,8 @@
     </row>
     <row r="636" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A636">
-        <v>605</v>
+        <f t="shared" si="9"/>
+        <v>635</v>
       </c>
       <c r="F636" t="s">
         <v>520</v>
@@ -13350,7 +14074,8 @@
     </row>
     <row r="637" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A637">
-        <v>606</v>
+        <f t="shared" si="9"/>
+        <v>636</v>
       </c>
       <c r="F637" t="s">
         <v>520</v>
@@ -13373,7 +14098,8 @@
     </row>
     <row r="638" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A638">
-        <v>607</v>
+        <f t="shared" si="9"/>
+        <v>637</v>
       </c>
       <c r="F638" t="s">
         <v>520</v>
@@ -13396,7 +14122,8 @@
     </row>
     <row r="639" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A639">
-        <v>608</v>
+        <f t="shared" si="9"/>
+        <v>638</v>
       </c>
       <c r="F639" t="s">
         <v>520</v>
@@ -13419,7 +14146,8 @@
     </row>
     <row r="640" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A640">
-        <v>609</v>
+        <f t="shared" si="9"/>
+        <v>639</v>
       </c>
       <c r="F640" t="s">
         <v>520</v>
@@ -13442,7 +14170,8 @@
     </row>
     <row r="641" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A641">
-        <v>610</v>
+        <f t="shared" si="9"/>
+        <v>640</v>
       </c>
       <c r="F641" t="s">
         <v>520</v>
@@ -13465,7 +14194,8 @@
     </row>
     <row r="642" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A642">
-        <v>611</v>
+        <f t="shared" si="9"/>
+        <v>641</v>
       </c>
       <c r="F642" t="s">
         <v>520</v>
@@ -13488,7 +14218,8 @@
     </row>
     <row r="643" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A643">
-        <v>612</v>
+        <f t="shared" si="9"/>
+        <v>642</v>
       </c>
       <c r="F643" t="s">
         <v>520</v>
@@ -13511,7 +14242,8 @@
     </row>
     <row r="644" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A644">
-        <v>613</v>
+        <f t="shared" ref="A644:A707" si="10">1+A643</f>
+        <v>643</v>
       </c>
       <c r="F644" t="s">
         <v>520</v>
@@ -13534,7 +14266,8 @@
     </row>
     <row r="645" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A645">
-        <v>614</v>
+        <f t="shared" si="10"/>
+        <v>644</v>
       </c>
       <c r="F645" t="s">
         <v>520</v>
@@ -13557,7 +14290,8 @@
     </row>
     <row r="646" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A646">
-        <v>615</v>
+        <f t="shared" si="10"/>
+        <v>645</v>
       </c>
       <c r="F646" t="s">
         <v>520</v>
@@ -13580,7 +14314,8 @@
     </row>
     <row r="647" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A647">
-        <v>616</v>
+        <f t="shared" si="10"/>
+        <v>646</v>
       </c>
       <c r="F647" t="s">
         <v>520</v>
@@ -13603,7 +14338,8 @@
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A648">
-        <v>617</v>
+        <f t="shared" si="10"/>
+        <v>647</v>
       </c>
       <c r="F648" t="s">
         <v>520</v>
@@ -13626,7 +14362,8 @@
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A649">
-        <v>618</v>
+        <f t="shared" si="10"/>
+        <v>648</v>
       </c>
       <c r="F649" t="s">
         <v>520</v>
@@ -13649,7 +14386,8 @@
     </row>
     <row r="650" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A650">
-        <v>619</v>
+        <f t="shared" si="10"/>
+        <v>649</v>
       </c>
       <c r="F650" t="s">
         <v>520</v>
@@ -13672,7 +14410,8 @@
     </row>
     <row r="651" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A651">
-        <v>620</v>
+        <f t="shared" si="10"/>
+        <v>650</v>
       </c>
       <c r="F651" t="s">
         <v>520</v>
@@ -13695,7 +14434,8 @@
     </row>
     <row r="652" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A652">
-        <v>621</v>
+        <f t="shared" si="10"/>
+        <v>651</v>
       </c>
       <c r="F652" t="s">
         <v>520</v>
@@ -13718,7 +14458,8 @@
     </row>
     <row r="653" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A653">
-        <v>622</v>
+        <f t="shared" si="10"/>
+        <v>652</v>
       </c>
       <c r="F653" t="s">
         <v>520</v>
@@ -13741,7 +14482,8 @@
     </row>
     <row r="654" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A654">
-        <v>623</v>
+        <f t="shared" si="10"/>
+        <v>653</v>
       </c>
       <c r="F654" t="s">
         <v>520</v>
@@ -13764,7 +14506,8 @@
     </row>
     <row r="655" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A655">
-        <v>624</v>
+        <f t="shared" si="10"/>
+        <v>654</v>
       </c>
       <c r="F655" t="s">
         <v>520</v>
@@ -13787,7 +14530,8 @@
     </row>
     <row r="656" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A656">
-        <v>625</v>
+        <f t="shared" si="10"/>
+        <v>655</v>
       </c>
       <c r="F656" t="s">
         <v>520</v>
@@ -13807,7 +14551,8 @@
     </row>
     <row r="657" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A657">
-        <v>626</v>
+        <f t="shared" si="10"/>
+        <v>656</v>
       </c>
       <c r="F657" t="s">
         <v>520</v>
@@ -13827,7 +14572,8 @@
     </row>
     <row r="658" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A658">
-        <v>627</v>
+        <f t="shared" si="10"/>
+        <v>657</v>
       </c>
       <c r="F658" t="s">
         <v>520</v>
@@ -13847,7 +14593,8 @@
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A659">
-        <v>628</v>
+        <f t="shared" si="10"/>
+        <v>658</v>
       </c>
       <c r="F659" t="s">
         <v>520</v>
@@ -13864,7 +14611,8 @@
     </row>
     <row r="660" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A660">
-        <v>629</v>
+        <f t="shared" si="10"/>
+        <v>659</v>
       </c>
       <c r="F660" t="s">
         <v>520</v>
@@ -13881,7 +14629,8 @@
     </row>
     <row r="661" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A661">
-        <v>630</v>
+        <f t="shared" si="10"/>
+        <v>660</v>
       </c>
       <c r="F661" t="s">
         <v>520</v>
@@ -13904,7 +14653,8 @@
     </row>
     <row r="662" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A662">
-        <v>631</v>
+        <f t="shared" si="10"/>
+        <v>661</v>
       </c>
       <c r="F662" t="s">
         <v>520</v>
@@ -13927,7 +14677,8 @@
     </row>
     <row r="663" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A663">
-        <v>632</v>
+        <f t="shared" si="10"/>
+        <v>662</v>
       </c>
       <c r="F663" t="s">
         <v>520</v>
@@ -13950,7 +14701,8 @@
     </row>
     <row r="664" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A664">
-        <v>633</v>
+        <f t="shared" si="10"/>
+        <v>663</v>
       </c>
       <c r="F664" t="s">
         <v>520</v>
@@ -13973,7 +14725,8 @@
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A665">
-        <v>634</v>
+        <f t="shared" si="10"/>
+        <v>664</v>
       </c>
       <c r="F665" t="s">
         <v>520</v>
@@ -13996,7 +14749,8 @@
     </row>
     <row r="666" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A666">
-        <v>635</v>
+        <f t="shared" si="10"/>
+        <v>665</v>
       </c>
       <c r="F666" t="s">
         <v>520</v>
@@ -14019,7 +14773,8 @@
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A667">
-        <v>636</v>
+        <f t="shared" si="10"/>
+        <v>666</v>
       </c>
       <c r="F667" t="s">
         <v>520</v>
@@ -14042,7 +14797,8 @@
     </row>
     <row r="668" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A668">
-        <v>637</v>
+        <f t="shared" si="10"/>
+        <v>667</v>
       </c>
       <c r="F668" t="s">
         <v>520</v>
@@ -14065,7 +14821,8 @@
     </row>
     <row r="669" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A669">
-        <v>638</v>
+        <f t="shared" si="10"/>
+        <v>668</v>
       </c>
       <c r="F669" t="s">
         <v>520</v>
@@ -14088,7 +14845,8 @@
     </row>
     <row r="670" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A670">
-        <v>639</v>
+        <f t="shared" si="10"/>
+        <v>669</v>
       </c>
       <c r="F670" t="s">
         <v>520</v>
@@ -14111,7 +14869,8 @@
     </row>
     <row r="671" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A671">
-        <v>640</v>
+        <f t="shared" si="10"/>
+        <v>670</v>
       </c>
       <c r="F671" t="s">
         <v>520</v>
@@ -14134,7 +14893,8 @@
     </row>
     <row r="672" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A672">
-        <v>641</v>
+        <f t="shared" si="10"/>
+        <v>671</v>
       </c>
       <c r="F672" t="s">
         <v>520</v>
@@ -14157,7 +14917,8 @@
     </row>
     <row r="673" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A673">
-        <v>642</v>
+        <f t="shared" si="10"/>
+        <v>672</v>
       </c>
       <c r="F673" t="s">
         <v>520</v>
@@ -14180,7 +14941,8 @@
     </row>
     <row r="674" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A674">
-        <v>643</v>
+        <f t="shared" si="10"/>
+        <v>673</v>
       </c>
       <c r="F674" t="s">
         <v>520</v>
@@ -14203,7 +14965,8 @@
     </row>
     <row r="675" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A675">
-        <v>644</v>
+        <f t="shared" si="10"/>
+        <v>674</v>
       </c>
       <c r="F675" t="s">
         <v>520</v>
@@ -14223,7 +14986,8 @@
     </row>
     <row r="676" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A676">
-        <v>645</v>
+        <f t="shared" si="10"/>
+        <v>675</v>
       </c>
       <c r="F676" t="s">
         <v>520</v>
@@ -14243,7 +15007,8 @@
     </row>
     <row r="677" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A677">
-        <v>646</v>
+        <f t="shared" si="10"/>
+        <v>676</v>
       </c>
       <c r="F677" t="s">
         <v>520</v>
@@ -14260,7 +15025,8 @@
     </row>
     <row r="678" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A678">
-        <v>647</v>
+        <f t="shared" si="10"/>
+        <v>677</v>
       </c>
       <c r="F678" t="s">
         <v>520</v>
@@ -14277,7 +15043,8 @@
     </row>
     <row r="679" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A679">
-        <v>648</v>
+        <f t="shared" si="10"/>
+        <v>678</v>
       </c>
       <c r="F679" t="s">
         <v>520</v>
@@ -14294,7 +15061,8 @@
     </row>
     <row r="680" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A680">
-        <v>649</v>
+        <f t="shared" si="10"/>
+        <v>679</v>
       </c>
       <c r="F680" t="s">
         <v>520</v>
@@ -14311,7 +15079,8 @@
     </row>
     <row r="681" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A681">
-        <v>650</v>
+        <f t="shared" si="10"/>
+        <v>680</v>
       </c>
       <c r="F681" t="s">
         <v>520</v>
@@ -14328,7 +15097,8 @@
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A682">
-        <v>651</v>
+        <f t="shared" si="10"/>
+        <v>681</v>
       </c>
       <c r="F682" t="s">
         <v>520</v>
@@ -14345,7 +15115,8 @@
     </row>
     <row r="683" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A683">
-        <v>652</v>
+        <f t="shared" si="10"/>
+        <v>682</v>
       </c>
       <c r="F683" t="s">
         <v>520</v>
@@ -14362,7 +15133,8 @@
     </row>
     <row r="684" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A684">
-        <v>653</v>
+        <f t="shared" si="10"/>
+        <v>683</v>
       </c>
       <c r="F684" t="s">
         <v>520</v>
@@ -14379,7 +15151,8 @@
     </row>
     <row r="685" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A685">
-        <v>654</v>
+        <f t="shared" si="10"/>
+        <v>684</v>
       </c>
       <c r="F685" t="s">
         <v>520</v>
@@ -14396,7 +15169,8 @@
     </row>
     <row r="686" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A686">
-        <v>655</v>
+        <f t="shared" si="10"/>
+        <v>685</v>
       </c>
       <c r="F686" t="s">
         <v>520</v>
@@ -14413,7 +15187,8 @@
     </row>
     <row r="687" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A687">
-        <v>656</v>
+        <f t="shared" si="10"/>
+        <v>686</v>
       </c>
       <c r="F687" t="s">
         <v>520</v>
@@ -14430,7 +15205,8 @@
     </row>
     <row r="688" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A688">
-        <v>657</v>
+        <f t="shared" si="10"/>
+        <v>687</v>
       </c>
       <c r="F688" t="s">
         <v>520</v>
@@ -14447,7 +15223,8 @@
     </row>
     <row r="689" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A689">
-        <v>658</v>
+        <f t="shared" si="10"/>
+        <v>688</v>
       </c>
       <c r="F689" t="s">
         <v>520</v>
@@ -14464,7 +15241,8 @@
     </row>
     <row r="690" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A690">
-        <v>659</v>
+        <f t="shared" si="10"/>
+        <v>689</v>
       </c>
       <c r="F690" t="s">
         <v>520</v>
@@ -14481,7 +15259,8 @@
     </row>
     <row r="691" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A691">
-        <v>660</v>
+        <f t="shared" si="10"/>
+        <v>690</v>
       </c>
       <c r="F691" t="s">
         <v>520</v>
@@ -14498,7 +15277,8 @@
     </row>
     <row r="692" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A692">
-        <v>661</v>
+        <f t="shared" si="10"/>
+        <v>691</v>
       </c>
       <c r="F692" t="s">
         <v>520</v>
@@ -14515,7 +15295,8 @@
     </row>
     <row r="693" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A693">
-        <v>662</v>
+        <f t="shared" si="10"/>
+        <v>692</v>
       </c>
       <c r="F693" t="s">
         <v>520</v>
@@ -14532,7 +15313,8 @@
     </row>
     <row r="694" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A694">
-        <v>663</v>
+        <f t="shared" si="10"/>
+        <v>693</v>
       </c>
       <c r="F694" t="s">
         <v>520</v>
@@ -14549,7 +15331,8 @@
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A695">
-        <v>664</v>
+        <f t="shared" si="10"/>
+        <v>694</v>
       </c>
       <c r="F695" t="s">
         <v>520</v>
@@ -14566,7 +15349,8 @@
     </row>
     <row r="696" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A696">
-        <v>665</v>
+        <f t="shared" si="10"/>
+        <v>695</v>
       </c>
       <c r="F696" t="s">
         <v>520</v>
@@ -14583,7 +15367,8 @@
     </row>
     <row r="697" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A697">
-        <v>666</v>
+        <f t="shared" si="10"/>
+        <v>696</v>
       </c>
       <c r="F697" t="s">
         <v>520</v>
@@ -14600,7 +15385,8 @@
     </row>
     <row r="698" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A698">
-        <v>667</v>
+        <f t="shared" si="10"/>
+        <v>697</v>
       </c>
       <c r="F698" t="s">
         <v>520</v>
@@ -14617,7 +15403,8 @@
     </row>
     <row r="699" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A699">
-        <v>668</v>
+        <f t="shared" si="10"/>
+        <v>698</v>
       </c>
       <c r="F699" t="s">
         <v>520</v>
@@ -14634,7 +15421,8 @@
     </row>
     <row r="700" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A700">
-        <v>669</v>
+        <f t="shared" si="10"/>
+        <v>699</v>
       </c>
       <c r="F700" t="s">
         <v>520</v>
@@ -14651,7 +15439,8 @@
     </row>
     <row r="701" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A701">
-        <v>670</v>
+        <f t="shared" si="10"/>
+        <v>700</v>
       </c>
       <c r="F701" t="s">
         <v>520</v>
@@ -14668,7 +15457,8 @@
     </row>
     <row r="702" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A702">
-        <v>671</v>
+        <f t="shared" si="10"/>
+        <v>701</v>
       </c>
       <c r="F702" t="s">
         <v>520</v>
@@ -14688,7 +15478,8 @@
     </row>
     <row r="703" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A703">
-        <v>672</v>
+        <f t="shared" si="10"/>
+        <v>702</v>
       </c>
       <c r="F703" t="s">
         <v>520</v>
@@ -14708,7 +15499,8 @@
     </row>
     <row r="704" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A704">
-        <v>673</v>
+        <f t="shared" si="10"/>
+        <v>703</v>
       </c>
       <c r="F704" t="s">
         <v>520</v>
@@ -14728,7 +15520,8 @@
     </row>
     <row r="705" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A705">
-        <v>674</v>
+        <f t="shared" si="10"/>
+        <v>704</v>
       </c>
       <c r="F705" t="s">
         <v>520</v>
@@ -14748,7 +15541,8 @@
     </row>
     <row r="706" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A706">
-        <v>675</v>
+        <f t="shared" si="10"/>
+        <v>705</v>
       </c>
       <c r="F706" t="s">
         <v>520</v>
@@ -14768,7 +15562,8 @@
     </row>
     <row r="707" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A707">
-        <v>676</v>
+        <f t="shared" si="10"/>
+        <v>706</v>
       </c>
       <c r="F707" t="s">
         <v>520</v>
@@ -14788,7 +15583,8 @@
     </row>
     <row r="708" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A708">
-        <v>677</v>
+        <f t="shared" ref="A708:A771" si="11">1+A707</f>
+        <v>707</v>
       </c>
       <c r="F708" t="s">
         <v>520</v>
@@ -14808,7 +15604,8 @@
     </row>
     <row r="709" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A709">
-        <v>678</v>
+        <f t="shared" si="11"/>
+        <v>708</v>
       </c>
       <c r="F709" t="s">
         <v>520</v>
@@ -14828,7 +15625,8 @@
     </row>
     <row r="710" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A710">
-        <v>679</v>
+        <f t="shared" si="11"/>
+        <v>709</v>
       </c>
       <c r="F710" t="s">
         <v>520</v>
@@ -14848,7 +15646,8 @@
     </row>
     <row r="711" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A711">
-        <v>680</v>
+        <f t="shared" si="11"/>
+        <v>710</v>
       </c>
       <c r="F711" t="s">
         <v>520</v>
@@ -14868,7 +15667,8 @@
     </row>
     <row r="712" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A712">
-        <v>681</v>
+        <f t="shared" si="11"/>
+        <v>711</v>
       </c>
       <c r="F712" t="s">
         <v>520</v>
@@ -14888,7 +15688,8 @@
     </row>
     <row r="713" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A713">
-        <v>682</v>
+        <f t="shared" si="11"/>
+        <v>712</v>
       </c>
       <c r="F713" t="s">
         <v>520</v>
@@ -14908,7 +15709,8 @@
     </row>
     <row r="714" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A714">
-        <v>683</v>
+        <f t="shared" si="11"/>
+        <v>713</v>
       </c>
       <c r="F714" t="s">
         <v>520</v>
@@ -14928,7 +15730,8 @@
     </row>
     <row r="715" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A715">
-        <v>684</v>
+        <f t="shared" si="11"/>
+        <v>714</v>
       </c>
       <c r="F715" t="s">
         <v>520</v>
@@ -14948,7 +15751,8 @@
     </row>
     <row r="716" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A716">
-        <v>685</v>
+        <f t="shared" si="11"/>
+        <v>715</v>
       </c>
       <c r="F716" t="s">
         <v>520</v>
@@ -14968,7 +15772,8 @@
     </row>
     <row r="717" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A717">
-        <v>686</v>
+        <f t="shared" si="11"/>
+        <v>716</v>
       </c>
       <c r="F717" t="s">
         <v>520</v>
@@ -14988,7 +15793,8 @@
     </row>
     <row r="718" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A718">
-        <v>687</v>
+        <f t="shared" si="11"/>
+        <v>717</v>
       </c>
       <c r="F718" t="s">
         <v>520</v>
@@ -15008,7 +15814,8 @@
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A719">
-        <v>688</v>
+        <f t="shared" si="11"/>
+        <v>718</v>
       </c>
       <c r="F719" t="s">
         <v>520</v>
@@ -15028,7 +15835,8 @@
     </row>
     <row r="720" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A720">
-        <v>689</v>
+        <f t="shared" si="11"/>
+        <v>719</v>
       </c>
       <c r="F720" t="s">
         <v>520</v>
@@ -15048,7 +15856,8 @@
     </row>
     <row r="721" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A721">
-        <v>690</v>
+        <f t="shared" si="11"/>
+        <v>720</v>
       </c>
       <c r="F721" t="s">
         <v>520</v>
@@ -15068,7 +15877,8 @@
     </row>
     <row r="722" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A722">
-        <v>691</v>
+        <f t="shared" si="11"/>
+        <v>721</v>
       </c>
       <c r="F722" t="s">
         <v>520</v>
@@ -15088,7 +15898,8 @@
     </row>
     <row r="723" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A723">
-        <v>692</v>
+        <f t="shared" si="11"/>
+        <v>722</v>
       </c>
       <c r="F723" t="s">
         <v>520</v>
@@ -15108,7 +15919,8 @@
     </row>
     <row r="724" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A724">
-        <v>693</v>
+        <f t="shared" si="11"/>
+        <v>723</v>
       </c>
       <c r="F724" t="s">
         <v>520</v>
@@ -15128,7 +15940,8 @@
     </row>
     <row r="725" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A725">
-        <v>694</v>
+        <f t="shared" si="11"/>
+        <v>724</v>
       </c>
       <c r="F725" t="s">
         <v>520</v>
@@ -15148,7 +15961,8 @@
     </row>
     <row r="726" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A726">
-        <v>695</v>
+        <f t="shared" si="11"/>
+        <v>725</v>
       </c>
       <c r="F726" t="s">
         <v>520</v>
@@ -15168,7 +15982,8 @@
     </row>
     <row r="727" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A727">
-        <v>696</v>
+        <f t="shared" si="11"/>
+        <v>726</v>
       </c>
       <c r="F727" t="s">
         <v>520</v>
@@ -15188,7 +16003,8 @@
     </row>
     <row r="728" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A728">
-        <v>697</v>
+        <f t="shared" si="11"/>
+        <v>727</v>
       </c>
       <c r="F728" t="s">
         <v>520</v>
@@ -15208,7 +16024,8 @@
     </row>
     <row r="729" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A729">
-        <v>698</v>
+        <f t="shared" si="11"/>
+        <v>728</v>
       </c>
       <c r="F729" t="s">
         <v>520</v>
@@ -15228,7 +16045,8 @@
     </row>
     <row r="730" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A730">
-        <v>699</v>
+        <f t="shared" si="11"/>
+        <v>729</v>
       </c>
       <c r="F730" t="s">
         <v>520</v>
@@ -15248,7 +16066,8 @@
     </row>
     <row r="731" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A731">
-        <v>700</v>
+        <f t="shared" si="11"/>
+        <v>730</v>
       </c>
       <c r="F731" t="s">
         <v>520</v>
@@ -15268,7 +16087,8 @@
     </row>
     <row r="732" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A732">
-        <v>701</v>
+        <f t="shared" si="11"/>
+        <v>731</v>
       </c>
       <c r="F732" t="s">
         <v>520</v>
@@ -15288,7 +16108,8 @@
     </row>
     <row r="733" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A733">
-        <v>702</v>
+        <f t="shared" si="11"/>
+        <v>732</v>
       </c>
       <c r="F733" t="s">
         <v>520</v>
@@ -15308,7 +16129,8 @@
     </row>
     <row r="734" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A734">
-        <v>703</v>
+        <f t="shared" si="11"/>
+        <v>733</v>
       </c>
       <c r="F734" t="s">
         <v>520</v>
@@ -15328,7 +16150,8 @@
     </row>
     <row r="735" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A735">
-        <v>704</v>
+        <f t="shared" si="11"/>
+        <v>734</v>
       </c>
       <c r="F735" t="s">
         <v>520</v>
@@ -15348,7 +16171,8 @@
     </row>
     <row r="736" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A736">
-        <v>705</v>
+        <f t="shared" si="11"/>
+        <v>735</v>
       </c>
       <c r="F736" t="s">
         <v>520</v>
@@ -15368,7 +16192,8 @@
     </row>
     <row r="737" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A737">
-        <v>706</v>
+        <f t="shared" si="11"/>
+        <v>736</v>
       </c>
       <c r="F737" t="s">
         <v>520</v>
@@ -15388,7 +16213,8 @@
     </row>
     <row r="738" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A738">
-        <v>707</v>
+        <f t="shared" si="11"/>
+        <v>737</v>
       </c>
       <c r="F738" t="s">
         <v>520</v>
@@ -15408,7 +16234,8 @@
     </row>
     <row r="739" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A739">
-        <v>708</v>
+        <f t="shared" si="11"/>
+        <v>738</v>
       </c>
       <c r="F739" t="s">
         <v>520</v>
@@ -15428,7 +16255,8 @@
     </row>
     <row r="740" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A740">
-        <v>709</v>
+        <f t="shared" si="11"/>
+        <v>739</v>
       </c>
       <c r="F740" t="s">
         <v>520</v>
@@ -15448,7 +16276,8 @@
     </row>
     <row r="741" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A741">
-        <v>710</v>
+        <f t="shared" si="11"/>
+        <v>740</v>
       </c>
       <c r="F741" t="s">
         <v>520</v>
@@ -15468,7 +16297,8 @@
     </row>
     <row r="742" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A742">
-        <v>711</v>
+        <f t="shared" si="11"/>
+        <v>741</v>
       </c>
       <c r="F742" t="s">
         <v>520</v>
@@ -15488,7 +16318,8 @@
     </row>
     <row r="743" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A743">
-        <v>712</v>
+        <f t="shared" si="11"/>
+        <v>742</v>
       </c>
       <c r="F743" t="s">
         <v>520</v>
@@ -15508,7 +16339,8 @@
     </row>
     <row r="744" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A744">
-        <v>713</v>
+        <f t="shared" si="11"/>
+        <v>743</v>
       </c>
       <c r="F744" t="s">
         <v>520</v>
@@ -15531,7 +16363,8 @@
     </row>
     <row r="745" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A745">
-        <v>714</v>
+        <f t="shared" si="11"/>
+        <v>744</v>
       </c>
       <c r="F745" t="s">
         <v>520</v>
@@ -15554,7 +16387,8 @@
     </row>
     <row r="746" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A746">
-        <v>715</v>
+        <f t="shared" si="11"/>
+        <v>745</v>
       </c>
       <c r="F746" t="s">
         <v>520</v>
@@ -15577,7 +16411,8 @@
     </row>
     <row r="747" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A747">
-        <v>716</v>
+        <f t="shared" si="11"/>
+        <v>746</v>
       </c>
       <c r="F747" t="s">
         <v>520</v>
@@ -15600,7 +16435,8 @@
     </row>
     <row r="748" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A748">
-        <v>717</v>
+        <f t="shared" si="11"/>
+        <v>747</v>
       </c>
       <c r="F748" t="s">
         <v>520</v>
@@ -15623,7 +16459,8 @@
     </row>
     <row r="749" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A749">
-        <v>718</v>
+        <f t="shared" si="11"/>
+        <v>748</v>
       </c>
       <c r="F749" t="s">
         <v>520</v>
@@ -15646,7 +16483,8 @@
     </row>
     <row r="750" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A750">
-        <v>719</v>
+        <f t="shared" si="11"/>
+        <v>749</v>
       </c>
       <c r="F750" t="s">
         <v>520</v>
@@ -15669,7 +16507,8 @@
     </row>
     <row r="751" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A751">
-        <v>720</v>
+        <f t="shared" si="11"/>
+        <v>750</v>
       </c>
       <c r="F751" t="s">
         <v>520</v>
@@ -15692,7 +16531,8 @@
     </row>
     <row r="752" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A752">
-        <v>721</v>
+        <f t="shared" si="11"/>
+        <v>751</v>
       </c>
       <c r="F752" t="s">
         <v>520</v>
@@ -15718,7 +16558,8 @@
     </row>
     <row r="753" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A753">
-        <v>722</v>
+        <f t="shared" si="11"/>
+        <v>752</v>
       </c>
       <c r="F753" t="s">
         <v>520</v>
@@ -15744,7 +16585,8 @@
     </row>
     <row r="754" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A754">
-        <v>723</v>
+        <f t="shared" si="11"/>
+        <v>753</v>
       </c>
       <c r="F754" t="s">
         <v>520</v>
@@ -15770,7 +16612,8 @@
     </row>
     <row r="755" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A755">
-        <v>724</v>
+        <f t="shared" si="11"/>
+        <v>754</v>
       </c>
       <c r="F755" t="s">
         <v>520</v>
@@ -15795,6 +16638,10 @@
       </c>
     </row>
     <row r="756" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A756">
+        <f t="shared" si="11"/>
+        <v>755</v>
+      </c>
       <c r="F756" t="s">
         <v>520</v>
       </c>
@@ -15818,6 +16665,10 @@
       </c>
     </row>
     <row r="757" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A757">
+        <f t="shared" si="11"/>
+        <v>756</v>
+      </c>
       <c r="F757" t="s">
         <v>520</v>
       </c>
@@ -15841,6 +16692,10 @@
       </c>
     </row>
     <row r="758" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A758">
+        <f t="shared" si="11"/>
+        <v>757</v>
+      </c>
       <c r="F758" t="s">
         <v>520</v>
       </c>
@@ -15864,6 +16719,10 @@
       </c>
     </row>
     <row r="759" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A759">
+        <f t="shared" si="11"/>
+        <v>758</v>
+      </c>
       <c r="F759" t="s">
         <v>520</v>
       </c>
@@ -15887,6 +16746,10 @@
       </c>
     </row>
     <row r="760" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A760">
+        <f t="shared" si="11"/>
+        <v>759</v>
+      </c>
       <c r="F760" t="s">
         <v>520</v>
       </c>
@@ -15910,6 +16773,10 @@
       </c>
     </row>
     <row r="761" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A761">
+        <f t="shared" si="11"/>
+        <v>760</v>
+      </c>
       <c r="F761" t="s">
         <v>520</v>
       </c>
@@ -15933,6 +16800,10 @@
       </c>
     </row>
     <row r="762" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A762">
+        <f t="shared" si="11"/>
+        <v>761</v>
+      </c>
       <c r="F762" t="s">
         <v>520</v>
       </c>
@@ -15956,6 +16827,10 @@
       </c>
     </row>
     <row r="763" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A763">
+        <f t="shared" si="11"/>
+        <v>762</v>
+      </c>
       <c r="F763" t="s">
         <v>520</v>
       </c>
@@ -15979,6 +16854,10 @@
       </c>
     </row>
     <row r="764" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A764">
+        <f t="shared" si="11"/>
+        <v>763</v>
+      </c>
       <c r="F764" t="s">
         <v>520</v>
       </c>
@@ -16002,6 +16881,10 @@
       </c>
     </row>
     <row r="765" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A765">
+        <f t="shared" si="11"/>
+        <v>764</v>
+      </c>
       <c r="F765" t="s">
         <v>520</v>
       </c>
@@ -16025,6 +16908,10 @@
       </c>
     </row>
     <row r="766" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A766">
+        <f t="shared" si="11"/>
+        <v>765</v>
+      </c>
       <c r="F766" t="s">
         <v>520</v>
       </c>
@@ -16049,7 +16936,8 @@
     </row>
     <row r="767" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A767">
-        <v>725</v>
+        <f t="shared" si="11"/>
+        <v>766</v>
       </c>
       <c r="F767" t="s">
         <v>520</v>
@@ -16072,7 +16960,8 @@
     </row>
     <row r="768" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A768">
-        <v>726</v>
+        <f t="shared" si="11"/>
+        <v>767</v>
       </c>
       <c r="F768" t="s">
         <v>520</v>
@@ -16095,7 +16984,8 @@
     </row>
     <row r="769" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A769">
-        <v>727</v>
+        <f t="shared" si="11"/>
+        <v>768</v>
       </c>
       <c r="F769" t="s">
         <v>520</v>
@@ -16118,7 +17008,8 @@
     </row>
     <row r="770" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A770">
-        <v>728</v>
+        <f t="shared" si="11"/>
+        <v>769</v>
       </c>
       <c r="F770" t="s">
         <v>520</v>
@@ -16141,7 +17032,8 @@
     </row>
     <row r="771" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A771">
-        <v>729</v>
+        <f t="shared" si="11"/>
+        <v>770</v>
       </c>
       <c r="F771" t="s">
         <v>520</v>
@@ -16164,7 +17056,8 @@
     </row>
     <row r="772" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A772">
-        <v>730</v>
+        <f t="shared" ref="A772:A835" si="12">1+A771</f>
+        <v>771</v>
       </c>
       <c r="F772" t="s">
         <v>520</v>
@@ -16184,7 +17077,8 @@
     </row>
     <row r="773" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A773">
-        <v>731</v>
+        <f t="shared" si="12"/>
+        <v>772</v>
       </c>
       <c r="F773" t="s">
         <v>520</v>
@@ -16204,7 +17098,8 @@
     </row>
     <row r="774" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A774">
-        <v>732</v>
+        <f t="shared" si="12"/>
+        <v>773</v>
       </c>
       <c r="F774" t="s">
         <v>520</v>
@@ -16224,7 +17119,8 @@
     </row>
     <row r="775" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A775">
-        <v>733</v>
+        <f t="shared" si="12"/>
+        <v>774</v>
       </c>
       <c r="F775" t="s">
         <v>520</v>
@@ -16244,7 +17140,8 @@
     </row>
     <row r="776" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A776">
-        <v>734</v>
+        <f t="shared" si="12"/>
+        <v>775</v>
       </c>
       <c r="F776" t="s">
         <v>520</v>
@@ -16264,7 +17161,8 @@
     </row>
     <row r="777" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A777">
-        <v>735</v>
+        <f t="shared" si="12"/>
+        <v>776</v>
       </c>
       <c r="F777" t="s">
         <v>520</v>
@@ -16284,7 +17182,8 @@
     </row>
     <row r="778" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A778">
-        <v>736</v>
+        <f t="shared" si="12"/>
+        <v>777</v>
       </c>
       <c r="F778" t="s">
         <v>520</v>
@@ -16304,7 +17203,8 @@
     </row>
     <row r="779" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A779">
-        <v>737</v>
+        <f t="shared" si="12"/>
+        <v>778</v>
       </c>
       <c r="F779" t="s">
         <v>520</v>
@@ -16324,7 +17224,8 @@
     </row>
     <row r="780" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A780">
-        <v>738</v>
+        <f t="shared" si="12"/>
+        <v>779</v>
       </c>
       <c r="F780" t="s">
         <v>520</v>
@@ -16344,7 +17245,8 @@
     </row>
     <row r="781" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A781">
-        <v>739</v>
+        <f t="shared" si="12"/>
+        <v>780</v>
       </c>
       <c r="F781" t="s">
         <v>520</v>
@@ -16364,7 +17266,8 @@
     </row>
     <row r="782" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A782">
-        <v>740</v>
+        <f t="shared" si="12"/>
+        <v>781</v>
       </c>
       <c r="F782" t="s">
         <v>520</v>
@@ -16384,7 +17287,8 @@
     </row>
     <row r="783" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A783">
-        <v>741</v>
+        <f t="shared" si="12"/>
+        <v>782</v>
       </c>
       <c r="F783" t="s">
         <v>601</v>
@@ -16404,7 +17308,8 @@
     </row>
     <row r="784" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A784">
-        <v>742</v>
+        <f t="shared" si="12"/>
+        <v>783</v>
       </c>
       <c r="F784" t="s">
         <v>601</v>
@@ -16424,7 +17329,8 @@
     </row>
     <row r="785" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A785">
-        <v>743</v>
+        <f t="shared" si="12"/>
+        <v>784</v>
       </c>
       <c r="F785" t="s">
         <v>601</v>
@@ -16444,7 +17350,8 @@
     </row>
     <row r="786" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A786">
-        <v>744</v>
+        <f t="shared" si="12"/>
+        <v>785</v>
       </c>
       <c r="F786" t="s">
         <v>601</v>
@@ -16464,7 +17371,8 @@
     </row>
     <row r="787" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A787">
-        <v>745</v>
+        <f t="shared" si="12"/>
+        <v>786</v>
       </c>
       <c r="F787" t="s">
         <v>601</v>
@@ -16484,7 +17392,8 @@
     </row>
     <row r="788" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A788">
-        <v>746</v>
+        <f t="shared" si="12"/>
+        <v>787</v>
       </c>
       <c r="F788" t="s">
         <v>601</v>
@@ -16504,7 +17413,8 @@
     </row>
     <row r="789" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A789">
-        <v>747</v>
+        <f t="shared" si="12"/>
+        <v>788</v>
       </c>
       <c r="F789" t="s">
         <v>601</v>
@@ -16524,7 +17434,8 @@
     </row>
     <row r="790" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A790">
-        <v>748</v>
+        <f t="shared" si="12"/>
+        <v>789</v>
       </c>
       <c r="F790" t="s">
         <v>601</v>
@@ -16544,7 +17455,8 @@
     </row>
     <row r="791" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A791">
-        <v>749</v>
+        <f t="shared" si="12"/>
+        <v>790</v>
       </c>
       <c r="F791" t="s">
         <v>601</v>
@@ -16564,7 +17476,8 @@
     </row>
     <row r="792" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A792">
-        <v>750</v>
+        <f t="shared" si="12"/>
+        <v>791</v>
       </c>
       <c r="F792" t="s">
         <v>601</v>
@@ -16584,7 +17497,8 @@
     </row>
     <row r="793" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A793">
-        <v>751</v>
+        <f t="shared" si="12"/>
+        <v>792</v>
       </c>
       <c r="F793" t="s">
         <v>601</v>
@@ -16604,7 +17518,8 @@
     </row>
     <row r="794" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A794">
-        <v>752</v>
+        <f t="shared" si="12"/>
+        <v>793</v>
       </c>
       <c r="F794" t="s">
         <v>601</v>
@@ -16624,7 +17539,8 @@
     </row>
     <row r="795" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A795">
-        <v>753</v>
+        <f t="shared" si="12"/>
+        <v>794</v>
       </c>
       <c r="F795" t="s">
         <v>601</v>
@@ -16644,7 +17560,8 @@
     </row>
     <row r="796" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A796">
-        <v>754</v>
+        <f t="shared" si="12"/>
+        <v>795</v>
       </c>
       <c r="F796" t="s">
         <v>601</v>
@@ -16664,7 +17581,8 @@
     </row>
     <row r="797" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A797">
-        <v>755</v>
+        <f t="shared" si="12"/>
+        <v>796</v>
       </c>
       <c r="F797" t="s">
         <v>601</v>
@@ -16684,7 +17602,8 @@
     </row>
     <row r="798" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A798">
-        <v>756</v>
+        <f t="shared" si="12"/>
+        <v>797</v>
       </c>
       <c r="F798" t="s">
         <v>601</v>
@@ -16704,7 +17623,8 @@
     </row>
     <row r="799" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A799">
-        <v>757</v>
+        <f t="shared" si="12"/>
+        <v>798</v>
       </c>
       <c r="F799" t="s">
         <v>601</v>
@@ -16724,7 +17644,8 @@
     </row>
     <row r="800" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A800">
-        <v>758</v>
+        <f t="shared" si="12"/>
+        <v>799</v>
       </c>
       <c r="F800" t="s">
         <v>601</v>
@@ -16744,7 +17665,8 @@
     </row>
     <row r="801" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A801">
-        <v>759</v>
+        <f t="shared" si="12"/>
+        <v>800</v>
       </c>
       <c r="F801" t="s">
         <v>601</v>
@@ -16764,7 +17686,8 @@
     </row>
     <row r="802" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A802">
-        <v>760</v>
+        <f t="shared" si="12"/>
+        <v>801</v>
       </c>
       <c r="F802" t="s">
         <v>601</v>
@@ -16784,7 +17707,8 @@
     </row>
     <row r="803" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A803">
-        <v>761</v>
+        <f t="shared" si="12"/>
+        <v>802</v>
       </c>
       <c r="F803" t="s">
         <v>601</v>
@@ -16804,7 +17728,8 @@
     </row>
     <row r="804" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A804">
-        <v>762</v>
+        <f t="shared" si="12"/>
+        <v>803</v>
       </c>
       <c r="F804" t="s">
         <v>601</v>
@@ -16824,7 +17749,8 @@
     </row>
     <row r="805" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A805">
-        <v>763</v>
+        <f t="shared" si="12"/>
+        <v>804</v>
       </c>
       <c r="F805" t="s">
         <v>601</v>
@@ -16844,7 +17770,8 @@
     </row>
     <row r="806" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A806">
-        <v>764</v>
+        <f t="shared" si="12"/>
+        <v>805</v>
       </c>
       <c r="F806" t="s">
         <v>601</v>
@@ -16864,7 +17791,8 @@
     </row>
     <row r="807" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A807">
-        <v>765</v>
+        <f t="shared" si="12"/>
+        <v>806</v>
       </c>
       <c r="F807" t="s">
         <v>601</v>
@@ -16884,7 +17812,8 @@
     </row>
     <row r="808" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A808">
-        <v>766</v>
+        <f t="shared" si="12"/>
+        <v>807</v>
       </c>
       <c r="F808" t="s">
         <v>601</v>
@@ -16904,7 +17833,8 @@
     </row>
     <row r="809" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A809">
-        <v>767</v>
+        <f t="shared" si="12"/>
+        <v>808</v>
       </c>
       <c r="F809" t="s">
         <v>601</v>
@@ -16924,7 +17854,8 @@
     </row>
     <row r="810" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A810">
-        <v>768</v>
+        <f t="shared" si="12"/>
+        <v>809</v>
       </c>
       <c r="F810" t="s">
         <v>601</v>
@@ -16944,7 +17875,8 @@
     </row>
     <row r="811" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A811">
-        <v>769</v>
+        <f t="shared" si="12"/>
+        <v>810</v>
       </c>
       <c r="F811" t="s">
         <v>601</v>
@@ -16964,7 +17896,8 @@
     </row>
     <row r="812" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A812">
-        <v>770</v>
+        <f t="shared" si="12"/>
+        <v>811</v>
       </c>
       <c r="F812" t="s">
         <v>601</v>
@@ -16984,7 +17917,8 @@
     </row>
     <row r="813" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A813">
-        <v>7701</v>
+        <f t="shared" si="12"/>
+        <v>812</v>
       </c>
       <c r="F813" t="s">
         <v>601</v>
@@ -17004,7 +17938,8 @@
     </row>
     <row r="814" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A814">
-        <v>771</v>
+        <f t="shared" si="12"/>
+        <v>813</v>
       </c>
       <c r="F814" t="s">
         <v>601</v>
@@ -17024,7 +17959,8 @@
     </row>
     <row r="815" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A815">
-        <v>772</v>
+        <f t="shared" si="12"/>
+        <v>814</v>
       </c>
       <c r="F815" t="s">
         <v>601</v>
@@ -17044,7 +17980,8 @@
     </row>
     <row r="816" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A816">
-        <v>773</v>
+        <f t="shared" si="12"/>
+        <v>815</v>
       </c>
       <c r="F816" t="s">
         <v>601</v>
@@ -17064,7 +18001,8 @@
     </row>
     <row r="817" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A817">
-        <v>774</v>
+        <f t="shared" si="12"/>
+        <v>816</v>
       </c>
       <c r="F817" t="s">
         <v>601</v>
@@ -17084,7 +18022,8 @@
     </row>
     <row r="818" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A818">
-        <v>775</v>
+        <f t="shared" si="12"/>
+        <v>817</v>
       </c>
       <c r="F818" t="s">
         <v>601</v>
@@ -17104,7 +18043,8 @@
     </row>
     <row r="819" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A819">
-        <v>776</v>
+        <f t="shared" si="12"/>
+        <v>818</v>
       </c>
       <c r="F819" t="s">
         <v>601</v>
@@ -17124,7 +18064,8 @@
     </row>
     <row r="820" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A820">
-        <v>777</v>
+        <f t="shared" si="12"/>
+        <v>819</v>
       </c>
       <c r="F820" t="s">
         <v>601</v>
@@ -17144,7 +18085,8 @@
     </row>
     <row r="821" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A821">
-        <v>778</v>
+        <f t="shared" si="12"/>
+        <v>820</v>
       </c>
       <c r="F821" t="s">
         <v>601</v>
@@ -17164,7 +18106,8 @@
     </row>
     <row r="822" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A822">
-        <v>779</v>
+        <f t="shared" si="12"/>
+        <v>821</v>
       </c>
       <c r="F822" t="s">
         <v>601</v>
@@ -17184,7 +18127,8 @@
     </row>
     <row r="823" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A823">
-        <v>780</v>
+        <f t="shared" si="12"/>
+        <v>822</v>
       </c>
       <c r="F823" t="s">
         <v>601</v>
@@ -17204,7 +18148,8 @@
     </row>
     <row r="824" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A824">
-        <v>781</v>
+        <f t="shared" si="12"/>
+        <v>823</v>
       </c>
       <c r="F824" t="s">
         <v>601</v>
@@ -17224,7 +18169,8 @@
     </row>
     <row r="825" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A825">
-        <v>782</v>
+        <f t="shared" si="12"/>
+        <v>824</v>
       </c>
       <c r="F825" t="s">
         <v>601</v>
@@ -17241,7 +18187,8 @@
     </row>
     <row r="826" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A826">
-        <v>783</v>
+        <f t="shared" si="12"/>
+        <v>825</v>
       </c>
       <c r="F826" t="s">
         <v>601</v>
@@ -17258,7 +18205,8 @@
     </row>
     <row r="827" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A827">
-        <v>784</v>
+        <f t="shared" si="12"/>
+        <v>826</v>
       </c>
       <c r="F827" t="s">
         <v>601</v>
@@ -17275,7 +18223,8 @@
     </row>
     <row r="828" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A828">
-        <v>785</v>
+        <f t="shared" si="12"/>
+        <v>827</v>
       </c>
       <c r="F828" t="s">
         <v>601</v>
@@ -17292,7 +18241,8 @@
     </row>
     <row r="829" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A829">
-        <v>786</v>
+        <f t="shared" si="12"/>
+        <v>828</v>
       </c>
       <c r="F829" t="s">
         <v>601</v>
@@ -17309,7 +18259,8 @@
     </row>
     <row r="830" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A830">
-        <v>787</v>
+        <f t="shared" si="12"/>
+        <v>829</v>
       </c>
       <c r="F830" t="s">
         <v>601</v>
@@ -17326,7 +18277,8 @@
     </row>
     <row r="831" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A831">
-        <v>788</v>
+        <f t="shared" si="12"/>
+        <v>830</v>
       </c>
       <c r="F831" t="s">
         <v>601</v>
@@ -17343,7 +18295,8 @@
     </row>
     <row r="832" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A832">
-        <v>789</v>
+        <f t="shared" si="12"/>
+        <v>831</v>
       </c>
       <c r="F832" t="s">
         <v>601</v>
@@ -17360,7 +18313,8 @@
     </row>
     <row r="833" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A833">
-        <v>790</v>
+        <f t="shared" si="12"/>
+        <v>832</v>
       </c>
       <c r="F833" t="s">
         <v>601</v>
@@ -17377,7 +18331,8 @@
     </row>
     <row r="834" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A834">
-        <v>791</v>
+        <f t="shared" si="12"/>
+        <v>833</v>
       </c>
       <c r="F834" t="s">
         <v>601</v>
@@ -17394,7 +18349,8 @@
     </row>
     <row r="835" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A835">
-        <v>792</v>
+        <f t="shared" si="12"/>
+        <v>834</v>
       </c>
       <c r="F835" t="s">
         <v>601</v>
@@ -17411,7 +18367,8 @@
     </row>
     <row r="836" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A836">
-        <v>793</v>
+        <f t="shared" ref="A836:A899" si="13">1+A835</f>
+        <v>835</v>
       </c>
       <c r="F836" t="s">
         <v>601</v>
@@ -17428,7 +18385,8 @@
     </row>
     <row r="837" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A837">
-        <v>794</v>
+        <f t="shared" si="13"/>
+        <v>836</v>
       </c>
       <c r="F837" t="s">
         <v>601</v>
@@ -17445,7 +18403,8 @@
     </row>
     <row r="838" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A838">
-        <v>795</v>
+        <f t="shared" si="13"/>
+        <v>837</v>
       </c>
       <c r="F838" t="s">
         <v>601</v>
@@ -17462,7 +18421,8 @@
     </row>
     <row r="839" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A839">
-        <v>796</v>
+        <f t="shared" si="13"/>
+        <v>838</v>
       </c>
       <c r="F839" t="s">
         <v>601</v>
@@ -17479,7 +18439,8 @@
     </row>
     <row r="840" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A840">
-        <v>797</v>
+        <f t="shared" si="13"/>
+        <v>839</v>
       </c>
       <c r="F840" t="s">
         <v>601</v>
@@ -17496,7 +18457,8 @@
     </row>
     <row r="841" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A841">
-        <v>798</v>
+        <f t="shared" si="13"/>
+        <v>840</v>
       </c>
       <c r="F841" t="s">
         <v>601</v>
@@ -17513,7 +18475,8 @@
     </row>
     <row r="842" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A842">
-        <v>799</v>
+        <f t="shared" si="13"/>
+        <v>841</v>
       </c>
       <c r="F842" t="s">
         <v>601</v>
@@ -17530,7 +18493,8 @@
     </row>
     <row r="843" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A843">
-        <v>800</v>
+        <f t="shared" si="13"/>
+        <v>842</v>
       </c>
       <c r="F843" t="s">
         <v>601</v>
@@ -17547,7 +18511,8 @@
     </row>
     <row r="844" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A844">
-        <v>801</v>
+        <f t="shared" si="13"/>
+        <v>843</v>
       </c>
       <c r="F844" t="s">
         <v>601</v>
@@ -17564,7 +18529,8 @@
     </row>
     <row r="845" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A845">
-        <v>802</v>
+        <f t="shared" si="13"/>
+        <v>844</v>
       </c>
       <c r="F845" t="s">
         <v>601</v>
@@ -17581,7 +18547,8 @@
     </row>
     <row r="846" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A846">
-        <v>803</v>
+        <f t="shared" si="13"/>
+        <v>845</v>
       </c>
       <c r="F846" t="s">
         <v>601</v>
@@ -17598,7 +18565,8 @@
     </row>
     <row r="847" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A847">
-        <v>804</v>
+        <f t="shared" si="13"/>
+        <v>846</v>
       </c>
       <c r="F847" t="s">
         <v>601</v>
@@ -17615,7 +18583,8 @@
     </row>
     <row r="848" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A848">
-        <v>805</v>
+        <f t="shared" si="13"/>
+        <v>847</v>
       </c>
       <c r="F848" t="s">
         <v>601</v>
@@ -17632,7 +18601,8 @@
     </row>
     <row r="849" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A849">
-        <v>806</v>
+        <f t="shared" si="13"/>
+        <v>848</v>
       </c>
       <c r="F849" t="s">
         <v>601</v>
@@ -17649,7 +18619,8 @@
     </row>
     <row r="850" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A850">
-        <v>807</v>
+        <f t="shared" si="13"/>
+        <v>849</v>
       </c>
       <c r="F850" t="s">
         <v>601</v>
@@ -17666,7 +18637,8 @@
     </row>
     <row r="851" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A851">
-        <v>808</v>
+        <f t="shared" si="13"/>
+        <v>850</v>
       </c>
       <c r="F851" t="s">
         <v>601</v>
@@ -17683,7 +18655,8 @@
     </row>
     <row r="852" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A852">
-        <v>809</v>
+        <f t="shared" si="13"/>
+        <v>851</v>
       </c>
       <c r="F852" t="s">
         <v>601</v>
@@ -17700,7 +18673,8 @@
     </row>
     <row r="853" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A853">
-        <v>810</v>
+        <f t="shared" si="13"/>
+        <v>852</v>
       </c>
       <c r="F853" t="s">
         <v>601</v>
@@ -17717,7 +18691,8 @@
     </row>
     <row r="854" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A854">
-        <v>811</v>
+        <f t="shared" si="13"/>
+        <v>853</v>
       </c>
       <c r="F854" t="s">
         <v>601</v>
@@ -17734,7 +18709,8 @@
     </row>
     <row r="855" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A855">
-        <v>812</v>
+        <f t="shared" si="13"/>
+        <v>854</v>
       </c>
       <c r="F855" t="s">
         <v>601</v>
@@ -17751,7 +18727,8 @@
     </row>
     <row r="856" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A856">
-        <v>813</v>
+        <f t="shared" si="13"/>
+        <v>855</v>
       </c>
       <c r="F856" t="s">
         <v>601</v>
@@ -17768,7 +18745,8 @@
     </row>
     <row r="857" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A857">
-        <v>814</v>
+        <f t="shared" si="13"/>
+        <v>856</v>
       </c>
       <c r="F857" t="s">
         <v>601</v>
@@ -17785,7 +18763,8 @@
     </row>
     <row r="858" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A858">
-        <v>815</v>
+        <f t="shared" si="13"/>
+        <v>857</v>
       </c>
       <c r="F858" t="s">
         <v>601</v>
@@ -17802,7 +18781,8 @@
     </row>
     <row r="859" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A859">
-        <v>816</v>
+        <f t="shared" si="13"/>
+        <v>858</v>
       </c>
       <c r="F859" t="s">
         <v>601</v>
@@ -17819,7 +18799,8 @@
     </row>
     <row r="860" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A860">
-        <v>817</v>
+        <f t="shared" si="13"/>
+        <v>859</v>
       </c>
       <c r="F860" t="s">
         <v>601</v>
@@ -17836,7 +18817,8 @@
     </row>
     <row r="861" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A861">
-        <v>818</v>
+        <f t="shared" si="13"/>
+        <v>860</v>
       </c>
       <c r="F861" t="s">
         <v>601</v>
@@ -17853,7 +18835,8 @@
     </row>
     <row r="862" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A862">
-        <v>819</v>
+        <f t="shared" si="13"/>
+        <v>861</v>
       </c>
       <c r="F862" t="s">
         <v>601</v>
@@ -17870,7 +18853,8 @@
     </row>
     <row r="863" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A863">
-        <v>820</v>
+        <f t="shared" si="13"/>
+        <v>862</v>
       </c>
       <c r="F863" t="s">
         <v>601</v>
@@ -17887,7 +18871,8 @@
     </row>
     <row r="864" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A864">
-        <v>821</v>
+        <f t="shared" si="13"/>
+        <v>863</v>
       </c>
       <c r="F864" t="s">
         <v>619</v>
@@ -17904,7 +18889,8 @@
     </row>
     <row r="865" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A865">
-        <v>822</v>
+        <f t="shared" si="13"/>
+        <v>864</v>
       </c>
       <c r="F865" t="s">
         <v>619</v>
@@ -17921,7 +18907,8 @@
     </row>
     <row r="866" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A866">
-        <v>823</v>
+        <f t="shared" si="13"/>
+        <v>865</v>
       </c>
       <c r="F866" t="s">
         <v>619</v>
@@ -17938,7 +18925,8 @@
     </row>
     <row r="867" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A867">
-        <v>824</v>
+        <f t="shared" si="13"/>
+        <v>866</v>
       </c>
       <c r="F867" t="s">
         <v>619</v>
@@ -17955,7 +18943,8 @@
     </row>
     <row r="868" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A868">
-        <v>825</v>
+        <f t="shared" si="13"/>
+        <v>867</v>
       </c>
       <c r="F868" t="s">
         <v>619</v>
@@ -17972,7 +18961,8 @@
     </row>
     <row r="869" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A869">
-        <v>826</v>
+        <f t="shared" si="13"/>
+        <v>868</v>
       </c>
       <c r="F869" t="s">
         <v>619</v>
@@ -17989,7 +18979,8 @@
     </row>
     <row r="870" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A870">
-        <v>827</v>
+        <f t="shared" si="13"/>
+        <v>869</v>
       </c>
       <c r="F870" t="s">
         <v>619</v>
@@ -18006,7 +18997,8 @@
     </row>
     <row r="871" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A871">
-        <v>828</v>
+        <f t="shared" si="13"/>
+        <v>870</v>
       </c>
       <c r="F871" t="s">
         <v>619</v>
@@ -18023,7 +19015,8 @@
     </row>
     <row r="872" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A872">
-        <v>829</v>
+        <f t="shared" si="13"/>
+        <v>871</v>
       </c>
       <c r="F872" t="s">
         <v>619</v>
@@ -18040,7 +19033,8 @@
     </row>
     <row r="873" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A873">
-        <v>830</v>
+        <f t="shared" si="13"/>
+        <v>872</v>
       </c>
       <c r="F873" t="s">
         <v>619</v>
@@ -18057,7 +19051,8 @@
     </row>
     <row r="874" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A874">
-        <v>831</v>
+        <f t="shared" si="13"/>
+        <v>873</v>
       </c>
       <c r="F874" t="s">
         <v>619</v>
@@ -18074,7 +19069,8 @@
     </row>
     <row r="875" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A875">
-        <v>832</v>
+        <f t="shared" si="13"/>
+        <v>874</v>
       </c>
       <c r="F875" t="s">
         <v>619</v>
@@ -18091,7 +19087,8 @@
     </row>
     <row r="876" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A876">
-        <v>833</v>
+        <f t="shared" si="13"/>
+        <v>875</v>
       </c>
       <c r="F876" t="s">
         <v>619</v>
@@ -18108,7 +19105,8 @@
     </row>
     <row r="877" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A877">
-        <v>834</v>
+        <f t="shared" si="13"/>
+        <v>876</v>
       </c>
       <c r="F877" t="s">
         <v>619</v>
@@ -18125,7 +19123,8 @@
     </row>
     <row r="878" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A878">
-        <v>835</v>
+        <f t="shared" si="13"/>
+        <v>877</v>
       </c>
       <c r="F878" t="s">
         <v>619</v>
@@ -18142,7 +19141,8 @@
     </row>
     <row r="879" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A879">
-        <v>836</v>
+        <f t="shared" si="13"/>
+        <v>878</v>
       </c>
       <c r="F879" t="s">
         <v>619</v>
@@ -18159,7 +19159,8 @@
     </row>
     <row r="880" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A880">
-        <v>837</v>
+        <f t="shared" si="13"/>
+        <v>879</v>
       </c>
       <c r="F880" t="s">
         <v>619</v>
@@ -18176,7 +19177,8 @@
     </row>
     <row r="881" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A881">
-        <v>838</v>
+        <f t="shared" si="13"/>
+        <v>880</v>
       </c>
       <c r="F881" t="s">
         <v>619</v>
@@ -18193,7 +19195,8 @@
     </row>
     <row r="882" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A882">
-        <v>839</v>
+        <f t="shared" si="13"/>
+        <v>881</v>
       </c>
       <c r="F882" t="s">
         <v>619</v>
@@ -18210,7 +19213,8 @@
     </row>
     <row r="883" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A883">
-        <v>840</v>
+        <f t="shared" si="13"/>
+        <v>882</v>
       </c>
       <c r="F883" t="s">
         <v>619</v>
@@ -18227,7 +19231,8 @@
     </row>
     <row r="884" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A884">
-        <v>841</v>
+        <f t="shared" si="13"/>
+        <v>883</v>
       </c>
       <c r="F884" t="s">
         <v>619</v>
@@ -18244,7 +19249,8 @@
     </row>
     <row r="885" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A885">
-        <v>842</v>
+        <f t="shared" si="13"/>
+        <v>884</v>
       </c>
       <c r="F885" t="s">
         <v>619</v>
@@ -18261,7 +19267,8 @@
     </row>
     <row r="886" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A886">
-        <v>843</v>
+        <f t="shared" si="13"/>
+        <v>885</v>
       </c>
       <c r="F886" t="s">
         <v>619</v>
@@ -18278,7 +19285,8 @@
     </row>
     <row r="887" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A887">
-        <v>844</v>
+        <f t="shared" si="13"/>
+        <v>886</v>
       </c>
       <c r="F887" t="s">
         <v>619</v>
@@ -18295,7 +19303,8 @@
     </row>
     <row r="888" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A888">
-        <v>845</v>
+        <f t="shared" si="13"/>
+        <v>887</v>
       </c>
       <c r="F888" t="s">
         <v>619</v>
@@ -18312,7 +19321,8 @@
     </row>
     <row r="889" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A889">
-        <v>846</v>
+        <f t="shared" si="13"/>
+        <v>888</v>
       </c>
       <c r="F889" t="s">
         <v>619</v>
@@ -18329,7 +19339,8 @@
     </row>
     <row r="890" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A890">
-        <v>847</v>
+        <f t="shared" si="13"/>
+        <v>889</v>
       </c>
       <c r="F890" t="s">
         <v>619</v>
@@ -18346,7 +19357,8 @@
     </row>
     <row r="891" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A891">
-        <v>848</v>
+        <f t="shared" si="13"/>
+        <v>890</v>
       </c>
       <c r="F891" t="s">
         <v>619</v>
@@ -18363,7 +19375,8 @@
     </row>
     <row r="892" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A892">
-        <v>849</v>
+        <f t="shared" si="13"/>
+        <v>891</v>
       </c>
       <c r="F892" t="s">
         <v>619</v>
@@ -18380,7 +19393,8 @@
     </row>
     <row r="893" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A893">
-        <v>850</v>
+        <f t="shared" si="13"/>
+        <v>892</v>
       </c>
       <c r="F893" t="s">
         <v>619</v>
@@ -18397,7 +19411,8 @@
     </row>
     <row r="894" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A894">
-        <v>851</v>
+        <f t="shared" si="13"/>
+        <v>893</v>
       </c>
       <c r="F894" t="s">
         <v>619</v>
@@ -18414,7 +19429,8 @@
     </row>
     <row r="895" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A895">
-        <v>852</v>
+        <f t="shared" si="13"/>
+        <v>894</v>
       </c>
       <c r="F895" t="s">
         <v>619</v>
@@ -18431,7 +19447,8 @@
     </row>
     <row r="896" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A896">
-        <v>853</v>
+        <f t="shared" si="13"/>
+        <v>895</v>
       </c>
       <c r="F896" t="s">
         <v>619</v>
@@ -18448,7 +19465,8 @@
     </row>
     <row r="897" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A897">
-        <v>854</v>
+        <f t="shared" si="13"/>
+        <v>896</v>
       </c>
       <c r="F897" t="s">
         <v>619</v>
@@ -18465,7 +19483,8 @@
     </row>
     <row r="898" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A898">
-        <v>855</v>
+        <f t="shared" si="13"/>
+        <v>897</v>
       </c>
       <c r="F898" t="s">
         <v>619</v>
@@ -18482,7 +19501,8 @@
     </row>
     <row r="899" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A899">
-        <v>856</v>
+        <f t="shared" si="13"/>
+        <v>898</v>
       </c>
       <c r="F899" t="s">
         <v>619</v>
@@ -18499,7 +19519,8 @@
     </row>
     <row r="900" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A900">
-        <v>857</v>
+        <f t="shared" ref="A900:A963" si="14">1+A899</f>
+        <v>899</v>
       </c>
       <c r="F900" t="s">
         <v>619</v>
@@ -18516,7 +19537,8 @@
     </row>
     <row r="901" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A901">
-        <v>858</v>
+        <f t="shared" si="14"/>
+        <v>900</v>
       </c>
       <c r="F901" t="s">
         <v>619</v>
@@ -18533,7 +19555,8 @@
     </row>
     <row r="902" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A902">
-        <v>859</v>
+        <f t="shared" si="14"/>
+        <v>901</v>
       </c>
       <c r="F902" t="s">
         <v>619</v>
@@ -18550,7 +19573,8 @@
     </row>
     <row r="903" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A903">
-        <v>860</v>
+        <f t="shared" si="14"/>
+        <v>902</v>
       </c>
       <c r="F903" t="s">
         <v>619</v>
@@ -18567,7 +19591,8 @@
     </row>
     <row r="904" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A904">
-        <v>861</v>
+        <f t="shared" si="14"/>
+        <v>903</v>
       </c>
       <c r="F904" t="s">
         <v>619</v>
@@ -18584,7 +19609,8 @@
     </row>
     <row r="905" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A905">
-        <v>862</v>
+        <f t="shared" si="14"/>
+        <v>904</v>
       </c>
       <c r="F905" t="s">
         <v>619</v>
@@ -18601,7 +19627,8 @@
     </row>
     <row r="906" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A906">
-        <v>863</v>
+        <f t="shared" si="14"/>
+        <v>905</v>
       </c>
       <c r="F906" t="s">
         <v>619</v>
@@ -18618,7 +19645,8 @@
     </row>
     <row r="907" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A907">
-        <v>864</v>
+        <f t="shared" si="14"/>
+        <v>906</v>
       </c>
       <c r="F907" t="s">
         <v>619</v>
@@ -18635,7 +19663,8 @@
     </row>
     <row r="908" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A908">
-        <v>865</v>
+        <f t="shared" si="14"/>
+        <v>907</v>
       </c>
       <c r="F908" t="s">
         <v>619</v>
@@ -18652,7 +19681,8 @@
     </row>
     <row r="909" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A909">
-        <v>866</v>
+        <f t="shared" si="14"/>
+        <v>908</v>
       </c>
       <c r="F909" t="s">
         <v>619</v>
@@ -18669,7 +19699,8 @@
     </row>
     <row r="910" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A910">
-        <v>867</v>
+        <f t="shared" si="14"/>
+        <v>909</v>
       </c>
       <c r="F910" t="s">
         <v>619</v>
@@ -18686,7 +19717,8 @@
     </row>
     <row r="911" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A911">
-        <v>868</v>
+        <f t="shared" si="14"/>
+        <v>910</v>
       </c>
       <c r="F911" t="s">
         <v>619</v>
@@ -18703,7 +19735,8 @@
     </row>
     <row r="912" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A912">
-        <v>869</v>
+        <f t="shared" si="14"/>
+        <v>911</v>
       </c>
       <c r="F912" t="s">
         <v>632</v>
@@ -18723,7 +19756,8 @@
     </row>
     <row r="913" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A913">
-        <v>870</v>
+        <f t="shared" si="14"/>
+        <v>912</v>
       </c>
       <c r="F913" t="s">
         <v>632</v>
@@ -18743,7 +19777,8 @@
     </row>
     <row r="914" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A914">
-        <v>871</v>
+        <f t="shared" si="14"/>
+        <v>913</v>
       </c>
       <c r="F914" t="s">
         <v>632</v>
@@ -18763,7 +19798,8 @@
     </row>
     <row r="915" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A915">
-        <v>872</v>
+        <f t="shared" si="14"/>
+        <v>914</v>
       </c>
       <c r="F915" t="s">
         <v>632</v>
@@ -18783,7 +19819,8 @@
     </row>
     <row r="916" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A916">
-        <v>873</v>
+        <f t="shared" si="14"/>
+        <v>915</v>
       </c>
       <c r="F916" t="s">
         <v>632</v>
@@ -18803,7 +19840,8 @@
     </row>
     <row r="917" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A917">
-        <v>874</v>
+        <f t="shared" si="14"/>
+        <v>916</v>
       </c>
       <c r="F917" t="s">
         <v>632</v>
@@ -18823,7 +19861,8 @@
     </row>
     <row r="918" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A918">
-        <v>875</v>
+        <f t="shared" si="14"/>
+        <v>917</v>
       </c>
       <c r="F918" t="s">
         <v>632</v>
@@ -18843,7 +19882,8 @@
     </row>
     <row r="919" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A919">
-        <v>876</v>
+        <f t="shared" si="14"/>
+        <v>918</v>
       </c>
       <c r="F919" t="s">
         <v>632</v>
@@ -18863,7 +19903,8 @@
     </row>
     <row r="920" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A920">
-        <v>877</v>
+        <f t="shared" si="14"/>
+        <v>919</v>
       </c>
       <c r="F920" t="s">
         <v>632</v>
@@ -18883,7 +19924,8 @@
     </row>
     <row r="921" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A921">
-        <v>878</v>
+        <f t="shared" si="14"/>
+        <v>920</v>
       </c>
       <c r="F921" t="s">
         <v>632</v>
@@ -18903,7 +19945,8 @@
     </row>
     <row r="922" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A922">
-        <v>879</v>
+        <f t="shared" si="14"/>
+        <v>921</v>
       </c>
       <c r="F922" t="s">
         <v>632</v>
@@ -18923,7 +19966,8 @@
     </row>
     <row r="923" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A923">
-        <v>880</v>
+        <f t="shared" si="14"/>
+        <v>922</v>
       </c>
       <c r="F923" t="s">
         <v>632</v>
@@ -18943,7 +19987,8 @@
     </row>
     <row r="924" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A924">
-        <v>881</v>
+        <f t="shared" si="14"/>
+        <v>923</v>
       </c>
       <c r="F924" t="s">
         <v>632</v>
@@ -18963,7 +20008,8 @@
     </row>
     <row r="925" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A925">
-        <v>882</v>
+        <f t="shared" si="14"/>
+        <v>924</v>
       </c>
       <c r="F925" t="s">
         <v>632</v>
@@ -18980,7 +20026,8 @@
     </row>
     <row r="926" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A926">
-        <v>883</v>
+        <f t="shared" si="14"/>
+        <v>925</v>
       </c>
       <c r="F926" t="s">
         <v>632</v>
@@ -18997,7 +20044,8 @@
     </row>
     <row r="927" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A927">
-        <v>884</v>
+        <f t="shared" si="14"/>
+        <v>926</v>
       </c>
       <c r="F927" t="s">
         <v>632</v>
@@ -19014,7 +20062,8 @@
     </row>
     <row r="928" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A928">
-        <v>885</v>
+        <f t="shared" si="14"/>
+        <v>927</v>
       </c>
       <c r="F928" t="s">
         <v>632</v>
@@ -19031,7 +20080,8 @@
     </row>
     <row r="929" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A929">
-        <v>886</v>
+        <f t="shared" si="14"/>
+        <v>928</v>
       </c>
       <c r="F929" t="s">
         <v>632</v>
@@ -19048,7 +20098,8 @@
     </row>
     <row r="930" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A930">
-        <v>887</v>
+        <f t="shared" si="14"/>
+        <v>929</v>
       </c>
       <c r="F930" t="s">
         <v>632</v>
@@ -19065,7 +20116,8 @@
     </row>
     <row r="931" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A931">
-        <v>888</v>
+        <f t="shared" si="14"/>
+        <v>930</v>
       </c>
       <c r="F931" t="s">
         <v>632</v>
@@ -19082,7 +20134,8 @@
     </row>
     <row r="932" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A932">
-        <v>889</v>
+        <f t="shared" si="14"/>
+        <v>931</v>
       </c>
       <c r="F932" t="s">
         <v>632</v>
@@ -19099,7 +20152,8 @@
     </row>
     <row r="933" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A933">
-        <v>890</v>
+        <f t="shared" si="14"/>
+        <v>932</v>
       </c>
       <c r="F933" t="s">
         <v>632</v>
@@ -19113,7 +20167,8 @@
     </row>
     <row r="934" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A934">
-        <v>891</v>
+        <f t="shared" si="14"/>
+        <v>933</v>
       </c>
       <c r="F934" t="s">
         <v>632</v>
@@ -19127,7 +20182,8 @@
     </row>
     <row r="935" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A935">
-        <v>892</v>
+        <f t="shared" si="14"/>
+        <v>934</v>
       </c>
       <c r="F935" t="s">
         <v>632</v>
@@ -19141,7 +20197,8 @@
     </row>
     <row r="936" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A936">
-        <v>893</v>
+        <f t="shared" si="14"/>
+        <v>935</v>
       </c>
       <c r="F936" t="s">
         <v>632</v>
@@ -19155,7 +20212,8 @@
     </row>
     <row r="937" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A937">
-        <v>894</v>
+        <f t="shared" si="14"/>
+        <v>936</v>
       </c>
       <c r="F937" t="s">
         <v>632</v>
@@ -19169,7 +20227,8 @@
     </row>
     <row r="938" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A938">
-        <v>895</v>
+        <f t="shared" si="14"/>
+        <v>937</v>
       </c>
       <c r="F938" t="s">
         <v>640</v>
@@ -19183,7 +20242,8 @@
     </row>
     <row r="939" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A939">
-        <v>896</v>
+        <f t="shared" si="14"/>
+        <v>938</v>
       </c>
       <c r="F939" t="s">
         <v>640</v>
@@ -19197,7 +20257,8 @@
     </row>
     <row r="940" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A940">
-        <v>897</v>
+        <f t="shared" si="14"/>
+        <v>939</v>
       </c>
       <c r="F940" t="s">
         <v>640</v>
@@ -19211,7 +20272,8 @@
     </row>
     <row r="941" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A941">
-        <v>898</v>
+        <f t="shared" si="14"/>
+        <v>940</v>
       </c>
       <c r="F941" t="s">
         <v>640</v>
@@ -19225,7 +20287,8 @@
     </row>
     <row r="942" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A942">
-        <v>899</v>
+        <f t="shared" si="14"/>
+        <v>941</v>
       </c>
       <c r="F942" t="s">
         <v>640</v>
@@ -19239,7 +20302,8 @@
     </row>
     <row r="943" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A943">
-        <v>900</v>
+        <f t="shared" si="14"/>
+        <v>942</v>
       </c>
       <c r="F943" t="s">
         <v>640</v>
@@ -19253,7 +20317,8 @@
     </row>
     <row r="944" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A944">
-        <v>901</v>
+        <f t="shared" si="14"/>
+        <v>943</v>
       </c>
       <c r="F944" t="s">
         <v>640</v>
@@ -19267,7 +20332,8 @@
     </row>
     <row r="945" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A945">
-        <v>902</v>
+        <f t="shared" si="14"/>
+        <v>944</v>
       </c>
       <c r="F945" t="s">
         <v>640</v>
@@ -19281,7 +20347,8 @@
     </row>
     <row r="946" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A946">
-        <v>903</v>
+        <f t="shared" si="14"/>
+        <v>945</v>
       </c>
       <c r="F946" t="s">
         <v>640</v>
@@ -19295,7 +20362,8 @@
     </row>
     <row r="947" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A947">
-        <v>904</v>
+        <f t="shared" si="14"/>
+        <v>946</v>
       </c>
       <c r="F947" t="s">
         <v>640</v>
@@ -19309,7 +20377,8 @@
     </row>
     <row r="948" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A948">
-        <v>905</v>
+        <f t="shared" si="14"/>
+        <v>947</v>
       </c>
       <c r="F948" t="s">
         <v>640</v>
@@ -19323,7 +20392,8 @@
     </row>
     <row r="949" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A949">
-        <v>906</v>
+        <f t="shared" si="14"/>
+        <v>948</v>
       </c>
       <c r="F949" t="s">
         <v>640</v>
@@ -19337,7 +20407,8 @@
     </row>
     <row r="950" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A950">
-        <v>907</v>
+        <f t="shared" si="14"/>
+        <v>949</v>
       </c>
       <c r="F950" t="s">
         <v>640</v>
@@ -19351,7 +20422,8 @@
     </row>
     <row r="951" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A951">
-        <v>908</v>
+        <f t="shared" si="14"/>
+        <v>950</v>
       </c>
       <c r="F951" t="s">
         <v>640</v>
@@ -19365,7 +20437,8 @@
     </row>
     <row r="952" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A952">
-        <v>909</v>
+        <f t="shared" si="14"/>
+        <v>951</v>
       </c>
       <c r="F952" t="s">
         <v>640</v>
@@ -19379,7 +20452,8 @@
     </row>
     <row r="953" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A953">
-        <v>910</v>
+        <f t="shared" si="14"/>
+        <v>952</v>
       </c>
       <c r="F953" t="s">
         <v>640</v>
@@ -19393,7 +20467,8 @@
     </row>
     <row r="954" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A954">
-        <v>911</v>
+        <f t="shared" si="14"/>
+        <v>953</v>
       </c>
       <c r="F954" t="s">
         <v>640</v>
@@ -19407,7 +20482,8 @@
     </row>
     <row r="955" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A955">
-        <v>912</v>
+        <f t="shared" si="14"/>
+        <v>954</v>
       </c>
       <c r="F955" t="s">
         <v>640</v>
@@ -19421,7 +20497,8 @@
     </row>
     <row r="956" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A956">
-        <v>913</v>
+        <f t="shared" si="14"/>
+        <v>955</v>
       </c>
       <c r="F956" t="s">
         <v>640</v>
@@ -19435,7 +20512,8 @@
     </row>
     <row r="957" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A957">
-        <v>914</v>
+        <f t="shared" si="14"/>
+        <v>956</v>
       </c>
       <c r="F957" t="s">
         <v>640</v>
@@ -19449,7 +20527,8 @@
     </row>
     <row r="958" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A958">
-        <v>915</v>
+        <f t="shared" si="14"/>
+        <v>957</v>
       </c>
       <c r="F958" t="s">
         <v>640</v>
@@ -19463,7 +20542,8 @@
     </row>
     <row r="959" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A959">
-        <v>916</v>
+        <f t="shared" si="14"/>
+        <v>958</v>
       </c>
       <c r="F959" t="s">
         <v>640</v>
@@ -19477,7 +20557,8 @@
     </row>
     <row r="960" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A960">
-        <v>917</v>
+        <f t="shared" si="14"/>
+        <v>959</v>
       </c>
       <c r="F960" t="s">
         <v>640</v>
@@ -19491,7 +20572,8 @@
     </row>
     <row r="961" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A961">
-        <v>918</v>
+        <f t="shared" si="14"/>
+        <v>960</v>
       </c>
       <c r="F961" t="s">
         <v>640</v>
@@ -19505,7 +20587,8 @@
     </row>
     <row r="962" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A962">
-        <v>919</v>
+        <f t="shared" si="14"/>
+        <v>961</v>
       </c>
       <c r="F962" t="s">
         <v>640</v>
@@ -19519,7 +20602,8 @@
     </row>
     <row r="963" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A963">
-        <v>920</v>
+        <f t="shared" si="14"/>
+        <v>962</v>
       </c>
       <c r="F963" t="s">
         <v>640</v>
@@ -19533,7 +20617,8 @@
     </row>
     <row r="964" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A964">
-        <v>921</v>
+        <f t="shared" ref="A964:A973" si="15">1+A963</f>
+        <v>963</v>
       </c>
       <c r="F964" t="s">
         <v>640</v>
@@ -19547,7 +20632,8 @@
     </row>
     <row r="965" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A965">
-        <v>922</v>
+        <f t="shared" si="15"/>
+        <v>964</v>
       </c>
       <c r="F965" t="s">
         <v>640</v>
@@ -19561,7 +20647,8 @@
     </row>
     <row r="966" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A966">
-        <v>923</v>
+        <f t="shared" si="15"/>
+        <v>965</v>
       </c>
       <c r="F966" t="s">
         <v>640</v>
@@ -19575,7 +20662,8 @@
     </row>
     <row r="967" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A967">
-        <v>924</v>
+        <f t="shared" si="15"/>
+        <v>966</v>
       </c>
       <c r="F967" t="s">
         <v>640</v>
@@ -19589,7 +20677,8 @@
     </row>
     <row r="968" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A968">
-        <v>925</v>
+        <f t="shared" si="15"/>
+        <v>967</v>
       </c>
       <c r="F968" t="s">
         <v>640</v>
@@ -19603,7 +20692,8 @@
     </row>
     <row r="969" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A969">
-        <v>926</v>
+        <f t="shared" si="15"/>
+        <v>968</v>
       </c>
       <c r="F969" t="s">
         <v>640</v>
@@ -19617,7 +20707,8 @@
     </row>
     <row r="970" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A970">
-        <v>927</v>
+        <f t="shared" si="15"/>
+        <v>969</v>
       </c>
       <c r="F970" t="s">
         <v>640</v>
@@ -19631,7 +20722,8 @@
     </row>
     <row r="971" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A971">
-        <v>928</v>
+        <f t="shared" si="15"/>
+        <v>970</v>
       </c>
       <c r="F971" t="s">
         <v>640</v>
@@ -19645,7 +20737,8 @@
     </row>
     <row r="972" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A972">
-        <v>929</v>
+        <f t="shared" si="15"/>
+        <v>971</v>
       </c>
       <c r="F972" t="s">
         <v>640</v>
@@ -19659,7 +20752,8 @@
     </row>
     <row r="973" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A973">
-        <v>930</v>
+        <f t="shared" si="15"/>
+        <v>972</v>
       </c>
       <c r="F973" t="s">
         <v>640</v>

--- a/dataloader/data/GlycoEnzOntoDB.xlsx
+++ b/dataloader/data/GlycoEnzOntoDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neel\Documents\GitHub\webGlycoEnzDB\dataloader\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF78BE5A-C668-4600-81C2-C83259688F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871F1202-D2EC-45B9-92E9-36D01C545052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4123" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4123" uniqueCount="663">
   <si>
     <t>id</t>
   </si>
@@ -2022,6 +2022,9 @@
   </si>
   <si>
     <t>Gal3S-Sulfatase</t>
+  </si>
+  <si>
+    <t>Extracellular</t>
   </si>
 </sst>
 </file>
@@ -2397,8 +2400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L973"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A953" workbookViewId="0">
-      <selection activeCell="B972" sqref="B972"/>
+    <sheetView tabSelected="1" topLeftCell="A826" workbookViewId="0">
+      <selection activeCell="I844" sqref="I844"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18455,7 +18458,7 @@
         <v>549</v>
       </c>
       <c r="H847" t="s">
-        <v>601</v>
+        <v>662</v>
       </c>
       <c r="L847" t="s">
         <v>429</v>

--- a/dataloader/data/GlycoEnzOntoDB.xlsx
+++ b/dataloader/data/GlycoEnzOntoDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neel\Documents\GitHub\webGlycoEnzDB\dataloader\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C025B4-D097-4F11-85B9-A5AB64AF9E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BB1EAE-C29F-4532-B740-4A159FB3E4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4184" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4184" uniqueCount="668">
   <si>
     <t>id</t>
   </si>
@@ -2040,9 +2040,6 @@
   </si>
   <si>
     <t>GlcNS-Sulfatase</t>
-  </si>
-  <si>
-    <t>B3GALT8</t>
   </si>
 </sst>
 </file>
@@ -2419,7 +2416,7 @@
   <dimension ref="A1:L989"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
-      <selection activeCell="I675" sqref="I675"/>
+      <selection activeCell="I671" sqref="I671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14981,7 +14978,7 @@
         <v>662</v>
       </c>
       <c r="L676" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
     </row>
     <row r="677" spans="1:12" x14ac:dyDescent="0.35">
@@ -15005,7 +15002,7 @@
         <v>662</v>
       </c>
       <c r="L677" t="s">
-        <v>138</v>
+        <v>243</v>
       </c>
     </row>
     <row r="678" spans="1:12" x14ac:dyDescent="0.35">
@@ -15029,7 +15026,7 @@
         <v>662</v>
       </c>
       <c r="L678" t="s">
-        <v>668</v>
+        <v>244</v>
       </c>
     </row>
     <row r="679" spans="1:12" x14ac:dyDescent="0.35">
